--- a/JupyterNotebooks/AvgHW/SA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9993047606774502</v>
+      </c>
+      <c r="D3">
+        <v>1.001196244196295</v>
+      </c>
+      <c r="E3">
         <v>1.002245977412534</v>
-      </c>
-      <c r="D3">
-        <v>0.9967481013407334</v>
-      </c>
-      <c r="E3">
-        <v>1.000758072490847</v>
       </c>
       <c r="F3">
         <v>1.002245977412534</v>
       </c>
       <c r="G3">
-        <v>0.9993047606774502</v>
+        <v>0.9978825782855926</v>
       </c>
       <c r="H3">
-        <v>1.001196244196295</v>
+        <v>1.000841033592865</v>
       </c>
       <c r="I3">
+        <v>0.9967481013407334</v>
+      </c>
+      <c r="J3">
+        <v>0.9993220854949458</v>
+      </c>
+      <c r="K3">
         <v>1.002245977412534</v>
       </c>
-      <c r="J3">
+      <c r="L3">
+        <v>1.000758072490847</v>
+      </c>
+      <c r="M3">
         <v>0.9967481013407334</v>
-      </c>
-      <c r="K3">
-        <v>0.9993220854949458</v>
-      </c>
-      <c r="L3">
-        <v>1.000841033592865</v>
-      </c>
-      <c r="M3">
-        <v>0.9978825782855926</v>
       </c>
       <c r="N3">
         <v>1.002245977412534</v>
@@ -764,7 +716,7 @@
         <v>0.9997873566864078</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9986565850671516</v>
+      </c>
+      <c r="D4">
+        <v>1.002313142709659</v>
+      </c>
+      <c r="E4">
         <v>1.004323557832123</v>
-      </c>
-      <c r="D4">
-        <v>0.9937158352480575</v>
-      </c>
-      <c r="E4">
-        <v>1.001475159479067</v>
       </c>
       <c r="F4">
         <v>1.004323557832123</v>
       </c>
       <c r="G4">
-        <v>0.9986565850671516</v>
+        <v>0.9959094494424265</v>
       </c>
       <c r="H4">
-        <v>1.002313142709659</v>
+        <v>1.001619768430172</v>
       </c>
       <c r="I4">
+        <v>0.9937158352480575</v>
+      </c>
+      <c r="J4">
+        <v>0.9986959295200908</v>
+      </c>
+      <c r="K4">
         <v>1.004323557832123</v>
       </c>
-      <c r="J4">
+      <c r="L4">
+        <v>1.001475159479067</v>
+      </c>
+      <c r="M4">
         <v>0.9937158352480575</v>
-      </c>
-      <c r="K4">
-        <v>0.9986959295200908</v>
-      </c>
-      <c r="L4">
-        <v>1.001619768430172</v>
-      </c>
-      <c r="M4">
-        <v>0.9959094494424265</v>
       </c>
       <c r="N4">
         <v>1.004323557832123</v>
@@ -835,7 +787,7 @@
         <v>0.9995886784660934</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9974273910727542</v>
+      </c>
+      <c r="D5">
+        <v>1.004427773276216</v>
+      </c>
+      <c r="E5">
         <v>1.008301360509192</v>
-      </c>
-      <c r="D5">
-        <v>0.9879650732459996</v>
-      </c>
-      <c r="E5">
-        <v>1.002811538542545</v>
       </c>
       <c r="F5">
         <v>1.008301360509192</v>
       </c>
       <c r="G5">
-        <v>0.9974273910727542</v>
+        <v>0.9921647108635891</v>
       </c>
       <c r="H5">
-        <v>1.004427773276216</v>
+        <v>1.003109224430549</v>
       </c>
       <c r="I5">
+        <v>0.9879650732459995</v>
+      </c>
+      <c r="J5">
+        <v>0.9974949888723349</v>
+      </c>
+      <c r="K5">
         <v>1.008301360509192</v>
       </c>
-      <c r="J5">
-        <v>0.9879650732459996</v>
-      </c>
-      <c r="K5">
-        <v>0.9974949888723349</v>
-      </c>
       <c r="L5">
-        <v>1.003109224430549</v>
+        <v>1.002811538542545</v>
       </c>
       <c r="M5">
-        <v>0.9921647108635891</v>
+        <v>0.9879650732459995</v>
       </c>
       <c r="N5">
         <v>1.008301360509192</v>
@@ -894,19 +846,19 @@
         <v>0.9960680009537661</v>
       </c>
       <c r="T5">
-        <v>0.999692657432579</v>
+        <v>0.9996926574325787</v>
       </c>
       <c r="U5">
-        <v>0.9991263408426228</v>
+        <v>0.9991263408426226</v>
       </c>
       <c r="V5">
-        <v>1.000961344775937</v>
+        <v>1.000961344775936</v>
       </c>
       <c r="W5">
         <v>0.9992127576016475</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,61 +866,61 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9962269885112224</v>
+      </c>
+      <c r="D6">
+        <v>1.006493094279786</v>
+      </c>
+      <c r="E6">
         <v>1.012179238469862</v>
-      </c>
-      <c r="D6">
-        <v>0.9823508654486295</v>
-      </c>
-      <c r="E6">
-        <v>1.004120304628631</v>
       </c>
       <c r="F6">
         <v>1.012179238469862</v>
       </c>
       <c r="G6">
-        <v>0.9962269885112224</v>
+        <v>0.9885089945587855</v>
       </c>
       <c r="H6">
-        <v>1.006493094279786</v>
+        <v>1.004561252207235</v>
       </c>
       <c r="I6">
+        <v>0.9823508654486295</v>
+      </c>
+      <c r="J6">
+        <v>0.9963244873223132</v>
+      </c>
+      <c r="K6">
         <v>1.012179238469862</v>
       </c>
-      <c r="J6">
+      <c r="L6">
+        <v>1.004120304628632</v>
+      </c>
+      <c r="M6">
         <v>0.9823508654486295</v>
-      </c>
-      <c r="K6">
-        <v>0.9963244873223132</v>
-      </c>
-      <c r="L6">
-        <v>1.004561252207235</v>
-      </c>
-      <c r="M6">
-        <v>0.9885089945587855</v>
       </c>
       <c r="N6">
         <v>1.012179238469862</v>
       </c>
       <c r="O6">
-        <v>1.004120304628631</v>
+        <v>1.004120304628632</v>
       </c>
       <c r="P6">
-        <v>0.9932355850386304</v>
+        <v>0.9932355850386306</v>
       </c>
       <c r="Q6">
         <v>1.000173646569927</v>
       </c>
       <c r="R6">
-        <v>0.9995501361823741</v>
+        <v>0.9995501361823743</v>
       </c>
       <c r="S6">
-        <v>0.9942327195294944</v>
+        <v>0.9942327195294945</v>
       </c>
       <c r="T6">
-        <v>0.9995501361823741</v>
+        <v>0.9995501361823743</v>
       </c>
       <c r="U6">
-        <v>0.9987193492645862</v>
+        <v>0.9987193492645863</v>
       </c>
       <c r="V6">
         <v>1.001411327105641</v>
@@ -977,7 +929,7 @@
         <v>0.9988456531783081</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999421596690874</v>
+      </c>
+      <c r="D7">
+        <v>1.000100372766784</v>
+      </c>
+      <c r="E7">
         <v>1.000180659076645</v>
-      </c>
-      <c r="D7">
-        <v>0.9997281879516764</v>
-      </c>
-      <c r="E7">
-        <v>1.000067281632446</v>
       </c>
       <c r="F7">
         <v>1.000180659076645</v>
       </c>
       <c r="G7">
-        <v>0.9999421596690871</v>
+        <v>0.9998237310272454</v>
       </c>
       <c r="H7">
-        <v>1.000100372766784</v>
+        <v>1.00006811053504</v>
       </c>
       <c r="I7">
+        <v>0.9997281879516766</v>
+      </c>
+      <c r="J7">
+        <v>0.9999458837687528</v>
+      </c>
+      <c r="K7">
         <v>1.000180659076645</v>
       </c>
-      <c r="J7">
-        <v>0.9997281879516764</v>
-      </c>
-      <c r="K7">
-        <v>0.9999458837687528</v>
-      </c>
       <c r="L7">
-        <v>1.00006811053504</v>
+        <v>1.000067281632446</v>
       </c>
       <c r="M7">
-        <v>0.9998237310272456</v>
+        <v>0.9997281879516766</v>
       </c>
       <c r="N7">
         <v>1.000180659076645</v>
@@ -1024,22 +976,22 @@
         <v>1.000067281632446</v>
       </c>
       <c r="P7">
-        <v>0.9998977347920613</v>
+        <v>0.9998977347920615</v>
       </c>
       <c r="Q7">
         <v>1.000004720650767</v>
       </c>
       <c r="R7">
-        <v>0.9999920428869226</v>
+        <v>0.9999920428869227</v>
       </c>
       <c r="S7">
-        <v>0.9999125430844032</v>
+        <v>0.9999125430844034</v>
       </c>
       <c r="T7">
-        <v>0.9999920428869226</v>
+        <v>0.9999920428869227</v>
       </c>
       <c r="U7">
-        <v>0.9999795720824637</v>
+        <v>0.9999795720824638</v>
       </c>
       <c r="V7">
         <v>1.0000197894813</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999820483034596</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9998332991713128</v>
+      </c>
+      <c r="D8">
+        <v>1.000287796657376</v>
+      </c>
+      <c r="E8">
         <v>1.000530281513071</v>
-      </c>
-      <c r="D8">
-        <v>0.9992193558023603</v>
-      </c>
-      <c r="E8">
-        <v>1.000187161228321</v>
       </c>
       <c r="F8">
         <v>1.000530281513071</v>
       </c>
       <c r="G8">
-        <v>0.9998332991713127</v>
+        <v>0.999492487707388</v>
       </c>
       <c r="H8">
-        <v>1.000287796657375</v>
+        <v>1.000199061515802</v>
       </c>
       <c r="I8">
+        <v>0.99921935580236</v>
+      </c>
+      <c r="J8">
+        <v>0.999840448547259</v>
+      </c>
+      <c r="K8">
         <v>1.000530281513071</v>
       </c>
-      <c r="J8">
-        <v>0.9992193558023603</v>
-      </c>
-      <c r="K8">
-        <v>0.999840448547259</v>
-      </c>
       <c r="L8">
-        <v>1.000199061515802</v>
+        <v>1.000187161228321</v>
       </c>
       <c r="M8">
-        <v>0.9994924877073882</v>
+        <v>0.99921935580236</v>
       </c>
       <c r="N8">
         <v>1.000530281513071</v>
@@ -1095,7 +1047,7 @@
         <v>1.000187161228321</v>
       </c>
       <c r="P8">
-        <v>0.9997032585153406</v>
+        <v>0.9997032585153405</v>
       </c>
       <c r="Q8">
         <v>1.000010230199817</v>
@@ -1119,7 +1071,7 @@
         <v>0.9999487365178612</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9997528172623799</v>
+      </c>
+      <c r="D9">
+        <v>1.000424369145591</v>
+      </c>
+      <c r="E9">
         <v>1.00080329167368</v>
-      </c>
-      <c r="D9">
-        <v>0.9988461224129723</v>
-      </c>
-      <c r="E9">
-        <v>1.000265908391444</v>
       </c>
       <c r="F9">
         <v>1.00080329167368</v>
       </c>
       <c r="G9">
-        <v>0.9997528172623799</v>
+        <v>0.9992478509404598</v>
       </c>
       <c r="H9">
-        <v>1.000424369145591</v>
+        <v>1.000300247346694</v>
       </c>
       <c r="I9">
+        <v>0.9988461224129723</v>
+      </c>
+      <c r="J9">
+        <v>0.9997571431819348</v>
+      </c>
+      <c r="K9">
         <v>1.00080329167368</v>
       </c>
-      <c r="J9">
+      <c r="L9">
+        <v>1.000265908391444</v>
+      </c>
+      <c r="M9">
         <v>0.9988461224129723</v>
-      </c>
-      <c r="K9">
-        <v>0.9997571431819348</v>
-      </c>
-      <c r="L9">
-        <v>1.000300247346694</v>
-      </c>
-      <c r="M9">
-        <v>0.9992478509404598</v>
       </c>
       <c r="N9">
         <v>1.00080329167368</v>
@@ -1190,7 +1142,7 @@
         <v>0.9999247187943945</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9994807509319894</v>
+      </c>
+      <c r="D10">
+        <v>1.000893482622016</v>
+      </c>
+      <c r="E10">
         <v>1.001674860430624</v>
-      </c>
-      <c r="D10">
-        <v>0.9975721414501514</v>
-      </c>
-      <c r="E10">
-        <v>1.00056753643546</v>
       </c>
       <c r="F10">
         <v>1.001674860430624</v>
       </c>
       <c r="G10">
-        <v>0.9994807509319894</v>
+        <v>0.9984191457618278</v>
       </c>
       <c r="H10">
-        <v>1.000893482622016</v>
+        <v>1.000627144968476</v>
       </c>
       <c r="I10">
+        <v>0.9975721414501511</v>
+      </c>
+      <c r="J10">
+        <v>0.99949455931482</v>
+      </c>
+      <c r="K10">
         <v>1.001674860430624</v>
       </c>
-      <c r="J10">
-        <v>0.9975721414501514</v>
-      </c>
-      <c r="K10">
-        <v>0.9994945593148202</v>
-      </c>
       <c r="L10">
-        <v>1.000627144968476</v>
+        <v>1.00056753643546</v>
       </c>
       <c r="M10">
-        <v>0.9984191457618276</v>
+        <v>0.9975721414501511</v>
       </c>
       <c r="N10">
         <v>1.001674860430624</v>
@@ -1237,22 +1189,22 @@
         <v>1.00056753643546</v>
       </c>
       <c r="P10">
-        <v>0.9990698389428054</v>
+        <v>0.9990698389428053</v>
       </c>
       <c r="Q10">
         <v>1.000024143683724</v>
       </c>
       <c r="R10">
-        <v>0.9999381794387451</v>
+        <v>0.999938179438745</v>
       </c>
       <c r="S10">
-        <v>0.9992068096058668</v>
+        <v>0.9992068096058667</v>
       </c>
       <c r="T10">
-        <v>0.9999381794387453</v>
+        <v>0.999938179438745</v>
       </c>
       <c r="U10">
-        <v>0.9998238223120564</v>
+        <v>0.9998238223120561</v>
       </c>
       <c r="V10">
         <v>1.00019402993577</v>
@@ -1261,7 +1213,7 @@
         <v>0.9998412027394206</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9991014650281391</v>
+      </c>
+      <c r="D11">
+        <v>1.001535476539311</v>
+      </c>
+      <c r="E11">
         <v>1.002976407090901</v>
-      </c>
-      <c r="D11">
-        <v>0.9958143003036214</v>
-      </c>
-      <c r="E11">
-        <v>1.000929033758593</v>
       </c>
       <c r="F11">
         <v>1.002976407090901</v>
       </c>
       <c r="G11">
-        <v>0.9991014650281392</v>
+        <v>0.9972656555656474</v>
       </c>
       <c r="H11">
-        <v>1.001535476539311</v>
+        <v>1.00110879829467</v>
       </c>
       <c r="I11">
+        <v>0.9958143003036214</v>
+      </c>
+      <c r="J11">
+        <v>0.9990965770415194</v>
+      </c>
+      <c r="K11">
         <v>1.002976407090901</v>
       </c>
-      <c r="J11">
+      <c r="L11">
+        <v>1.000929033758593</v>
+      </c>
+      <c r="M11">
         <v>0.9958143003036214</v>
-      </c>
-      <c r="K11">
-        <v>0.9990965770415194</v>
-      </c>
-      <c r="L11">
-        <v>1.00110879829467</v>
-      </c>
-      <c r="M11">
-        <v>0.9972656555656474</v>
       </c>
       <c r="N11">
         <v>1.002976407090901</v>
@@ -1332,7 +1284,7 @@
         <v>0.9997284642028001</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.010743508261242</v>
+      </c>
+      <c r="D12">
+        <v>0.9799296370024908</v>
+      </c>
+      <c r="E12">
         <v>0.9776401178658284</v>
-      </c>
-      <c r="D12">
-        <v>1.052258540876262</v>
-      </c>
-      <c r="E12">
-        <v>0.9800296639585323</v>
       </c>
       <c r="F12">
         <v>0.9776401178658284</v>
       </c>
       <c r="G12">
-        <v>1.010743508261242</v>
+        <v>1.032716044578428</v>
       </c>
       <c r="H12">
-        <v>0.9799296370024908</v>
+        <v>0.990797156155911</v>
       </c>
       <c r="I12">
+        <v>1.052258540876262</v>
+      </c>
+      <c r="J12">
+        <v>1.005953392045314</v>
+      </c>
+      <c r="K12">
         <v>0.9776401178658284</v>
       </c>
-      <c r="J12">
+      <c r="L12">
+        <v>0.9800296639585323</v>
+      </c>
+      <c r="M12">
         <v>1.052258540876262</v>
-      </c>
-      <c r="K12">
-        <v>1.005953392045314</v>
-      </c>
-      <c r="L12">
-        <v>0.9907971561559109</v>
-      </c>
-      <c r="M12">
-        <v>1.032716044578428</v>
       </c>
       <c r="N12">
         <v>0.9776401178658284</v>
@@ -1403,7 +1355,7 @@
         <v>1.003758507593001</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.002401944110519</v>
+      </c>
+      <c r="D13">
+        <v>0.9965292044671699</v>
+      </c>
+      <c r="E13">
         <v>0.9880502330102715</v>
-      </c>
-      <c r="D13">
-        <v>1.009978893299014</v>
-      </c>
-      <c r="E13">
-        <v>1.000344419947144</v>
       </c>
       <c r="F13">
         <v>0.9880502330102715</v>
       </c>
       <c r="G13">
-        <v>1.002401944110519</v>
+        <v>1.007062734392442</v>
       </c>
       <c r="H13">
-        <v>0.99652920446717</v>
+        <v>0.9958967502760446</v>
       </c>
       <c r="I13">
+        <v>1.009978893299014</v>
+      </c>
+      <c r="J13">
+        <v>1.003909950768545</v>
+      </c>
+      <c r="K13">
         <v>0.9880502330102715</v>
       </c>
-      <c r="J13">
+      <c r="L13">
+        <v>1.000344419947144</v>
+      </c>
+      <c r="M13">
         <v>1.009978893299014</v>
-      </c>
-      <c r="K13">
-        <v>1.003909950768545</v>
-      </c>
-      <c r="L13">
-        <v>0.9958967502760446</v>
-      </c>
-      <c r="M13">
-        <v>1.007062734392442</v>
       </c>
       <c r="N13">
         <v>0.9880502330102715</v>
@@ -1462,19 +1414,19 @@
         <v>1.004241752452226</v>
       </c>
       <c r="T13">
-        <v>0.9994578487521434</v>
+        <v>0.9994578487521433</v>
       </c>
       <c r="U13">
         <v>1.000193872591737</v>
       </c>
       <c r="V13">
-        <v>0.9977651446754443</v>
+        <v>0.9977651446754441</v>
       </c>
       <c r="W13">
         <v>1.000521766283894</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9980936794677955</v>
+      </c>
+      <c r="D14">
+        <v>1.007688075550519</v>
+      </c>
+      <c r="E14">
         <v>0.9729884870979971</v>
-      </c>
-      <c r="D14">
-        <v>0.9849952232975554</v>
-      </c>
-      <c r="E14">
-        <v>1.024453253467575</v>
       </c>
       <c r="F14">
         <v>0.9729884870979971</v>
       </c>
       <c r="G14">
-        <v>0.9980936794677955</v>
+        <v>0.9938982115638184</v>
       </c>
       <c r="H14">
-        <v>1.007688075550519</v>
+        <v>0.9922236668840205</v>
       </c>
       <c r="I14">
+        <v>0.9849952232975554</v>
+      </c>
+      <c r="J14">
+        <v>1.01033041267105</v>
+      </c>
+      <c r="K14">
         <v>0.9729884870979971</v>
       </c>
-      <c r="J14">
+      <c r="L14">
+        <v>1.024453253467575</v>
+      </c>
+      <c r="M14">
         <v>0.9849952232975554</v>
-      </c>
-      <c r="K14">
-        <v>1.01033041267105</v>
-      </c>
-      <c r="L14">
-        <v>0.9922236668840205</v>
-      </c>
-      <c r="M14">
-        <v>0.9938982115638184</v>
       </c>
       <c r="N14">
         <v>0.9729884870979971</v>
@@ -1545,7 +1497,7 @@
         <v>0.9980838762500412</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.000750561263715</v>
+      </c>
+      <c r="D15">
+        <v>0.9968479510944342</v>
+      </c>
+      <c r="E15">
         <v>1.011122292967806</v>
-      </c>
-      <c r="D15">
-        <v>1.006276322162429</v>
-      </c>
-      <c r="E15">
-        <v>0.9899650001712001</v>
       </c>
       <c r="F15">
         <v>1.011122292967806</v>
       </c>
       <c r="G15">
-        <v>1.000750561263715</v>
+        <v>1.002530216262848</v>
       </c>
       <c r="H15">
-        <v>0.9968479510944342</v>
+        <v>1.003166208669013</v>
       </c>
       <c r="I15">
+        <v>1.006276322162429</v>
+      </c>
+      <c r="J15">
+        <v>0.9957375492014302</v>
+      </c>
+      <c r="K15">
         <v>1.011122292967806</v>
       </c>
-      <c r="J15">
+      <c r="L15">
+        <v>0.9899650001712001</v>
+      </c>
+      <c r="M15">
         <v>1.006276322162429</v>
-      </c>
-      <c r="K15">
-        <v>0.9957375492014302</v>
-      </c>
-      <c r="L15">
-        <v>1.003166208669013</v>
-      </c>
-      <c r="M15">
-        <v>1.002530216262848</v>
       </c>
       <c r="N15">
         <v>1.011122292967806</v>
@@ -1598,7 +1550,7 @@
         <v>0.9953577807174577</v>
       </c>
       <c r="R15">
-        <v>1.002454538433812</v>
+        <v>1.002454538433811</v>
       </c>
       <c r="S15">
         <v>0.998997294532448</v>
@@ -1616,7 +1568,7 @@
         <v>1.000799512724109</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000069403838672</v>
+        <v>0.9864172321501407</v>
       </c>
       <c r="D16">
-        <v>1.000022016127016</v>
+        <v>1.023372703560427</v>
       </c>
       <c r="E16">
-        <v>0.9999497899094741</v>
+        <v>1.043742191807125</v>
       </c>
       <c r="F16">
-        <v>1.000069403838672</v>
+        <v>1.043742191807125</v>
       </c>
       <c r="G16">
-        <v>1.000000437482595</v>
+        <v>0.9586644255346836</v>
       </c>
       <c r="H16">
-        <v>0.9999883288986317</v>
+        <v>1.016377590404759</v>
       </c>
       <c r="I16">
-        <v>1.000069403838672</v>
+        <v>0.9365186633841645</v>
       </c>
       <c r="J16">
-        <v>1.000022016127016</v>
+        <v>0.9868017493388309</v>
       </c>
       <c r="K16">
-        <v>0.999973999669195</v>
+        <v>1.043742191807125</v>
       </c>
       <c r="L16">
-        <v>1.00001991039512</v>
+        <v>1.014881573353246</v>
       </c>
       <c r="M16">
-        <v>1.00000505148155</v>
+        <v>0.9365186633841645</v>
       </c>
       <c r="N16">
-        <v>1.000069403838672</v>
+        <v>1.043742191807125</v>
       </c>
       <c r="O16">
-        <v>0.9999497899094741</v>
+        <v>1.014881573353246</v>
       </c>
       <c r="P16">
-        <v>0.9999859030182452</v>
+        <v>0.9757001183687054</v>
       </c>
       <c r="Q16">
-        <v>0.9999751136960344</v>
+        <v>1.000649402751693</v>
       </c>
       <c r="R16">
-        <v>1.000013736625054</v>
+        <v>0.9983808095148451</v>
       </c>
       <c r="S16">
-        <v>0.9999907478396951</v>
+        <v>0.9792724896291838</v>
       </c>
       <c r="T16">
-        <v>1.000013736625054</v>
+        <v>0.9983808095148451</v>
       </c>
       <c r="U16">
-        <v>1.000010411839439</v>
+        <v>0.995389915173669</v>
       </c>
       <c r="V16">
-        <v>1.000022210239286</v>
+        <v>1.00506037050036</v>
       </c>
       <c r="W16">
-        <v>1.000003617225282</v>
+        <v>0.9958470161916719</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000089393637363</v>
+        <v>0.9888412446956345</v>
       </c>
       <c r="D17">
-        <v>0.9996531569107845</v>
+        <v>1.019253255776145</v>
       </c>
       <c r="E17">
-        <v>1.00016185953214</v>
+        <v>1.035507902754191</v>
       </c>
       <c r="F17">
-        <v>1.000089393637363</v>
+        <v>1.035507902754191</v>
       </c>
       <c r="G17">
-        <v>0.9999328579946546</v>
+        <v>0.9660480373059315</v>
       </c>
       <c r="H17">
-        <v>1.000134499049726</v>
+        <v>1.013320984127431</v>
       </c>
       <c r="I17">
-        <v>1.000089393637363</v>
+        <v>0.9477930807286999</v>
       </c>
       <c r="J17">
-        <v>0.9996531569107845</v>
+        <v>0.9893130257643996</v>
       </c>
       <c r="K17">
-        <v>0.9999819274347767</v>
+        <v>1.035507902754191</v>
       </c>
       <c r="L17">
-        <v>1.000043933992412</v>
+        <v>1.012507716055521</v>
       </c>
       <c r="M17">
-        <v>0.9997902260550089</v>
+        <v>0.9477930807286999</v>
       </c>
       <c r="N17">
-        <v>1.000089393637363</v>
+        <v>1.035507902754191</v>
       </c>
       <c r="O17">
-        <v>1.00016185953214</v>
+        <v>1.012507716055521</v>
       </c>
       <c r="P17">
-        <v>0.9999075082214623</v>
+        <v>0.9801503983921105</v>
       </c>
       <c r="Q17">
-        <v>1.000047358763397</v>
+        <v>1.000674480375578</v>
       </c>
       <c r="R17">
-        <v>0.9999681366934291</v>
+        <v>0.9986028998461373</v>
       </c>
       <c r="S17">
-        <v>0.9999159581458598</v>
+        <v>0.9830473471599518</v>
       </c>
       <c r="T17">
-        <v>0.9999681366934291</v>
+        <v>0.9986028998461375</v>
       </c>
       <c r="U17">
-        <v>0.9999593170187355</v>
+        <v>0.9961624860585117</v>
       </c>
       <c r="V17">
-        <v>0.999985332342461</v>
+        <v>1.004031569397647</v>
       </c>
       <c r="W17">
-        <v>0.9999734818258581</v>
+        <v>0.9965731559009943</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000882398424111</v>
+        <v>0.9936874279182286</v>
       </c>
       <c r="D18">
-        <v>0.9991113574810083</v>
+        <v>1.011012629904237</v>
       </c>
       <c r="E18">
-        <v>1.000064143625998</v>
+        <v>1.019081021225872</v>
       </c>
       <c r="F18">
-        <v>1.000882398424111</v>
+        <v>1.019081021225872</v>
       </c>
       <c r="G18">
-        <v>0.9997963985106145</v>
+        <v>0.9808102752237516</v>
       </c>
       <c r="H18">
-        <v>1.000315615492605</v>
+        <v>1.007220757524439</v>
       </c>
       <c r="I18">
-        <v>1.000882398424111</v>
+        <v>0.9703405504890883</v>
       </c>
       <c r="J18">
-        <v>0.9991113574810083</v>
+        <v>0.9943206081028206</v>
       </c>
       <c r="K18">
-        <v>0.9997176198305815</v>
+        <v>1.019081021225872</v>
       </c>
       <c r="L18">
-        <v>1.00031107959967</v>
+        <v>1.007737705079701</v>
       </c>
       <c r="M18">
-        <v>0.9993918451374509</v>
+        <v>0.9703405504890883</v>
       </c>
       <c r="N18">
-        <v>1.000882398424111</v>
+        <v>1.019081021225872</v>
       </c>
       <c r="O18">
-        <v>1.000064143625998</v>
+        <v>1.007737705079701</v>
       </c>
       <c r="P18">
-        <v>0.9995877505535031</v>
+        <v>0.9890391277843945</v>
       </c>
       <c r="Q18">
-        <v>0.9999302710683062</v>
+        <v>1.000712566498965</v>
       </c>
       <c r="R18">
-        <v>1.000019299843706</v>
+        <v>0.9990530922648871</v>
       </c>
       <c r="S18">
-        <v>0.9996572998725403</v>
+        <v>0.9905885611623392</v>
       </c>
       <c r="T18">
-        <v>1.000019299843706</v>
+        <v>0.9990530922648871</v>
       </c>
       <c r="U18">
-        <v>0.9999635745104329</v>
+        <v>0.9977116761782225</v>
       </c>
       <c r="V18">
-        <v>1.000147339293169</v>
+        <v>1.001985545187753</v>
       </c>
       <c r="W18">
-        <v>0.9999488072627548</v>
+        <v>0.9980263719335173</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.99308507892178</v>
+      </c>
+      <c r="D19">
+        <v>1.012152367523269</v>
+      </c>
+      <c r="E19">
+        <v>1.020439944066108</v>
+      </c>
+      <c r="F19">
+        <v>1.020439944066108</v>
+      </c>
+      <c r="G19">
+        <v>0.9789187063292965</v>
+      </c>
+      <c r="H19">
+        <v>1.00778930657316</v>
+      </c>
+      <c r="I19">
+        <v>0.9672982316518439</v>
+      </c>
+      <c r="J19">
+        <v>0.9939557166288697</v>
+      </c>
+      <c r="K19">
+        <v>1.020439944066108</v>
+      </c>
+      <c r="L19">
+        <v>1.008823388179733</v>
+      </c>
+      <c r="M19">
+        <v>0.9672982316518439</v>
+      </c>
+      <c r="N19">
+        <v>1.020439944066108</v>
+      </c>
+      <c r="O19">
+        <v>1.008823388179733</v>
+      </c>
+      <c r="P19">
+        <v>0.9880608099157885</v>
+      </c>
+      <c r="Q19">
+        <v>1.000954233550757</v>
+      </c>
+      <c r="R19">
+        <v>0.9988538546325616</v>
+      </c>
+      <c r="S19">
+        <v>0.989735566251119</v>
+      </c>
+      <c r="T19">
+        <v>0.9988538546325616</v>
+      </c>
+      <c r="U19">
+        <v>0.9974116607048662</v>
+      </c>
+      <c r="V19">
+        <v>1.002017317377115</v>
+      </c>
+      <c r="W19">
+        <v>0.9978078424842575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000437482595</v>
+      </c>
+      <c r="D20">
+        <v>0.9999883288986317</v>
+      </c>
+      <c r="E20">
+        <v>1.000069403838672</v>
+      </c>
+      <c r="F20">
+        <v>1.000069403838672</v>
+      </c>
+      <c r="G20">
+        <v>1.00000505148155</v>
+      </c>
+      <c r="H20">
+        <v>1.00001991039512</v>
+      </c>
+      <c r="I20">
+        <v>1.000022016127016</v>
+      </c>
+      <c r="J20">
+        <v>0.999973999669195</v>
+      </c>
+      <c r="K20">
+        <v>1.000069403838672</v>
+      </c>
+      <c r="L20">
+        <v>0.9999497899094741</v>
+      </c>
+      <c r="M20">
+        <v>1.000022016127016</v>
+      </c>
+      <c r="N20">
+        <v>1.000069403838672</v>
+      </c>
+      <c r="O20">
+        <v>0.9999497899094741</v>
+      </c>
+      <c r="P20">
+        <v>0.9999859030182452</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999751136960344</v>
+      </c>
+      <c r="R20">
+        <v>1.000013736625054</v>
+      </c>
+      <c r="S20">
+        <v>0.9999907478396951</v>
+      </c>
+      <c r="T20">
+        <v>1.000013736625054</v>
+      </c>
+      <c r="U20">
+        <v>1.000010411839439</v>
+      </c>
+      <c r="V20">
+        <v>1.000022210239286</v>
+      </c>
+      <c r="W20">
+        <v>1.000003617225282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999328579946544</v>
+      </c>
+      <c r="D21">
+        <v>1.000134499049726</v>
+      </c>
+      <c r="E21">
+        <v>1.000089393637363</v>
+      </c>
+      <c r="F21">
+        <v>1.000089393637363</v>
+      </c>
+      <c r="G21">
+        <v>0.9997902260550089</v>
+      </c>
+      <c r="H21">
+        <v>1.000043933992413</v>
+      </c>
+      <c r="I21">
+        <v>0.9996531569107845</v>
+      </c>
+      <c r="J21">
+        <v>0.9999819274347769</v>
+      </c>
+      <c r="K21">
+        <v>1.000089393637363</v>
+      </c>
+      <c r="L21">
+        <v>1.00016185953214</v>
+      </c>
+      <c r="M21">
+        <v>0.9996531569107845</v>
+      </c>
+      <c r="N21">
+        <v>1.000089393637363</v>
+      </c>
+      <c r="O21">
+        <v>1.00016185953214</v>
+      </c>
+      <c r="P21">
+        <v>0.9999075082214623</v>
+      </c>
+      <c r="Q21">
+        <v>1.000047358763397</v>
+      </c>
+      <c r="R21">
+        <v>0.9999681366934291</v>
+      </c>
+      <c r="S21">
+        <v>0.9999159581458597</v>
+      </c>
+      <c r="T21">
+        <v>0.9999681366934291</v>
+      </c>
+      <c r="U21">
+        <v>0.9999593170187354</v>
+      </c>
+      <c r="V21">
+        <v>0.999985332342461</v>
+      </c>
+      <c r="W21">
+        <v>0.9999734818258583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9997963985106145</v>
+      </c>
+      <c r="D22">
+        <v>1.000315615492605</v>
+      </c>
+      <c r="E22">
+        <v>1.000882398424111</v>
+      </c>
+      <c r="F22">
+        <v>1.000882398424111</v>
+      </c>
+      <c r="G22">
+        <v>0.9993918451374509</v>
+      </c>
+      <c r="H22">
+        <v>1.00031107959967</v>
+      </c>
+      <c r="I22">
+        <v>0.9991113574810083</v>
+      </c>
+      <c r="J22">
+        <v>0.9997176198305815</v>
+      </c>
+      <c r="K22">
+        <v>1.000882398424111</v>
+      </c>
+      <c r="L22">
+        <v>1.000064143625998</v>
+      </c>
+      <c r="M22">
+        <v>0.9991113574810083</v>
+      </c>
+      <c r="N22">
+        <v>1.000882398424111</v>
+      </c>
+      <c r="O22">
+        <v>1.000064143625998</v>
+      </c>
+      <c r="P22">
+        <v>0.9995877505535031</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999302710683062</v>
+      </c>
+      <c r="R22">
+        <v>1.000019299843706</v>
+      </c>
+      <c r="S22">
+        <v>0.9996572998725403</v>
+      </c>
+      <c r="T22">
+        <v>1.000019299843706</v>
+      </c>
+      <c r="U22">
+        <v>0.9999635745104329</v>
+      </c>
+      <c r="V22">
+        <v>1.000147339293169</v>
+      </c>
+      <c r="W22">
+        <v>0.9999488072627549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9995424062090804</v>
+      </c>
+      <c r="D23">
+        <v>1.000643174764234</v>
+      </c>
+      <c r="E23">
         <v>1.002414840031256</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.002414840031256</v>
+      </c>
+      <c r="G23">
+        <v>0.9986550379338995</v>
+      </c>
+      <c r="H23">
+        <v>1.000823994679265</v>
+      </c>
+      <c r="I23">
         <v>0.9981227551226015</v>
       </c>
-      <c r="E19">
+      <c r="J23">
+        <v>0.9992043830752645</v>
+      </c>
+      <c r="K23">
+        <v>1.002414840031256</v>
+      </c>
+      <c r="L23">
         <v>0.9998415261731387</v>
       </c>
-      <c r="F19">
+      <c r="M23">
+        <v>0.9981227551226015</v>
+      </c>
+      <c r="N23">
         <v>1.002414840031256</v>
       </c>
-      <c r="G19">
-        <v>0.9995424062090804</v>
-      </c>
-      <c r="H19">
-        <v>1.000643174764235</v>
-      </c>
-      <c r="I19">
-        <v>1.002414840031256</v>
-      </c>
-      <c r="J19">
-        <v>0.9981227551226015</v>
-      </c>
-      <c r="K19">
-        <v>0.9992043830752645</v>
-      </c>
-      <c r="L19">
-        <v>1.000823994679265</v>
-      </c>
-      <c r="M19">
-        <v>0.9986550379338998</v>
-      </c>
-      <c r="N19">
-        <v>1.002414840031256</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9998415261731387</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9989821406478701</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9996919661911096</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000126373775665</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9991688958349402</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000126373775665</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999803818840192</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000467273513467</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999060147485925</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/SA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9993047606774502</v>
+        <v>0.9923512595605198</v>
       </c>
       <c r="D3">
-        <v>1.001196244196295</v>
+        <v>1.013354216015853</v>
       </c>
       <c r="E3">
-        <v>1.002245977412534</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="F3">
-        <v>1.002245977412534</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="G3">
-        <v>0.9978825782855926</v>
+        <v>0.9767405657564835</v>
       </c>
       <c r="H3">
-        <v>1.000841033592865</v>
+        <v>1.00873586884726</v>
       </c>
       <c r="I3">
-        <v>0.9967481013407334</v>
+        <v>0.9640362748487014</v>
       </c>
       <c r="J3">
-        <v>0.9993220854949458</v>
+        <v>0.9931386517363123</v>
       </c>
       <c r="K3">
-        <v>1.002245977412534</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="L3">
-        <v>1.000758072490847</v>
+        <v>1.009415521520176</v>
       </c>
       <c r="M3">
-        <v>0.9967481013407334</v>
+        <v>0.9640362748487014</v>
       </c>
       <c r="N3">
-        <v>1.002245977412534</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="O3">
-        <v>1.000758072490847</v>
+        <v>1.009415521520176</v>
       </c>
       <c r="P3">
-        <v>0.9987530869157901</v>
+        <v>0.9867258981844385</v>
       </c>
       <c r="Q3">
-        <v>1.000031416584148</v>
+        <v>1.000883390540348</v>
       </c>
       <c r="R3">
-        <v>0.9999173837480382</v>
+        <v>0.9988397788040354</v>
       </c>
       <c r="S3">
-        <v>0.9989369781696769</v>
+        <v>0.9886010186431323</v>
       </c>
       <c r="T3">
-        <v>0.9999173837480381</v>
+        <v>0.9988397788040354</v>
       </c>
       <c r="U3">
-        <v>0.9997642279803911</v>
+        <v>0.9972176489931566</v>
       </c>
       <c r="V3">
-        <v>1.00026057786682</v>
+        <v>1.002387627203171</v>
       </c>
       <c r="W3">
-        <v>0.9997873566864078</v>
+        <v>0.9976049872910668</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9986565850671516</v>
+        <v>0.9931100315719333</v>
       </c>
       <c r="D4">
-        <v>1.002313142709659</v>
+        <v>1.012031060281403</v>
       </c>
       <c r="E4">
-        <v>1.004323557832123</v>
+        <v>1.020752808647031</v>
       </c>
       <c r="F4">
-        <v>1.004323557832123</v>
+        <v>1.020752808647031</v>
       </c>
       <c r="G4">
-        <v>0.9959094494424265</v>
+        <v>0.9790515930618695</v>
       </c>
       <c r="H4">
-        <v>1.001619768430172</v>
+        <v>1.007859863678723</v>
       </c>
       <c r="I4">
-        <v>0.9937158352480575</v>
+        <v>0.9676078766781623</v>
       </c>
       <c r="J4">
-        <v>0.9986959295200908</v>
+        <v>0.9938285020900097</v>
       </c>
       <c r="K4">
-        <v>1.004323557832123</v>
+        <v>1.020752808647031</v>
       </c>
       <c r="L4">
-        <v>1.001475159479067</v>
+        <v>1.008496810931796</v>
       </c>
       <c r="M4">
-        <v>0.9937158352480575</v>
+        <v>0.9676078766781623</v>
       </c>
       <c r="N4">
-        <v>1.004323557832123</v>
+        <v>1.020752808647031</v>
       </c>
       <c r="O4">
-        <v>1.001475159479067</v>
+        <v>1.008496810931796</v>
       </c>
       <c r="P4">
-        <v>0.9975954973635625</v>
+        <v>0.9880523438049789</v>
       </c>
       <c r="Q4">
-        <v>1.00006587227311</v>
+        <v>1.000803421251864</v>
       </c>
       <c r="R4">
-        <v>0.999838184186416</v>
+        <v>0.9989524987523296</v>
       </c>
       <c r="S4">
-        <v>0.9979491932647587</v>
+        <v>0.989738239727297</v>
       </c>
       <c r="T4">
-        <v>0.999838184186416</v>
+        <v>0.9989524987523297</v>
       </c>
       <c r="U4">
-        <v>0.9995427844065999</v>
+        <v>0.9974918819572306</v>
       </c>
       <c r="V4">
-        <v>1.000498939091705</v>
+        <v>1.002144067295191</v>
       </c>
       <c r="W4">
-        <v>0.9995886784660934</v>
+        <v>0.9978423183676159</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9974273910727542</v>
+        <v>0.9908952344743925</v>
       </c>
       <c r="D5">
-        <v>1.004427773276216</v>
+        <v>1.015890966226415</v>
       </c>
       <c r="E5">
-        <v>1.008301360509192</v>
+        <v>1.027527977789758</v>
       </c>
       <c r="F5">
-        <v>1.008301360509192</v>
+        <v>1.027527977789758</v>
       </c>
       <c r="G5">
-        <v>0.9921647108635891</v>
+        <v>0.9723056473315353</v>
       </c>
       <c r="H5">
-        <v>1.003109224430549</v>
+        <v>1.01042266431267</v>
       </c>
       <c r="I5">
-        <v>0.9879650732459995</v>
+        <v>0.9571851618598373</v>
       </c>
       <c r="J5">
-        <v>0.9974949888723349</v>
+        <v>0.9918080817250667</v>
       </c>
       <c r="K5">
-        <v>1.008301360509192</v>
+        <v>1.027527977789758</v>
       </c>
       <c r="L5">
-        <v>1.002811538542545</v>
+        <v>1.011166137169812</v>
       </c>
       <c r="M5">
-        <v>0.9879650732459995</v>
+        <v>0.9571851618598373</v>
       </c>
       <c r="N5">
-        <v>1.008301360509192</v>
+        <v>1.027527977789758</v>
       </c>
       <c r="O5">
-        <v>1.002811538542545</v>
+        <v>1.011166137169812</v>
       </c>
       <c r="P5">
-        <v>0.9953883058942721</v>
+        <v>0.9841756495148246</v>
       </c>
       <c r="Q5">
-        <v>1.000119464807649</v>
+        <v>1.001030685822102</v>
       </c>
       <c r="R5">
-        <v>0.9996926574325787</v>
+        <v>0.998626425606469</v>
       </c>
       <c r="S5">
-        <v>0.9960680009537661</v>
+        <v>0.9864155111680138</v>
       </c>
       <c r="T5">
-        <v>0.9996926574325787</v>
+        <v>0.998626425606469</v>
       </c>
       <c r="U5">
-        <v>0.9991263408426226</v>
+        <v>0.9966936278234498</v>
       </c>
       <c r="V5">
-        <v>1.000961344775936</v>
+        <v>1.002860497816711</v>
       </c>
       <c r="W5">
-        <v>0.9992127576016475</v>
+        <v>0.9971502338611857</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9962269885112224</v>
+        <v>0.9895178686363649</v>
       </c>
       <c r="D6">
-        <v>1.006493094279786</v>
+        <v>1.01828799375</v>
       </c>
       <c r="E6">
-        <v>1.012179238469862</v>
+        <v>1.031769386704545</v>
       </c>
       <c r="F6">
-        <v>1.012179238469862</v>
+        <v>1.031769386704545</v>
       </c>
       <c r="G6">
-        <v>0.9885089945587855</v>
+        <v>0.9681100438636374</v>
       </c>
       <c r="H6">
-        <v>1.004561252207235</v>
+        <v>1.012025167556818</v>
       </c>
       <c r="I6">
-        <v>0.9823508654486295</v>
+        <v>0.9507071369318183</v>
       </c>
       <c r="J6">
-        <v>0.9963244873223132</v>
+        <v>0.990541391818182</v>
       </c>
       <c r="K6">
-        <v>1.012179238469862</v>
+        <v>1.031769386704545</v>
       </c>
       <c r="L6">
-        <v>1.004120304628632</v>
+        <v>1.012807673295455</v>
       </c>
       <c r="M6">
-        <v>0.9823508654486295</v>
+        <v>0.9507071369318183</v>
       </c>
       <c r="N6">
-        <v>1.012179238469862</v>
+        <v>1.031769386704545</v>
       </c>
       <c r="O6">
-        <v>1.004120304628632</v>
+        <v>1.012807673295455</v>
       </c>
       <c r="P6">
-        <v>0.9932355850386306</v>
+        <v>0.9817574051136365</v>
       </c>
       <c r="Q6">
-        <v>1.000173646569927</v>
+        <v>1.00116277096591</v>
       </c>
       <c r="R6">
-        <v>0.9995501361823743</v>
+        <v>0.9984280656439394</v>
       </c>
       <c r="S6">
-        <v>0.9942327195294945</v>
+        <v>0.9843442262878793</v>
       </c>
       <c r="T6">
-        <v>0.9995501361823743</v>
+        <v>0.9984280656439394</v>
       </c>
       <c r="U6">
-        <v>0.9987193492645863</v>
+        <v>0.9962005163920458</v>
       </c>
       <c r="V6">
-        <v>1.001411327105641</v>
+        <v>1.003314290454546</v>
       </c>
       <c r="W6">
-        <v>0.9988456531783081</v>
+        <v>0.9967208328196024</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999421596690874</v>
+        <v>0.9753042457920319</v>
       </c>
       <c r="D7">
-        <v>1.000100372766784</v>
+        <v>1.043018185501096</v>
       </c>
       <c r="E7">
-        <v>1.000180659076645</v>
+        <v>1.073047867579804</v>
       </c>
       <c r="F7">
-        <v>1.000180659076645</v>
+        <v>1.073047867579804</v>
       </c>
       <c r="G7">
-        <v>0.9998237310272454</v>
+        <v>0.925480579543112</v>
       </c>
       <c r="H7">
-        <v>1.00006811053504</v>
+        <v>1.027561665083226</v>
       </c>
       <c r="I7">
-        <v>0.9997281879516766</v>
+        <v>0.8849584978798652</v>
       </c>
       <c r="J7">
-        <v>0.9999458837687528</v>
+        <v>0.978295330311668</v>
       </c>
       <c r="K7">
-        <v>1.000180659076645</v>
+        <v>1.073047867579804</v>
       </c>
       <c r="L7">
-        <v>1.000067281632446</v>
+        <v>1.030989120488142</v>
       </c>
       <c r="M7">
-        <v>0.9997281879516766</v>
+        <v>0.8849584978798652</v>
       </c>
       <c r="N7">
-        <v>1.000180659076645</v>
+        <v>1.073047867579804</v>
       </c>
       <c r="O7">
-        <v>1.000067281632446</v>
+        <v>1.030989120488142</v>
       </c>
       <c r="P7">
-        <v>0.9998977347920615</v>
+        <v>0.9579738091840038</v>
       </c>
       <c r="Q7">
-        <v>1.000004720650767</v>
+        <v>1.003146683140087</v>
       </c>
       <c r="R7">
-        <v>0.9999920428869227</v>
+        <v>0.9963318286492706</v>
       </c>
       <c r="S7">
-        <v>0.9999125430844034</v>
+        <v>0.9637506213866799</v>
       </c>
       <c r="T7">
-        <v>0.9999920428869227</v>
+        <v>0.9963318286492706</v>
       </c>
       <c r="U7">
-        <v>0.9999795720824638</v>
+        <v>0.991074932934961</v>
       </c>
       <c r="V7">
-        <v>1.0000197894813</v>
+        <v>1.00746951986393</v>
       </c>
       <c r="W7">
-        <v>0.9999820483034596</v>
+        <v>0.9923319365223682</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998332991713128</v>
+        <v>0.9751474916763445</v>
       </c>
       <c r="D8">
-        <v>1.000287796657376</v>
+        <v>1.043285000322776</v>
       </c>
       <c r="E8">
-        <v>1.000530281513071</v>
+        <v>1.07359118883383</v>
       </c>
       <c r="F8">
-        <v>1.000530281513071</v>
+        <v>1.07359118883383</v>
       </c>
       <c r="G8">
-        <v>0.999492487707388</v>
+        <v>0.924999389724506</v>
       </c>
       <c r="H8">
-        <v>1.000199061515802</v>
+        <v>1.027763965647965</v>
       </c>
       <c r="I8">
-        <v>0.99921935580236</v>
+        <v>0.8842227880497541</v>
       </c>
       <c r="J8">
-        <v>0.999840448547259</v>
+        <v>0.9781294484710327</v>
       </c>
       <c r="K8">
-        <v>1.000530281513071</v>
+        <v>1.07359118883383</v>
       </c>
       <c r="L8">
-        <v>1.000187161228321</v>
+        <v>1.031137746521368</v>
       </c>
       <c r="M8">
-        <v>0.99921935580236</v>
+        <v>0.8842227880497541</v>
       </c>
       <c r="N8">
-        <v>1.000530281513071</v>
+        <v>1.07359118883383</v>
       </c>
       <c r="O8">
-        <v>1.000187161228321</v>
+        <v>1.031137746521368</v>
       </c>
       <c r="P8">
-        <v>0.9997032585153405</v>
+        <v>0.9576802672855609</v>
       </c>
       <c r="Q8">
-        <v>1.000010230199817</v>
+        <v>1.003142619098856</v>
       </c>
       <c r="R8">
-        <v>0.9999789328479173</v>
+        <v>0.9963172411349838</v>
       </c>
       <c r="S8">
-        <v>0.9997466054006646</v>
+        <v>0.963502675415822</v>
       </c>
       <c r="T8">
-        <v>0.9999789328479173</v>
+        <v>0.9963172411349838</v>
       </c>
       <c r="U8">
-        <v>0.9999425244287662</v>
+        <v>0.991024803770324</v>
       </c>
       <c r="V8">
-        <v>1.000060075845627</v>
+        <v>1.007538080783025</v>
       </c>
       <c r="W8">
-        <v>0.9999487365178612</v>
+        <v>0.9922846274059469</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9997528172623799</v>
+        <v>0.9750420542527761</v>
       </c>
       <c r="D9">
-        <v>1.000424369145591</v>
+        <v>1.043477433513862</v>
       </c>
       <c r="E9">
-        <v>1.00080329167368</v>
+        <v>1.073859444717549</v>
       </c>
       <c r="F9">
-        <v>1.00080329167368</v>
+        <v>1.073859444717549</v>
       </c>
       <c r="G9">
-        <v>0.9992478509404598</v>
+        <v>0.9246747603525078</v>
       </c>
       <c r="H9">
-        <v>1.000300247346694</v>
+        <v>1.027870529701677</v>
       </c>
       <c r="I9">
-        <v>0.9988461224129723</v>
+        <v>0.8837098617532977</v>
       </c>
       <c r="J9">
-        <v>0.9997571431819348</v>
+        <v>0.9780536026394598</v>
       </c>
       <c r="K9">
-        <v>1.00080329167368</v>
+        <v>1.073859444717549</v>
       </c>
       <c r="L9">
-        <v>1.000265908391444</v>
+        <v>1.031303344889189</v>
       </c>
       <c r="M9">
-        <v>0.9988461224129723</v>
+        <v>0.8837098617532977</v>
       </c>
       <c r="N9">
-        <v>1.00080329167368</v>
+        <v>1.073859444717549</v>
       </c>
       <c r="O9">
-        <v>1.000265908391444</v>
+        <v>1.031303344889189</v>
       </c>
       <c r="P9">
-        <v>0.999556015402208</v>
+        <v>0.9575066033212435</v>
       </c>
       <c r="Q9">
-        <v>1.000009362826912</v>
+        <v>1.003172699570983</v>
       </c>
       <c r="R9">
-        <v>0.9999717741593651</v>
+        <v>0.9962908837866786</v>
       </c>
       <c r="S9">
-        <v>0.9996216160222652</v>
+        <v>0.9633517536317543</v>
       </c>
       <c r="T9">
-        <v>0.9999717741593651</v>
+        <v>0.9962908837866786</v>
       </c>
       <c r="U9">
-        <v>0.9999170349351189</v>
+        <v>0.990978676403203</v>
       </c>
       <c r="V9">
-        <v>1.000094286282831</v>
+        <v>1.007554830066072</v>
       </c>
       <c r="W9">
-        <v>0.9999247187943945</v>
+        <v>0.9922488789775399</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9994807509319894</v>
+        <v>0.9744991009073263</v>
       </c>
       <c r="D10">
-        <v>1.000893482622016</v>
+        <v>1.044389207483026</v>
       </c>
       <c r="E10">
-        <v>1.001674860430624</v>
+        <v>1.075819880564946</v>
       </c>
       <c r="F10">
-        <v>1.001674860430624</v>
+        <v>1.075819880564946</v>
       </c>
       <c r="G10">
-        <v>0.9984191457618278</v>
+        <v>0.9230127711958044</v>
       </c>
       <c r="H10">
-        <v>1.000627144968476</v>
+        <v>1.028593690603204</v>
       </c>
       <c r="I10">
-        <v>0.9975721414501511</v>
+        <v>0.8811850674220918</v>
       </c>
       <c r="J10">
-        <v>0.99949455931482</v>
+        <v>0.9774496552243801</v>
       </c>
       <c r="K10">
-        <v>1.001674860430624</v>
+        <v>1.075819880564946</v>
       </c>
       <c r="L10">
-        <v>1.00056753643546</v>
+        <v>1.03176262226636</v>
       </c>
       <c r="M10">
-        <v>0.9975721414501511</v>
+        <v>0.8811850674220918</v>
       </c>
       <c r="N10">
-        <v>1.001674860430624</v>
+        <v>1.075819880564946</v>
       </c>
       <c r="O10">
-        <v>1.00056753643546</v>
+        <v>1.03176262226636</v>
       </c>
       <c r="P10">
-        <v>0.9990698389428053</v>
+        <v>0.9564738448442259</v>
       </c>
       <c r="Q10">
-        <v>1.000024143683724</v>
+        <v>1.003130861586843</v>
       </c>
       <c r="R10">
-        <v>0.999938179438745</v>
+        <v>0.9962558567511325</v>
       </c>
       <c r="S10">
-        <v>0.9992068096058667</v>
+        <v>0.962482263531926</v>
       </c>
       <c r="T10">
-        <v>0.999938179438745</v>
+        <v>0.9962558567511325</v>
       </c>
       <c r="U10">
-        <v>0.9998238223120561</v>
+        <v>0.990816667790181</v>
       </c>
       <c r="V10">
-        <v>1.00019402993577</v>
+        <v>1.007817310345134</v>
       </c>
       <c r="W10">
-        <v>0.9998412027394206</v>
+        <v>0.9920889994583924</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9991014650281391</v>
+        <v>0.9991697096413643</v>
       </c>
       <c r="D11">
-        <v>1.001535476539311</v>
+        <v>1.001410987435183</v>
       </c>
       <c r="E11">
-        <v>1.002976407090901</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="F11">
-        <v>1.002976407090901</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="G11">
-        <v>0.9972656555656474</v>
+        <v>0.9974764413569609</v>
       </c>
       <c r="H11">
-        <v>1.00110879829467</v>
+        <v>1.001038653457539</v>
       </c>
       <c r="I11">
-        <v>0.9958143003036214</v>
+        <v>0.9961473118446</v>
       </c>
       <c r="J11">
-        <v>0.9990965770415194</v>
+        <v>0.9991466945509136</v>
       </c>
       <c r="K11">
-        <v>1.002976407090901</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="L11">
-        <v>1.000929033758593</v>
+        <v>1.000823464248401</v>
       </c>
       <c r="M11">
-        <v>0.9958143003036214</v>
+        <v>0.9961473118446</v>
       </c>
       <c r="N11">
-        <v>1.002976407090901</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="O11">
-        <v>1.000929033758593</v>
+        <v>1.000823464248401</v>
       </c>
       <c r="P11">
-        <v>0.9983716670311069</v>
+        <v>0.9984853880465003</v>
       </c>
       <c r="Q11">
-        <v>1.000015249393366</v>
+        <v>0.9999965869448825</v>
       </c>
       <c r="R11">
-        <v>0.9999065803843715</v>
+        <v>0.9999235027920331</v>
       </c>
       <c r="S11">
-        <v>0.9986149330301176</v>
+        <v>0.9987134952447884</v>
       </c>
       <c r="T11">
-        <v>0.9999065803843715</v>
+        <v>0.9999235027920331</v>
       </c>
       <c r="U11">
-        <v>0.9997053015453135</v>
+        <v>0.9997350545043659</v>
       </c>
       <c r="V11">
-        <v>1.000359522654431</v>
+        <v>1.000347990060112</v>
       </c>
       <c r="W11">
-        <v>0.9997284642028001</v>
+        <v>0.9997516243522575</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.010743508261242</v>
+        <v>0.9995164969915191</v>
       </c>
       <c r="D12">
-        <v>0.9799296370024908</v>
+        <v>1.000839999116907</v>
       </c>
       <c r="E12">
-        <v>0.9776401178658284</v>
+        <v>1.001484449878365</v>
       </c>
       <c r="F12">
-        <v>0.9776401178658284</v>
+        <v>1.001484449878365</v>
       </c>
       <c r="G12">
-        <v>1.032716044578428</v>
+        <v>0.9985313104054258</v>
       </c>
       <c r="H12">
-        <v>0.990797156155911</v>
+        <v>1.000559725523497</v>
       </c>
       <c r="I12">
-        <v>1.052258540876262</v>
+        <v>0.9977345529675241</v>
       </c>
       <c r="J12">
-        <v>1.005953392045314</v>
+        <v>0.9995564351429922</v>
       </c>
       <c r="K12">
-        <v>0.9776401178658284</v>
+        <v>1.001484449878365</v>
       </c>
       <c r="L12">
-        <v>0.9800296639585323</v>
+        <v>1.000576585317152</v>
       </c>
       <c r="M12">
-        <v>1.052258540876262</v>
+        <v>0.9977345529675241</v>
       </c>
       <c r="N12">
-        <v>0.9776401178658284</v>
+        <v>1.001484449878365</v>
       </c>
       <c r="O12">
-        <v>0.9800296639585323</v>
+        <v>1.000576585317152</v>
       </c>
       <c r="P12">
-        <v>1.016144102417397</v>
+        <v>0.9991555691423381</v>
       </c>
       <c r="Q12">
-        <v>0.9953865861098872</v>
+        <v>1.000046541154336</v>
       </c>
       <c r="R12">
-        <v>1.003309440900207</v>
+        <v>0.9999318627210139</v>
       </c>
       <c r="S12">
-        <v>1.014343904365345</v>
+        <v>0.9992758784253984</v>
       </c>
       <c r="T12">
-        <v>1.003309440900207</v>
+        <v>0.9999318627210139</v>
       </c>
       <c r="U12">
-        <v>1.005167957740466</v>
+        <v>0.9998280212886401</v>
       </c>
       <c r="V12">
-        <v>0.9996623897655386</v>
+        <v>1.000159307006585</v>
       </c>
       <c r="W12">
-        <v>1.003758507593001</v>
+        <v>0.9998499444179227</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002401944110519</v>
+        <v>0.9982506248881353</v>
       </c>
       <c r="D13">
-        <v>0.9965292044671699</v>
+        <v>1.003055568782157</v>
       </c>
       <c r="E13">
-        <v>0.9880502330102715</v>
+        <v>1.005243560788521</v>
       </c>
       <c r="F13">
-        <v>0.9880502330102715</v>
+        <v>1.005243560788521</v>
       </c>
       <c r="G13">
-        <v>1.007062734392442</v>
+        <v>0.9946861330462843</v>
       </c>
       <c r="H13">
-        <v>0.9958967502760446</v>
+        <v>1.001986012163084</v>
       </c>
       <c r="I13">
-        <v>1.009978893299014</v>
+        <v>0.9917826367316308</v>
       </c>
       <c r="J13">
-        <v>1.003909950768545</v>
+        <v>0.9984417776607538</v>
       </c>
       <c r="K13">
-        <v>0.9880502330102715</v>
+        <v>1.005243560788521</v>
       </c>
       <c r="L13">
-        <v>1.000344419947144</v>
+        <v>1.002171324084819</v>
       </c>
       <c r="M13">
-        <v>1.009978893299014</v>
+        <v>0.9917826367316308</v>
       </c>
       <c r="N13">
-        <v>0.9880502330102715</v>
+        <v>1.005243560788521</v>
       </c>
       <c r="O13">
-        <v>1.000344419947144</v>
+        <v>1.002171324084819</v>
       </c>
       <c r="P13">
-        <v>1.005161656623079</v>
+        <v>0.9969769804082249</v>
       </c>
       <c r="Q13">
-        <v>1.001373182028832</v>
+        <v>1.000210974486477</v>
       </c>
       <c r="R13">
-        <v>0.9994578487521433</v>
+        <v>0.9997325072016569</v>
       </c>
       <c r="S13">
-        <v>1.004241752452226</v>
+        <v>0.9974015285681951</v>
       </c>
       <c r="T13">
-        <v>0.9994578487521433</v>
+        <v>0.999732507201657</v>
       </c>
       <c r="U13">
-        <v>1.000193872591737</v>
+        <v>0.9993620366232765</v>
       </c>
       <c r="V13">
-        <v>0.9977651446754441</v>
+        <v>1.000538341456325</v>
       </c>
       <c r="W13">
-        <v>1.000521766283894</v>
+        <v>0.9994522047681731</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9980936794677955</v>
+        <v>0.9980512640977985</v>
       </c>
       <c r="D14">
-        <v>1.007688075550519</v>
+        <v>1.003356167718024</v>
       </c>
       <c r="E14">
-        <v>0.9729884870979971</v>
+        <v>1.006265513774979</v>
       </c>
       <c r="F14">
-        <v>0.9729884870979971</v>
+        <v>1.006265513774979</v>
       </c>
       <c r="G14">
-        <v>0.9938982115638184</v>
+        <v>0.9940663881267742</v>
       </c>
       <c r="H14">
-        <v>0.9922236668840205</v>
+        <v>1.002347691427974</v>
       </c>
       <c r="I14">
-        <v>0.9849952232975554</v>
+        <v>0.9908834411823727</v>
       </c>
       <c r="J14">
-        <v>1.01033041267105</v>
+        <v>0.9981105890724682</v>
       </c>
       <c r="K14">
-        <v>0.9729884870979971</v>
+        <v>1.006265513774979</v>
       </c>
       <c r="L14">
-        <v>1.024453253467575</v>
+        <v>1.002143925755109</v>
       </c>
       <c r="M14">
-        <v>0.9849952232975554</v>
+        <v>0.9908834411823727</v>
       </c>
       <c r="N14">
-        <v>0.9729884870979971</v>
+        <v>1.006265513774979</v>
       </c>
       <c r="O14">
-        <v>1.024453253467575</v>
+        <v>1.002143925755109</v>
       </c>
       <c r="P14">
-        <v>1.004724238382565</v>
+        <v>0.9965136834687409</v>
       </c>
       <c r="Q14">
-        <v>1.011273466467685</v>
+        <v>1.000097594926454</v>
       </c>
       <c r="R14">
-        <v>0.9941456546210423</v>
+        <v>0.9997642935708203</v>
       </c>
       <c r="S14">
-        <v>1.002514052077642</v>
+        <v>0.9970262103450934</v>
       </c>
       <c r="T14">
-        <v>0.9941456546210423</v>
+        <v>0.9997642935708203</v>
       </c>
       <c r="U14">
-        <v>0.9951326608327307</v>
+        <v>0.9993360362025648</v>
       </c>
       <c r="V14">
-        <v>0.990703826085784</v>
+        <v>1.000721931717047</v>
       </c>
       <c r="W14">
-        <v>0.9980838762500412</v>
+        <v>0.9994031226444374</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000750561263715</v>
+        <v>0.9993047606774502</v>
       </c>
       <c r="D15">
-        <v>0.9968479510944342</v>
+        <v>1.001196244196295</v>
       </c>
       <c r="E15">
-        <v>1.011122292967806</v>
+        <v>1.002245977412534</v>
       </c>
       <c r="F15">
-        <v>1.011122292967806</v>
+        <v>1.002245977412534</v>
       </c>
       <c r="G15">
-        <v>1.002530216262848</v>
+        <v>0.9978825782855926</v>
       </c>
       <c r="H15">
-        <v>1.003166208669013</v>
+        <v>1.000841033592865</v>
       </c>
       <c r="I15">
-        <v>1.006276322162429</v>
+        <v>0.9967481013407334</v>
       </c>
       <c r="J15">
-        <v>0.9957375492014302</v>
+        <v>0.9993220854949458</v>
       </c>
       <c r="K15">
-        <v>1.011122292967806</v>
+        <v>1.002245977412534</v>
       </c>
       <c r="L15">
-        <v>0.9899650001712001</v>
+        <v>1.000758072490847</v>
       </c>
       <c r="M15">
-        <v>1.006276322162429</v>
+        <v>0.9967481013407334</v>
       </c>
       <c r="N15">
-        <v>1.011122292967806</v>
+        <v>1.002245977412534</v>
       </c>
       <c r="O15">
-        <v>0.9899650001712001</v>
+        <v>1.000758072490847</v>
       </c>
       <c r="P15">
-        <v>0.9981206611668144</v>
+        <v>0.9987530869157901</v>
       </c>
       <c r="Q15">
-        <v>0.9953577807174577</v>
+        <v>1.000031416584148</v>
       </c>
       <c r="R15">
-        <v>1.002454538433811</v>
+        <v>0.9999173837480382</v>
       </c>
       <c r="S15">
-        <v>0.998997294532448</v>
+        <v>0.9989369781696769</v>
       </c>
       <c r="T15">
-        <v>1.002454538433812</v>
+        <v>0.9999173837480381</v>
       </c>
       <c r="U15">
-        <v>1.002028544141288</v>
+        <v>0.9997642279803911</v>
       </c>
       <c r="V15">
-        <v>1.003847293906591</v>
+        <v>1.00026057786682</v>
       </c>
       <c r="W15">
-        <v>1.000799512724109</v>
+        <v>0.9997873566864078</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9864172321501407</v>
+        <v>0.9986565850671516</v>
       </c>
       <c r="D16">
-        <v>1.023372703560427</v>
+        <v>1.002313142709659</v>
       </c>
       <c r="E16">
-        <v>1.043742191807125</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="F16">
-        <v>1.043742191807125</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="G16">
-        <v>0.9586644255346836</v>
+        <v>0.9959094494424265</v>
       </c>
       <c r="H16">
-        <v>1.016377590404759</v>
+        <v>1.001619768430172</v>
       </c>
       <c r="I16">
-        <v>0.9365186633841645</v>
+        <v>0.9937158352480575</v>
       </c>
       <c r="J16">
-        <v>0.9868017493388309</v>
+        <v>0.9986959295200908</v>
       </c>
       <c r="K16">
-        <v>1.043742191807125</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="L16">
-        <v>1.014881573353246</v>
+        <v>1.001475159479067</v>
       </c>
       <c r="M16">
-        <v>0.9365186633841645</v>
+        <v>0.9937158352480575</v>
       </c>
       <c r="N16">
-        <v>1.043742191807125</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="O16">
-        <v>1.014881573353246</v>
+        <v>1.001475159479067</v>
       </c>
       <c r="P16">
-        <v>0.9757001183687054</v>
+        <v>0.9975954973635625</v>
       </c>
       <c r="Q16">
-        <v>1.000649402751693</v>
+        <v>1.00006587227311</v>
       </c>
       <c r="R16">
-        <v>0.9983808095148451</v>
+        <v>0.999838184186416</v>
       </c>
       <c r="S16">
-        <v>0.9792724896291838</v>
+        <v>0.9979491932647587</v>
       </c>
       <c r="T16">
-        <v>0.9983808095148451</v>
+        <v>0.999838184186416</v>
       </c>
       <c r="U16">
-        <v>0.995389915173669</v>
+        <v>0.9995427844065999</v>
       </c>
       <c r="V16">
-        <v>1.00506037050036</v>
+        <v>1.000498939091705</v>
       </c>
       <c r="W16">
-        <v>0.9958470161916719</v>
+        <v>0.9995886784660934</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9888412446956345</v>
+        <v>0.9974273910727542</v>
       </c>
       <c r="D17">
-        <v>1.019253255776145</v>
+        <v>1.004427773276216</v>
       </c>
       <c r="E17">
-        <v>1.035507902754191</v>
+        <v>1.008301360509192</v>
       </c>
       <c r="F17">
-        <v>1.035507902754191</v>
+        <v>1.008301360509192</v>
       </c>
       <c r="G17">
-        <v>0.9660480373059315</v>
+        <v>0.9921647108635891</v>
       </c>
       <c r="H17">
-        <v>1.013320984127431</v>
+        <v>1.003109224430549</v>
       </c>
       <c r="I17">
-        <v>0.9477930807286999</v>
+        <v>0.9879650732459995</v>
       </c>
       <c r="J17">
-        <v>0.9893130257643996</v>
+        <v>0.9974949888723349</v>
       </c>
       <c r="K17">
-        <v>1.035507902754191</v>
+        <v>1.008301360509192</v>
       </c>
       <c r="L17">
-        <v>1.012507716055521</v>
+        <v>1.002811538542545</v>
       </c>
       <c r="M17">
-        <v>0.9477930807286999</v>
+        <v>0.9879650732459995</v>
       </c>
       <c r="N17">
-        <v>1.035507902754191</v>
+        <v>1.008301360509192</v>
       </c>
       <c r="O17">
-        <v>1.012507716055521</v>
+        <v>1.002811538542545</v>
       </c>
       <c r="P17">
-        <v>0.9801503983921105</v>
+        <v>0.9953883058942721</v>
       </c>
       <c r="Q17">
-        <v>1.000674480375578</v>
+        <v>1.000119464807649</v>
       </c>
       <c r="R17">
-        <v>0.9986028998461373</v>
+        <v>0.9996926574325787</v>
       </c>
       <c r="S17">
-        <v>0.9830473471599518</v>
+        <v>0.9960680009537661</v>
       </c>
       <c r="T17">
-        <v>0.9986028998461375</v>
+        <v>0.9996926574325787</v>
       </c>
       <c r="U17">
-        <v>0.9961624860585117</v>
+        <v>0.9991263408426226</v>
       </c>
       <c r="V17">
-        <v>1.004031569397647</v>
+        <v>1.000961344775936</v>
       </c>
       <c r="W17">
-        <v>0.9965731559009943</v>
+        <v>0.9992127576016475</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9936874279182286</v>
+        <v>0.9962269885112224</v>
       </c>
       <c r="D18">
-        <v>1.011012629904237</v>
+        <v>1.006493094279786</v>
       </c>
       <c r="E18">
-        <v>1.019081021225872</v>
+        <v>1.012179238469862</v>
       </c>
       <c r="F18">
-        <v>1.019081021225872</v>
+        <v>1.012179238469862</v>
       </c>
       <c r="G18">
-        <v>0.9808102752237516</v>
+        <v>0.9885089945587855</v>
       </c>
       <c r="H18">
-        <v>1.007220757524439</v>
+        <v>1.004561252207235</v>
       </c>
       <c r="I18">
-        <v>0.9703405504890883</v>
+        <v>0.9823508654486295</v>
       </c>
       <c r="J18">
-        <v>0.9943206081028206</v>
+        <v>0.9963244873223132</v>
       </c>
       <c r="K18">
-        <v>1.019081021225872</v>
+        <v>1.012179238469862</v>
       </c>
       <c r="L18">
-        <v>1.007737705079701</v>
+        <v>1.004120304628632</v>
       </c>
       <c r="M18">
-        <v>0.9703405504890883</v>
+        <v>0.9823508654486295</v>
       </c>
       <c r="N18">
-        <v>1.019081021225872</v>
+        <v>1.012179238469862</v>
       </c>
       <c r="O18">
-        <v>1.007737705079701</v>
+        <v>1.004120304628632</v>
       </c>
       <c r="P18">
-        <v>0.9890391277843945</v>
+        <v>0.9932355850386306</v>
       </c>
       <c r="Q18">
-        <v>1.000712566498965</v>
+        <v>1.000173646569927</v>
       </c>
       <c r="R18">
-        <v>0.9990530922648871</v>
+        <v>0.9995501361823743</v>
       </c>
       <c r="S18">
-        <v>0.9905885611623392</v>
+        <v>0.9942327195294945</v>
       </c>
       <c r="T18">
-        <v>0.9990530922648871</v>
+        <v>0.9995501361823743</v>
       </c>
       <c r="U18">
-        <v>0.9977116761782225</v>
+        <v>0.9987193492645863</v>
       </c>
       <c r="V18">
-        <v>1.001985545187753</v>
+        <v>1.001411327105641</v>
       </c>
       <c r="W18">
-        <v>0.9980263719335173</v>
+        <v>0.9988456531783081</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.99308507892178</v>
+        <v>0.9999421596690874</v>
       </c>
       <c r="D19">
-        <v>1.012152367523269</v>
+        <v>1.000100372766784</v>
       </c>
       <c r="E19">
-        <v>1.020439944066108</v>
+        <v>1.000180659076645</v>
       </c>
       <c r="F19">
-        <v>1.020439944066108</v>
+        <v>1.000180659076645</v>
       </c>
       <c r="G19">
-        <v>0.9789187063292965</v>
+        <v>0.9998237310272454</v>
       </c>
       <c r="H19">
-        <v>1.00778930657316</v>
+        <v>1.00006811053504</v>
       </c>
       <c r="I19">
-        <v>0.9672982316518439</v>
+        <v>0.9997281879516766</v>
       </c>
       <c r="J19">
-        <v>0.9939557166288697</v>
+        <v>0.9999458837687528</v>
       </c>
       <c r="K19">
-        <v>1.020439944066108</v>
+        <v>1.000180659076645</v>
       </c>
       <c r="L19">
-        <v>1.008823388179733</v>
+        <v>1.000067281632446</v>
       </c>
       <c r="M19">
-        <v>0.9672982316518439</v>
+        <v>0.9997281879516766</v>
       </c>
       <c r="N19">
-        <v>1.020439944066108</v>
+        <v>1.000180659076645</v>
       </c>
       <c r="O19">
-        <v>1.008823388179733</v>
+        <v>1.000067281632446</v>
       </c>
       <c r="P19">
-        <v>0.9880608099157885</v>
+        <v>0.9998977347920615</v>
       </c>
       <c r="Q19">
-        <v>1.000954233550757</v>
+        <v>1.000004720650767</v>
       </c>
       <c r="R19">
-        <v>0.9988538546325616</v>
+        <v>0.9999920428869227</v>
       </c>
       <c r="S19">
-        <v>0.989735566251119</v>
+        <v>0.9999125430844034</v>
       </c>
       <c r="T19">
-        <v>0.9988538546325616</v>
+        <v>0.9999920428869227</v>
       </c>
       <c r="U19">
-        <v>0.9974116607048662</v>
+        <v>0.9999795720824638</v>
       </c>
       <c r="V19">
-        <v>1.002017317377115</v>
+        <v>1.0000197894813</v>
       </c>
       <c r="W19">
-        <v>0.9978078424842575</v>
+        <v>0.9999820483034596</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000437482595</v>
+        <v>0.9998332991713128</v>
       </c>
       <c r="D20">
-        <v>0.9999883288986317</v>
+        <v>1.000287796657376</v>
       </c>
       <c r="E20">
-        <v>1.000069403838672</v>
+        <v>1.000530281513071</v>
       </c>
       <c r="F20">
-        <v>1.000069403838672</v>
+        <v>1.000530281513071</v>
       </c>
       <c r="G20">
-        <v>1.00000505148155</v>
+        <v>0.999492487707388</v>
       </c>
       <c r="H20">
-        <v>1.00001991039512</v>
+        <v>1.000199061515802</v>
       </c>
       <c r="I20">
-        <v>1.000022016127016</v>
+        <v>0.99921935580236</v>
       </c>
       <c r="J20">
-        <v>0.999973999669195</v>
+        <v>0.999840448547259</v>
       </c>
       <c r="K20">
-        <v>1.000069403838672</v>
+        <v>1.000530281513071</v>
       </c>
       <c r="L20">
-        <v>0.9999497899094741</v>
+        <v>1.000187161228321</v>
       </c>
       <c r="M20">
-        <v>1.000022016127016</v>
+        <v>0.99921935580236</v>
       </c>
       <c r="N20">
-        <v>1.000069403838672</v>
+        <v>1.000530281513071</v>
       </c>
       <c r="O20">
-        <v>0.9999497899094741</v>
+        <v>1.000187161228321</v>
       </c>
       <c r="P20">
-        <v>0.9999859030182452</v>
+        <v>0.9997032585153405</v>
       </c>
       <c r="Q20">
-        <v>0.9999751136960344</v>
+        <v>1.000010230199817</v>
       </c>
       <c r="R20">
-        <v>1.000013736625054</v>
+        <v>0.9999789328479173</v>
       </c>
       <c r="S20">
-        <v>0.9999907478396951</v>
+        <v>0.9997466054006646</v>
       </c>
       <c r="T20">
-        <v>1.000013736625054</v>
+        <v>0.9999789328479173</v>
       </c>
       <c r="U20">
-        <v>1.000010411839439</v>
+        <v>0.9999425244287662</v>
       </c>
       <c r="V20">
-        <v>1.000022210239286</v>
+        <v>1.000060075845627</v>
       </c>
       <c r="W20">
-        <v>1.000003617225282</v>
+        <v>0.9999487365178612</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999328579946544</v>
+        <v>0.9997528172623799</v>
       </c>
       <c r="D21">
-        <v>1.000134499049726</v>
+        <v>1.000424369145591</v>
       </c>
       <c r="E21">
-        <v>1.000089393637363</v>
+        <v>1.00080329167368</v>
       </c>
       <c r="F21">
-        <v>1.000089393637363</v>
+        <v>1.00080329167368</v>
       </c>
       <c r="G21">
-        <v>0.9997902260550089</v>
+        <v>0.9992478509404598</v>
       </c>
       <c r="H21">
-        <v>1.000043933992413</v>
+        <v>1.000300247346694</v>
       </c>
       <c r="I21">
-        <v>0.9996531569107845</v>
+        <v>0.9988461224129723</v>
       </c>
       <c r="J21">
-        <v>0.9999819274347769</v>
+        <v>0.9997571431819348</v>
       </c>
       <c r="K21">
-        <v>1.000089393637363</v>
+        <v>1.00080329167368</v>
       </c>
       <c r="L21">
-        <v>1.00016185953214</v>
+        <v>1.000265908391444</v>
       </c>
       <c r="M21">
-        <v>0.9996531569107845</v>
+        <v>0.9988461224129723</v>
       </c>
       <c r="N21">
-        <v>1.000089393637363</v>
+        <v>1.00080329167368</v>
       </c>
       <c r="O21">
-        <v>1.00016185953214</v>
+        <v>1.000265908391444</v>
       </c>
       <c r="P21">
-        <v>0.9999075082214623</v>
+        <v>0.999556015402208</v>
       </c>
       <c r="Q21">
-        <v>1.000047358763397</v>
+        <v>1.000009362826912</v>
       </c>
       <c r="R21">
-        <v>0.9999681366934291</v>
+        <v>0.9999717741593651</v>
       </c>
       <c r="S21">
-        <v>0.9999159581458597</v>
+        <v>0.9996216160222652</v>
       </c>
       <c r="T21">
-        <v>0.9999681366934291</v>
+        <v>0.9999717741593651</v>
       </c>
       <c r="U21">
-        <v>0.9999593170187354</v>
+        <v>0.9999170349351189</v>
       </c>
       <c r="V21">
-        <v>0.999985332342461</v>
+        <v>1.000094286282831</v>
       </c>
       <c r="W21">
-        <v>0.9999734818258583</v>
+        <v>0.9999247187943945</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9997963985106145</v>
+        <v>0.9994807509319894</v>
       </c>
       <c r="D22">
-        <v>1.000315615492605</v>
+        <v>1.000893482622016</v>
       </c>
       <c r="E22">
-        <v>1.000882398424111</v>
+        <v>1.001674860430624</v>
       </c>
       <c r="F22">
-        <v>1.000882398424111</v>
+        <v>1.001674860430624</v>
       </c>
       <c r="G22">
-        <v>0.9993918451374509</v>
+        <v>0.9984191457618278</v>
       </c>
       <c r="H22">
-        <v>1.00031107959967</v>
+        <v>1.000627144968476</v>
       </c>
       <c r="I22">
-        <v>0.9991113574810083</v>
+        <v>0.9975721414501511</v>
       </c>
       <c r="J22">
-        <v>0.9997176198305815</v>
+        <v>0.99949455931482</v>
       </c>
       <c r="K22">
-        <v>1.000882398424111</v>
+        <v>1.001674860430624</v>
       </c>
       <c r="L22">
-        <v>1.000064143625998</v>
+        <v>1.00056753643546</v>
       </c>
       <c r="M22">
-        <v>0.9991113574810083</v>
+        <v>0.9975721414501511</v>
       </c>
       <c r="N22">
-        <v>1.000882398424111</v>
+        <v>1.001674860430624</v>
       </c>
       <c r="O22">
-        <v>1.000064143625998</v>
+        <v>1.00056753643546</v>
       </c>
       <c r="P22">
-        <v>0.9995877505535031</v>
+        <v>0.9990698389428053</v>
       </c>
       <c r="Q22">
-        <v>0.9999302710683062</v>
+        <v>1.000024143683724</v>
       </c>
       <c r="R22">
-        <v>1.000019299843706</v>
+        <v>0.999938179438745</v>
       </c>
       <c r="S22">
-        <v>0.9996572998725403</v>
+        <v>0.9992068096058667</v>
       </c>
       <c r="T22">
-        <v>1.000019299843706</v>
+        <v>0.999938179438745</v>
       </c>
       <c r="U22">
-        <v>0.9999635745104329</v>
+        <v>0.9998238223120561</v>
       </c>
       <c r="V22">
-        <v>1.000147339293169</v>
+        <v>1.00019402993577</v>
       </c>
       <c r="W22">
-        <v>0.9999488072627549</v>
+        <v>0.9998412027394206</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9991014650281391</v>
+      </c>
+      <c r="D23">
+        <v>1.001535476539311</v>
+      </c>
+      <c r="E23">
+        <v>1.002976407090901</v>
+      </c>
+      <c r="F23">
+        <v>1.002976407090901</v>
+      </c>
+      <c r="G23">
+        <v>0.9972656555656474</v>
+      </c>
+      <c r="H23">
+        <v>1.00110879829467</v>
+      </c>
+      <c r="I23">
+        <v>0.9958143003036214</v>
+      </c>
+      <c r="J23">
+        <v>0.9990965770415194</v>
+      </c>
+      <c r="K23">
+        <v>1.002976407090901</v>
+      </c>
+      <c r="L23">
+        <v>1.000929033758593</v>
+      </c>
+      <c r="M23">
+        <v>0.9958143003036214</v>
+      </c>
+      <c r="N23">
+        <v>1.002976407090901</v>
+      </c>
+      <c r="O23">
+        <v>1.000929033758593</v>
+      </c>
+      <c r="P23">
+        <v>0.9983716670311069</v>
+      </c>
+      <c r="Q23">
+        <v>1.000015249393366</v>
+      </c>
+      <c r="R23">
+        <v>0.9999065803843715</v>
+      </c>
+      <c r="S23">
+        <v>0.9986149330301176</v>
+      </c>
+      <c r="T23">
+        <v>0.9999065803843715</v>
+      </c>
+      <c r="U23">
+        <v>0.9997053015453135</v>
+      </c>
+      <c r="V23">
+        <v>1.000359522654431</v>
+      </c>
+      <c r="W23">
+        <v>0.9997284642028001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.010743508261242</v>
+      </c>
+      <c r="D24">
+        <v>0.9799296370024908</v>
+      </c>
+      <c r="E24">
+        <v>0.9776401178658284</v>
+      </c>
+      <c r="F24">
+        <v>0.9776401178658284</v>
+      </c>
+      <c r="G24">
+        <v>1.032716044578428</v>
+      </c>
+      <c r="H24">
+        <v>0.990797156155911</v>
+      </c>
+      <c r="I24">
+        <v>1.052258540876262</v>
+      </c>
+      <c r="J24">
+        <v>1.005953392045314</v>
+      </c>
+      <c r="K24">
+        <v>0.9776401178658284</v>
+      </c>
+      <c r="L24">
+        <v>0.9800296639585323</v>
+      </c>
+      <c r="M24">
+        <v>1.052258540876262</v>
+      </c>
+      <c r="N24">
+        <v>0.9776401178658284</v>
+      </c>
+      <c r="O24">
+        <v>0.9800296639585323</v>
+      </c>
+      <c r="P24">
+        <v>1.016144102417397</v>
+      </c>
+      <c r="Q24">
+        <v>0.9953865861098872</v>
+      </c>
+      <c r="R24">
+        <v>1.003309440900207</v>
+      </c>
+      <c r="S24">
+        <v>1.014343904365345</v>
+      </c>
+      <c r="T24">
+        <v>1.003309440900207</v>
+      </c>
+      <c r="U24">
+        <v>1.005167957740466</v>
+      </c>
+      <c r="V24">
+        <v>0.9996623897655386</v>
+      </c>
+      <c r="W24">
+        <v>1.003758507593001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.002401944110519</v>
+      </c>
+      <c r="D25">
+        <v>0.9965292044671699</v>
+      </c>
+      <c r="E25">
+        <v>0.9880502330102715</v>
+      </c>
+      <c r="F25">
+        <v>0.9880502330102715</v>
+      </c>
+      <c r="G25">
+        <v>1.007062734392442</v>
+      </c>
+      <c r="H25">
+        <v>0.9958967502760446</v>
+      </c>
+      <c r="I25">
+        <v>1.009978893299014</v>
+      </c>
+      <c r="J25">
+        <v>1.003909950768545</v>
+      </c>
+      <c r="K25">
+        <v>0.9880502330102715</v>
+      </c>
+      <c r="L25">
+        <v>1.000344419947144</v>
+      </c>
+      <c r="M25">
+        <v>1.009978893299014</v>
+      </c>
+      <c r="N25">
+        <v>0.9880502330102715</v>
+      </c>
+      <c r="O25">
+        <v>1.000344419947144</v>
+      </c>
+      <c r="P25">
+        <v>1.005161656623079</v>
+      </c>
+      <c r="Q25">
+        <v>1.001373182028832</v>
+      </c>
+      <c r="R25">
+        <v>0.9994578487521433</v>
+      </c>
+      <c r="S25">
+        <v>1.004241752452226</v>
+      </c>
+      <c r="T25">
+        <v>0.9994578487521433</v>
+      </c>
+      <c r="U25">
+        <v>1.000193872591737</v>
+      </c>
+      <c r="V25">
+        <v>0.9977651446754441</v>
+      </c>
+      <c r="W25">
+        <v>1.000521766283894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9980936794677955</v>
+      </c>
+      <c r="D26">
+        <v>1.007688075550519</v>
+      </c>
+      <c r="E26">
+        <v>0.9729884870979971</v>
+      </c>
+      <c r="F26">
+        <v>0.9729884870979971</v>
+      </c>
+      <c r="G26">
+        <v>0.9938982115638184</v>
+      </c>
+      <c r="H26">
+        <v>0.9922236668840205</v>
+      </c>
+      <c r="I26">
+        <v>0.9849952232975554</v>
+      </c>
+      <c r="J26">
+        <v>1.01033041267105</v>
+      </c>
+      <c r="K26">
+        <v>0.9729884870979971</v>
+      </c>
+      <c r="L26">
+        <v>1.024453253467575</v>
+      </c>
+      <c r="M26">
+        <v>0.9849952232975554</v>
+      </c>
+      <c r="N26">
+        <v>0.9729884870979971</v>
+      </c>
+      <c r="O26">
+        <v>1.024453253467575</v>
+      </c>
+      <c r="P26">
+        <v>1.004724238382565</v>
+      </c>
+      <c r="Q26">
+        <v>1.011273466467685</v>
+      </c>
+      <c r="R26">
+        <v>0.9941456546210423</v>
+      </c>
+      <c r="S26">
+        <v>1.002514052077642</v>
+      </c>
+      <c r="T26">
+        <v>0.9941456546210423</v>
+      </c>
+      <c r="U26">
+        <v>0.9951326608327307</v>
+      </c>
+      <c r="V26">
+        <v>0.990703826085784</v>
+      </c>
+      <c r="W26">
+        <v>0.9980838762500412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000750561263715</v>
+      </c>
+      <c r="D27">
+        <v>0.9968479510944342</v>
+      </c>
+      <c r="E27">
+        <v>1.011122292967806</v>
+      </c>
+      <c r="F27">
+        <v>1.011122292967806</v>
+      </c>
+      <c r="G27">
+        <v>1.002530216262848</v>
+      </c>
+      <c r="H27">
+        <v>1.003166208669013</v>
+      </c>
+      <c r="I27">
+        <v>1.006276322162429</v>
+      </c>
+      <c r="J27">
+        <v>0.9957375492014302</v>
+      </c>
+      <c r="K27">
+        <v>1.011122292967806</v>
+      </c>
+      <c r="L27">
+        <v>0.9899650001712001</v>
+      </c>
+      <c r="M27">
+        <v>1.006276322162429</v>
+      </c>
+      <c r="N27">
+        <v>1.011122292967806</v>
+      </c>
+      <c r="O27">
+        <v>0.9899650001712001</v>
+      </c>
+      <c r="P27">
+        <v>0.9981206611668144</v>
+      </c>
+      <c r="Q27">
+        <v>0.9953577807174577</v>
+      </c>
+      <c r="R27">
+        <v>1.002454538433811</v>
+      </c>
+      <c r="S27">
+        <v>0.998997294532448</v>
+      </c>
+      <c r="T27">
+        <v>1.002454538433812</v>
+      </c>
+      <c r="U27">
+        <v>1.002028544141288</v>
+      </c>
+      <c r="V27">
+        <v>1.003847293906591</v>
+      </c>
+      <c r="W27">
+        <v>1.000799512724109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9864172321501407</v>
+      </c>
+      <c r="D28">
+        <v>1.023372703560427</v>
+      </c>
+      <c r="E28">
+        <v>1.043742191807125</v>
+      </c>
+      <c r="F28">
+        <v>1.043742191807125</v>
+      </c>
+      <c r="G28">
+        <v>0.9586644255346836</v>
+      </c>
+      <c r="H28">
+        <v>1.016377590404759</v>
+      </c>
+      <c r="I28">
+        <v>0.9365186633841645</v>
+      </c>
+      <c r="J28">
+        <v>0.9868017493388309</v>
+      </c>
+      <c r="K28">
+        <v>1.043742191807125</v>
+      </c>
+      <c r="L28">
+        <v>1.014881573353246</v>
+      </c>
+      <c r="M28">
+        <v>0.9365186633841645</v>
+      </c>
+      <c r="N28">
+        <v>1.043742191807125</v>
+      </c>
+      <c r="O28">
+        <v>1.014881573353246</v>
+      </c>
+      <c r="P28">
+        <v>0.9757001183687054</v>
+      </c>
+      <c r="Q28">
+        <v>1.000649402751693</v>
+      </c>
+      <c r="R28">
+        <v>0.9983808095148451</v>
+      </c>
+      <c r="S28">
+        <v>0.9792724896291838</v>
+      </c>
+      <c r="T28">
+        <v>0.9983808095148451</v>
+      </c>
+      <c r="U28">
+        <v>0.995389915173669</v>
+      </c>
+      <c r="V28">
+        <v>1.00506037050036</v>
+      </c>
+      <c r="W28">
+        <v>0.9958470161916719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9888412446956345</v>
+      </c>
+      <c r="D29">
+        <v>1.019253255776145</v>
+      </c>
+      <c r="E29">
+        <v>1.035507902754191</v>
+      </c>
+      <c r="F29">
+        <v>1.035507902754191</v>
+      </c>
+      <c r="G29">
+        <v>0.9660480373059315</v>
+      </c>
+      <c r="H29">
+        <v>1.013320984127431</v>
+      </c>
+      <c r="I29">
+        <v>0.9477930807286999</v>
+      </c>
+      <c r="J29">
+        <v>0.9893130257643996</v>
+      </c>
+      <c r="K29">
+        <v>1.035507902754191</v>
+      </c>
+      <c r="L29">
+        <v>1.012507716055521</v>
+      </c>
+      <c r="M29">
+        <v>0.9477930807286999</v>
+      </c>
+      <c r="N29">
+        <v>1.035507902754191</v>
+      </c>
+      <c r="O29">
+        <v>1.012507716055521</v>
+      </c>
+      <c r="P29">
+        <v>0.9801503983921105</v>
+      </c>
+      <c r="Q29">
+        <v>1.000674480375578</v>
+      </c>
+      <c r="R29">
+        <v>0.9986028998461373</v>
+      </c>
+      <c r="S29">
+        <v>0.9830473471599518</v>
+      </c>
+      <c r="T29">
+        <v>0.9986028998461375</v>
+      </c>
+      <c r="U29">
+        <v>0.9961624860585117</v>
+      </c>
+      <c r="V29">
+        <v>1.004031569397647</v>
+      </c>
+      <c r="W29">
+        <v>0.9965731559009943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9936874279182286</v>
+      </c>
+      <c r="D30">
+        <v>1.011012629904237</v>
+      </c>
+      <c r="E30">
+        <v>1.019081021225872</v>
+      </c>
+      <c r="F30">
+        <v>1.019081021225872</v>
+      </c>
+      <c r="G30">
+        <v>0.9808102752237516</v>
+      </c>
+      <c r="H30">
+        <v>1.007220757524439</v>
+      </c>
+      <c r="I30">
+        <v>0.9703405504890883</v>
+      </c>
+      <c r="J30">
+        <v>0.9943206081028206</v>
+      </c>
+      <c r="K30">
+        <v>1.019081021225872</v>
+      </c>
+      <c r="L30">
+        <v>1.007737705079701</v>
+      </c>
+      <c r="M30">
+        <v>0.9703405504890883</v>
+      </c>
+      <c r="N30">
+        <v>1.019081021225872</v>
+      </c>
+      <c r="O30">
+        <v>1.007737705079701</v>
+      </c>
+      <c r="P30">
+        <v>0.9890391277843945</v>
+      </c>
+      <c r="Q30">
+        <v>1.000712566498965</v>
+      </c>
+      <c r="R30">
+        <v>0.9990530922648871</v>
+      </c>
+      <c r="S30">
+        <v>0.9905885611623392</v>
+      </c>
+      <c r="T30">
+        <v>0.9990530922648871</v>
+      </c>
+      <c r="U30">
+        <v>0.9977116761782225</v>
+      </c>
+      <c r="V30">
+        <v>1.001985545187753</v>
+      </c>
+      <c r="W30">
+        <v>0.9980263719335173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.99308507892178</v>
+      </c>
+      <c r="D31">
+        <v>1.012152367523269</v>
+      </c>
+      <c r="E31">
+        <v>1.020439944066108</v>
+      </c>
+      <c r="F31">
+        <v>1.020439944066108</v>
+      </c>
+      <c r="G31">
+        <v>0.9789187063292965</v>
+      </c>
+      <c r="H31">
+        <v>1.00778930657316</v>
+      </c>
+      <c r="I31">
+        <v>0.9672982316518439</v>
+      </c>
+      <c r="J31">
+        <v>0.9939557166288697</v>
+      </c>
+      <c r="K31">
+        <v>1.020439944066108</v>
+      </c>
+      <c r="L31">
+        <v>1.008823388179733</v>
+      </c>
+      <c r="M31">
+        <v>0.9672982316518439</v>
+      </c>
+      <c r="N31">
+        <v>1.020439944066108</v>
+      </c>
+      <c r="O31">
+        <v>1.008823388179733</v>
+      </c>
+      <c r="P31">
+        <v>0.9880608099157885</v>
+      </c>
+      <c r="Q31">
+        <v>1.000954233550757</v>
+      </c>
+      <c r="R31">
+        <v>0.9988538546325616</v>
+      </c>
+      <c r="S31">
+        <v>0.989735566251119</v>
+      </c>
+      <c r="T31">
+        <v>0.9988538546325616</v>
+      </c>
+      <c r="U31">
+        <v>0.9974116607048662</v>
+      </c>
+      <c r="V31">
+        <v>1.002017317377115</v>
+      </c>
+      <c r="W31">
+        <v>0.9978078424842575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9832638856164383</v>
+      </c>
+      <c r="D32">
+        <v>1.028684688493151</v>
+      </c>
+      <c r="E32">
+        <v>1.054796270136986</v>
+      </c>
+      <c r="F32">
+        <v>1.054796270136986</v>
+      </c>
+      <c r="G32">
+        <v>0.9490652261643833</v>
+      </c>
+      <c r="H32">
+        <v>1.020456864931507</v>
+      </c>
+      <c r="I32">
+        <v>0.9219214650684933</v>
+      </c>
+      <c r="J32">
+        <v>0.9834087258904108</v>
+      </c>
+      <c r="K32">
+        <v>1.054796270136986</v>
+      </c>
+      <c r="L32">
+        <v>1.017736934520548</v>
+      </c>
+      <c r="M32">
+        <v>0.9219214650684933</v>
+      </c>
+      <c r="N32">
+        <v>1.054796270136986</v>
+      </c>
+      <c r="O32">
+        <v>1.017736934520548</v>
+      </c>
+      <c r="P32">
+        <v>0.9698291997945206</v>
+      </c>
+      <c r="Q32">
+        <v>1.000500410068493</v>
+      </c>
+      <c r="R32">
+        <v>0.9981515565753426</v>
+      </c>
+      <c r="S32">
+        <v>0.9743074284018265</v>
+      </c>
+      <c r="T32">
+        <v>0.9981515565753426</v>
+      </c>
+      <c r="U32">
+        <v>0.9944296388356165</v>
+      </c>
+      <c r="V32">
+        <v>1.006502965095891</v>
+      </c>
+      <c r="W32">
+        <v>0.9949167576027397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9716217336842105</v>
+      </c>
+      <c r="D33">
+        <v>1.050737994736842</v>
+      </c>
+      <c r="E33">
+        <v>1.076077496315789</v>
+      </c>
+      <c r="F33">
+        <v>1.076077496315789</v>
+      </c>
+      <c r="G33">
+        <v>0.9137658905263158</v>
+      </c>
+      <c r="H33">
+        <v>1.029469655789474</v>
+      </c>
+      <c r="I33">
+        <v>0.8651565252631579</v>
+      </c>
+      <c r="J33">
+        <v>0.9780176621052631</v>
+      </c>
+      <c r="K33">
+        <v>1.076077496315789</v>
+      </c>
+      <c r="L33">
+        <v>1.041252684210526</v>
+      </c>
+      <c r="M33">
+        <v>0.8651565252631579</v>
+      </c>
+      <c r="N33">
+        <v>1.076077496315789</v>
+      </c>
+      <c r="O33">
+        <v>1.041252684210526</v>
+      </c>
+      <c r="P33">
+        <v>0.9532046047368421</v>
+      </c>
+      <c r="Q33">
+        <v>1.006437208947368</v>
+      </c>
+      <c r="R33">
+        <v>0.9941622352631579</v>
+      </c>
+      <c r="S33">
+        <v>0.9593436477192983</v>
+      </c>
+      <c r="T33">
+        <v>0.9941622352631579</v>
+      </c>
+      <c r="U33">
+        <v>0.9885271098684211</v>
+      </c>
+      <c r="V33">
+        <v>1.006037187157895</v>
+      </c>
+      <c r="W33">
+        <v>0.9907624553289474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9729201047368422</v>
+      </c>
+      <c r="D34">
+        <v>1.047055672105263</v>
+      </c>
+      <c r="E34">
+        <v>1.081540789473684</v>
+      </c>
+      <c r="F34">
+        <v>1.081540789473684</v>
+      </c>
+      <c r="G34">
+        <v>0.9181438252631579</v>
+      </c>
+      <c r="H34">
+        <v>1.030715373684211</v>
+      </c>
+      <c r="I34">
+        <v>0.8737652331578946</v>
+      </c>
+      <c r="J34">
+        <v>0.9756907215789477</v>
+      </c>
+      <c r="K34">
+        <v>1.081540789473684</v>
+      </c>
+      <c r="L34">
+        <v>1.033107786842105</v>
+      </c>
+      <c r="M34">
+        <v>0.8737652331578946</v>
+      </c>
+      <c r="N34">
+        <v>1.081540789473684</v>
+      </c>
+      <c r="O34">
+        <v>1.033107786842105</v>
+      </c>
+      <c r="P34">
+        <v>0.95343651</v>
+      </c>
+      <c r="Q34">
+        <v>1.003013945789474</v>
+      </c>
+      <c r="R34">
+        <v>0.9961379364912281</v>
+      </c>
+      <c r="S34">
+        <v>0.9599310415789474</v>
+      </c>
+      <c r="T34">
+        <v>0.9961379364912281</v>
+      </c>
+      <c r="U34">
+        <v>0.9903334785526315</v>
+      </c>
+      <c r="V34">
+        <v>1.008574940736842</v>
+      </c>
+      <c r="W34">
+        <v>0.9916174383552632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9752425925310712</v>
+      </c>
+      <c r="D35">
+        <v>1.043463310292606</v>
+      </c>
+      <c r="E35">
+        <v>1.073681651544235</v>
+      </c>
+      <c r="F35">
+        <v>1.073681651544235</v>
+      </c>
+      <c r="G35">
+        <v>0.9244846384065237</v>
+      </c>
+      <c r="H35">
+        <v>1.028055269332292</v>
+      </c>
+      <c r="I35">
+        <v>0.8829135558862987</v>
+      </c>
+      <c r="J35">
+        <v>0.9781812759311705</v>
+      </c>
+      <c r="K35">
+        <v>1.073681651544235</v>
+      </c>
+      <c r="L35">
+        <v>1.031279649853731</v>
+      </c>
+      <c r="M35">
+        <v>0.8829135558862987</v>
+      </c>
+      <c r="N35">
+        <v>1.073681651544235</v>
+      </c>
+      <c r="O35">
+        <v>1.031279649853731</v>
+      </c>
+      <c r="P35">
+        <v>0.957096602870015</v>
+      </c>
+      <c r="Q35">
+        <v>1.003261121192401</v>
+      </c>
+      <c r="R35">
+        <v>0.9959582857614215</v>
+      </c>
+      <c r="S35">
+        <v>0.963145266090367</v>
+      </c>
+      <c r="T35">
+        <v>0.9959582857614216</v>
+      </c>
+      <c r="U35">
+        <v>0.990779362453834</v>
+      </c>
+      <c r="V35">
+        <v>1.007359820271914</v>
+      </c>
+      <c r="W35">
+        <v>0.9921627429722411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000437482595</v>
+      </c>
+      <c r="D36">
+        <v>0.9999883288986317</v>
+      </c>
+      <c r="E36">
+        <v>1.000069403838672</v>
+      </c>
+      <c r="F36">
+        <v>1.000069403838672</v>
+      </c>
+      <c r="G36">
+        <v>1.00000505148155</v>
+      </c>
+      <c r="H36">
+        <v>1.00001991039512</v>
+      </c>
+      <c r="I36">
+        <v>1.000022016127016</v>
+      </c>
+      <c r="J36">
+        <v>0.999973999669195</v>
+      </c>
+      <c r="K36">
+        <v>1.000069403838672</v>
+      </c>
+      <c r="L36">
+        <v>0.9999497899094741</v>
+      </c>
+      <c r="M36">
+        <v>1.000022016127016</v>
+      </c>
+      <c r="N36">
+        <v>1.000069403838672</v>
+      </c>
+      <c r="O36">
+        <v>0.9999497899094741</v>
+      </c>
+      <c r="P36">
+        <v>0.9999859030182452</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999751136960344</v>
+      </c>
+      <c r="R36">
+        <v>1.000013736625054</v>
+      </c>
+      <c r="S36">
+        <v>0.9999907478396951</v>
+      </c>
+      <c r="T36">
+        <v>1.000013736625054</v>
+      </c>
+      <c r="U36">
+        <v>1.000010411839439</v>
+      </c>
+      <c r="V36">
+        <v>1.000022210239286</v>
+      </c>
+      <c r="W36">
+        <v>1.000003617225282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999328579946544</v>
+      </c>
+      <c r="D37">
+        <v>1.000134499049726</v>
+      </c>
+      <c r="E37">
+        <v>1.000089393637363</v>
+      </c>
+      <c r="F37">
+        <v>1.000089393637363</v>
+      </c>
+      <c r="G37">
+        <v>0.9997902260550089</v>
+      </c>
+      <c r="H37">
+        <v>1.000043933992413</v>
+      </c>
+      <c r="I37">
+        <v>0.9996531569107845</v>
+      </c>
+      <c r="J37">
+        <v>0.9999819274347769</v>
+      </c>
+      <c r="K37">
+        <v>1.000089393637363</v>
+      </c>
+      <c r="L37">
+        <v>1.00016185953214</v>
+      </c>
+      <c r="M37">
+        <v>0.9996531569107845</v>
+      </c>
+      <c r="N37">
+        <v>1.000089393637363</v>
+      </c>
+      <c r="O37">
+        <v>1.00016185953214</v>
+      </c>
+      <c r="P37">
+        <v>0.9999075082214623</v>
+      </c>
+      <c r="Q37">
+        <v>1.000047358763397</v>
+      </c>
+      <c r="R37">
+        <v>0.9999681366934291</v>
+      </c>
+      <c r="S37">
+        <v>0.9999159581458597</v>
+      </c>
+      <c r="T37">
+        <v>0.9999681366934291</v>
+      </c>
+      <c r="U37">
+        <v>0.9999593170187354</v>
+      </c>
+      <c r="V37">
+        <v>0.999985332342461</v>
+      </c>
+      <c r="W37">
+        <v>0.9999734818258583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9997963985106145</v>
+      </c>
+      <c r="D38">
+        <v>1.000315615492605</v>
+      </c>
+      <c r="E38">
+        <v>1.000882398424111</v>
+      </c>
+      <c r="F38">
+        <v>1.000882398424111</v>
+      </c>
+      <c r="G38">
+        <v>0.9993918451374509</v>
+      </c>
+      <c r="H38">
+        <v>1.00031107959967</v>
+      </c>
+      <c r="I38">
+        <v>0.9991113574810083</v>
+      </c>
+      <c r="J38">
+        <v>0.9997176198305815</v>
+      </c>
+      <c r="K38">
+        <v>1.000882398424111</v>
+      </c>
+      <c r="L38">
+        <v>1.000064143625998</v>
+      </c>
+      <c r="M38">
+        <v>0.9991113574810083</v>
+      </c>
+      <c r="N38">
+        <v>1.000882398424111</v>
+      </c>
+      <c r="O38">
+        <v>1.000064143625998</v>
+      </c>
+      <c r="P38">
+        <v>0.9995877505535031</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999302710683062</v>
+      </c>
+      <c r="R38">
+        <v>1.000019299843706</v>
+      </c>
+      <c r="S38">
+        <v>0.9996572998725403</v>
+      </c>
+      <c r="T38">
+        <v>1.000019299843706</v>
+      </c>
+      <c r="U38">
+        <v>0.9999635745104329</v>
+      </c>
+      <c r="V38">
+        <v>1.000147339293169</v>
+      </c>
+      <c r="W38">
+        <v>0.9999488072627549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9995424062090804</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000643174764234</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.002414840031256</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.002414840031256</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9986550379338995</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000823994679265</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9981227551226015</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9992043830752645</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.002414840031256</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9998415261731387</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9981227551226015</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.002414840031256</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9998415261731387</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9989821406478701</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9996919661911096</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000126373775665</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9991688958349402</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000126373775665</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999803818840192</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000467273513467</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999060147485925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9904467967243776</v>
+      </c>
+      <c r="D40">
+        <v>1.016408273759668</v>
+      </c>
+      <c r="E40">
+        <v>1.030244776465029</v>
+      </c>
+      <c r="F40">
+        <v>1.030244776465029</v>
+      </c>
+      <c r="G40">
+        <v>0.9711267117126631</v>
+      </c>
+      <c r="H40">
+        <v>1.01128858334171</v>
+      </c>
+      <c r="I40">
+        <v>0.9557173150299362</v>
+      </c>
+      <c r="J40">
+        <v>0.9908819541866885</v>
+      </c>
+      <c r="K40">
+        <v>1.030244776465029</v>
+      </c>
+      <c r="L40">
+        <v>1.010688064711142</v>
+      </c>
+      <c r="M40">
+        <v>0.9557173150299362</v>
+      </c>
+      <c r="N40">
+        <v>1.030244776465029</v>
+      </c>
+      <c r="O40">
+        <v>1.010688064711142</v>
+      </c>
+      <c r="P40">
+        <v>0.983202689870539</v>
+      </c>
+      <c r="Q40">
+        <v>1.00056743071776</v>
+      </c>
+      <c r="R40">
+        <v>0.9988833854020357</v>
+      </c>
+      <c r="S40">
+        <v>0.9856173921551519</v>
+      </c>
+      <c r="T40">
+        <v>0.9988833854020357</v>
+      </c>
+      <c r="U40">
+        <v>0.9967742382326211</v>
+      </c>
+      <c r="V40">
+        <v>1.003468345879102</v>
+      </c>
+      <c r="W40">
+        <v>0.9971003094914018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.004925852537264</v>
+      </c>
+      <c r="D41">
+        <v>0.9913824485953342</v>
+      </c>
+      <c r="E41">
+        <v>0.985546082347626</v>
+      </c>
+      <c r="F41">
+        <v>0.985546082347626</v>
+      </c>
+      <c r="G41">
+        <v>1.014909050171738</v>
+      </c>
+      <c r="H41">
+        <v>0.9945222367646309</v>
+      </c>
+      <c r="I41">
+        <v>1.023067766776821</v>
+      </c>
+      <c r="J41">
+        <v>1.004280735610892</v>
+      </c>
+      <c r="K41">
+        <v>0.985546082347626</v>
+      </c>
+      <c r="L41">
+        <v>0.9937122546489899</v>
+      </c>
+      <c r="M41">
+        <v>1.023067766776821</v>
+      </c>
+      <c r="N41">
+        <v>0.985546082347626</v>
+      </c>
+      <c r="O41">
+        <v>0.9937122546489899</v>
+      </c>
+      <c r="P41">
+        <v>1.008390010712905</v>
+      </c>
+      <c r="Q41">
+        <v>0.9993190535931269</v>
+      </c>
+      <c r="R41">
+        <v>1.000775367924479</v>
+      </c>
+      <c r="S41">
+        <v>1.007235291321025</v>
+      </c>
+      <c r="T41">
+        <v>1.000775367924479</v>
+      </c>
+      <c r="U41">
+        <v>1.001812989077675</v>
+      </c>
+      <c r="V41">
+        <v>0.9985596077316652</v>
+      </c>
+      <c r="W41">
+        <v>1.001543303431662</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9904176914950081</v>
+      </c>
+      <c r="D42">
+        <v>1.017572236016755</v>
+      </c>
+      <c r="E42">
+        <v>1.022168292438316</v>
+      </c>
+      <c r="F42">
+        <v>1.022168292438316</v>
+      </c>
+      <c r="G42">
+        <v>0.9709076997895411</v>
+      </c>
+      <c r="H42">
+        <v>1.008860574434277</v>
+      </c>
+      <c r="I42">
+        <v>0.9539515277998822</v>
+      </c>
+      <c r="J42">
+        <v>0.9938635474139131</v>
+      </c>
+      <c r="K42">
+        <v>1.022168292438316</v>
+      </c>
+      <c r="L42">
+        <v>1.016267752003699</v>
+      </c>
+      <c r="M42">
+        <v>0.9539515277998822</v>
+      </c>
+      <c r="N42">
+        <v>1.022168292438316</v>
+      </c>
+      <c r="O42">
+        <v>1.016267752003699</v>
+      </c>
+      <c r="P42">
+        <v>0.9851096399017905</v>
+      </c>
+      <c r="Q42">
+        <v>1.003342721749353</v>
+      </c>
+      <c r="R42">
+        <v>0.9974625240806324</v>
+      </c>
+      <c r="S42">
+        <v>0.9868789904328631</v>
+      </c>
+      <c r="T42">
+        <v>0.9974625240806324</v>
+      </c>
+      <c r="U42">
+        <v>0.9957013159342264</v>
+      </c>
+      <c r="V42">
+        <v>1.000994711235044</v>
+      </c>
+      <c r="W42">
+        <v>0.9967511651739238</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002245977412534</v>
+        <v>0.9998332991713128</v>
       </c>
       <c r="D3">
-        <v>0.9967481013407334</v>
+        <v>1.000287796657376</v>
       </c>
       <c r="E3">
-        <v>1.000758072490847</v>
+        <v>1.000530281513071</v>
       </c>
       <c r="F3">
-        <v>1.002245977412534</v>
+        <v>1.000530281513071</v>
       </c>
       <c r="G3">
-        <v>0.9993047606774502</v>
+        <v>0.999492487707388</v>
       </c>
       <c r="H3">
-        <v>1.001196244196295</v>
+        <v>1.000199061515802</v>
       </c>
       <c r="I3">
-        <v>1.002245977412534</v>
+        <v>0.99921935580236</v>
       </c>
       <c r="J3">
-        <v>0.9967481013407334</v>
+        <v>0.999840448547259</v>
       </c>
       <c r="K3">
-        <v>0.9993220854949458</v>
+        <v>1.000530281513071</v>
       </c>
       <c r="L3">
-        <v>1.000841033592865</v>
+        <v>1.000187161228321</v>
       </c>
       <c r="M3">
-        <v>0.9978825782855926</v>
+        <v>0.99921935580236</v>
       </c>
       <c r="N3">
-        <v>1.002245977412534</v>
+        <v>1.000530281513071</v>
       </c>
       <c r="O3">
-        <v>1.000758072490847</v>
+        <v>1.000187161228321</v>
       </c>
       <c r="P3">
-        <v>0.9987530869157901</v>
+        <v>0.9997032585153405</v>
       </c>
       <c r="Q3">
-        <v>1.000031416584148</v>
+        <v>1.000010230199817</v>
       </c>
       <c r="R3">
-        <v>0.9999173837480382</v>
+        <v>0.9999789328479173</v>
       </c>
       <c r="S3">
-        <v>0.9989369781696769</v>
+        <v>0.9997466054006646</v>
       </c>
       <c r="T3">
-        <v>0.9999173837480381</v>
+        <v>0.9999789328479173</v>
       </c>
       <c r="U3">
-        <v>0.9997642279803911</v>
+        <v>0.9999425244287662</v>
       </c>
       <c r="V3">
-        <v>1.00026057786682</v>
+        <v>1.000060075845627</v>
       </c>
       <c r="W3">
-        <v>0.9997873566864078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999487365178612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004323557832123</v>
+        <v>0.9904467967243776</v>
       </c>
       <c r="D4">
-        <v>0.9937158352480575</v>
+        <v>1.016408273759668</v>
       </c>
       <c r="E4">
-        <v>1.001475159479067</v>
+        <v>1.030244776465029</v>
       </c>
       <c r="F4">
-        <v>1.004323557832123</v>
+        <v>1.030244776465029</v>
       </c>
       <c r="G4">
-        <v>0.9986565850671516</v>
+        <v>0.9711267117126631</v>
       </c>
       <c r="H4">
-        <v>1.002313142709659</v>
+        <v>1.01128858334171</v>
       </c>
       <c r="I4">
-        <v>1.004323557832123</v>
+        <v>0.9557173150299362</v>
       </c>
       <c r="J4">
-        <v>0.9937158352480575</v>
+        <v>0.9908819541866885</v>
       </c>
       <c r="K4">
-        <v>0.9986959295200908</v>
+        <v>1.030244776465029</v>
       </c>
       <c r="L4">
-        <v>1.001619768430172</v>
+        <v>1.010688064711142</v>
       </c>
       <c r="M4">
-        <v>0.9959094494424265</v>
+        <v>0.9557173150299362</v>
       </c>
       <c r="N4">
-        <v>1.004323557832123</v>
+        <v>1.030244776465029</v>
       </c>
       <c r="O4">
-        <v>1.001475159479067</v>
+        <v>1.010688064711142</v>
       </c>
       <c r="P4">
-        <v>0.9975954973635625</v>
+        <v>0.983202689870539</v>
       </c>
       <c r="Q4">
-        <v>1.00006587227311</v>
+        <v>1.00056743071776</v>
       </c>
       <c r="R4">
-        <v>0.999838184186416</v>
+        <v>0.9988833854020357</v>
       </c>
       <c r="S4">
-        <v>0.9979491932647587</v>
+        <v>0.9856173921551519</v>
       </c>
       <c r="T4">
-        <v>0.999838184186416</v>
+        <v>0.9988833854020357</v>
       </c>
       <c r="U4">
-        <v>0.9995427844065999</v>
+        <v>0.9967742382326211</v>
       </c>
       <c r="V4">
-        <v>1.000498939091705</v>
+        <v>1.003468345879102</v>
       </c>
       <c r="W4">
-        <v>0.9995886784660934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9971003094914018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.008301360509192</v>
+        <v>0.9923512595605198</v>
       </c>
       <c r="D5">
-        <v>0.9879650732459996</v>
+        <v>1.013354216015853</v>
       </c>
       <c r="E5">
-        <v>1.002811538542545</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="F5">
-        <v>1.008301360509192</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="G5">
-        <v>0.9974273910727542</v>
+        <v>0.9767405657564835</v>
       </c>
       <c r="H5">
-        <v>1.004427773276216</v>
+        <v>1.00873586884726</v>
       </c>
       <c r="I5">
-        <v>1.008301360509192</v>
+        <v>0.9640362748487014</v>
       </c>
       <c r="J5">
-        <v>0.9879650732459996</v>
+        <v>0.9931386517363123</v>
       </c>
       <c r="K5">
-        <v>0.9974949888723349</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="L5">
-        <v>1.003109224430549</v>
+        <v>1.009415521520176</v>
       </c>
       <c r="M5">
-        <v>0.9921647108635891</v>
+        <v>0.9640362748487014</v>
       </c>
       <c r="N5">
-        <v>1.008301360509192</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="O5">
-        <v>1.002811538542545</v>
+        <v>1.009415521520176</v>
       </c>
       <c r="P5">
-        <v>0.9953883058942721</v>
+        <v>0.9867258981844385</v>
       </c>
       <c r="Q5">
-        <v>1.000119464807649</v>
+        <v>1.000883390540348</v>
       </c>
       <c r="R5">
-        <v>0.9996926574325787</v>
+        <v>0.9988397788040354</v>
       </c>
       <c r="S5">
-        <v>0.9960680009537661</v>
+        <v>0.9886010186431323</v>
       </c>
       <c r="T5">
-        <v>0.999692657432579</v>
+        <v>0.9988397788040354</v>
       </c>
       <c r="U5">
-        <v>0.9991263408426228</v>
+        <v>0.9972176489931566</v>
       </c>
       <c r="V5">
-        <v>1.000961344775937</v>
+        <v>1.002387627203171</v>
       </c>
       <c r="W5">
-        <v>0.9992127576016475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9976049872910668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.012179238469862</v>
+        <v>0.9752425925310712</v>
       </c>
       <c r="D6">
-        <v>0.9823508654486295</v>
+        <v>1.043463310292606</v>
       </c>
       <c r="E6">
-        <v>1.004120304628631</v>
+        <v>1.073681651544235</v>
       </c>
       <c r="F6">
-        <v>1.012179238469862</v>
+        <v>1.073681651544235</v>
       </c>
       <c r="G6">
-        <v>0.9962269885112224</v>
+        <v>0.9244846384065237</v>
       </c>
       <c r="H6">
-        <v>1.006493094279786</v>
+        <v>1.028055269332292</v>
       </c>
       <c r="I6">
-        <v>1.012179238469862</v>
+        <v>0.8829135558862987</v>
       </c>
       <c r="J6">
-        <v>0.9823508654486295</v>
+        <v>0.9781812759311705</v>
       </c>
       <c r="K6">
-        <v>0.9963244873223132</v>
+        <v>1.073681651544235</v>
       </c>
       <c r="L6">
-        <v>1.004561252207235</v>
+        <v>1.031279649853731</v>
       </c>
       <c r="M6">
-        <v>0.9885089945587855</v>
+        <v>0.8829135558862987</v>
       </c>
       <c r="N6">
-        <v>1.012179238469862</v>
+        <v>1.073681651544235</v>
       </c>
       <c r="O6">
-        <v>1.004120304628631</v>
+        <v>1.031279649853731</v>
       </c>
       <c r="P6">
-        <v>0.9932355850386304</v>
+        <v>0.957096602870015</v>
       </c>
       <c r="Q6">
-        <v>1.000173646569927</v>
+        <v>1.003261121192401</v>
       </c>
       <c r="R6">
-        <v>0.9995501361823741</v>
+        <v>0.9959582857614215</v>
       </c>
       <c r="S6">
-        <v>0.9942327195294944</v>
+        <v>0.963145266090367</v>
       </c>
       <c r="T6">
-        <v>0.9995501361823741</v>
+        <v>0.9959582857614216</v>
       </c>
       <c r="U6">
-        <v>0.9987193492645862</v>
+        <v>0.990779362453834</v>
       </c>
       <c r="V6">
-        <v>1.001411327105641</v>
+        <v>1.007359820271914</v>
       </c>
       <c r="W6">
-        <v>0.9988456531783081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9921627429722411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000180659076645</v>
+        <v>0.9991697096413643</v>
       </c>
       <c r="D7">
-        <v>0.9997281879516764</v>
+        <v>1.001410987435183</v>
       </c>
       <c r="E7">
-        <v>1.000067281632446</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="F7">
-        <v>1.000180659076645</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="G7">
-        <v>0.9999421596690871</v>
+        <v>0.9974764413569609</v>
       </c>
       <c r="H7">
-        <v>1.000100372766784</v>
+        <v>1.001038653457539</v>
       </c>
       <c r="I7">
-        <v>1.000180659076645</v>
+        <v>0.9961473118446</v>
       </c>
       <c r="J7">
-        <v>0.9997281879516764</v>
+        <v>0.9991466945509136</v>
       </c>
       <c r="K7">
-        <v>0.9999458837687528</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="L7">
-        <v>1.00006811053504</v>
+        <v>1.000823464248401</v>
       </c>
       <c r="M7">
-        <v>0.9998237310272456</v>
+        <v>0.9961473118446</v>
       </c>
       <c r="N7">
-        <v>1.000180659076645</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="O7">
-        <v>1.000067281632446</v>
+        <v>1.000823464248401</v>
       </c>
       <c r="P7">
-        <v>0.9998977347920613</v>
+        <v>0.9984853880465003</v>
       </c>
       <c r="Q7">
-        <v>1.000004720650767</v>
+        <v>0.9999965869448825</v>
       </c>
       <c r="R7">
-        <v>0.9999920428869226</v>
+        <v>0.9999235027920331</v>
       </c>
       <c r="S7">
-        <v>0.9999125430844032</v>
+        <v>0.9987134952447884</v>
       </c>
       <c r="T7">
-        <v>0.9999920428869226</v>
+        <v>0.9999235027920331</v>
       </c>
       <c r="U7">
-        <v>0.9999795720824637</v>
+        <v>0.9997350545043659</v>
       </c>
       <c r="V7">
-        <v>1.0000197894813</v>
+        <v>1.000347990060112</v>
       </c>
       <c r="W7">
-        <v>0.9999820483034596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9997516243522575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000530281513071</v>
+        <v>0.9999328579946544</v>
       </c>
       <c r="D8">
-        <v>0.9992193558023603</v>
+        <v>1.000134499049726</v>
       </c>
       <c r="E8">
-        <v>1.000187161228321</v>
+        <v>1.000089393637363</v>
       </c>
       <c r="F8">
-        <v>1.000530281513071</v>
+        <v>1.000089393637363</v>
       </c>
       <c r="G8">
-        <v>0.9998332991713127</v>
+        <v>0.9997902260550089</v>
       </c>
       <c r="H8">
-        <v>1.000287796657375</v>
+        <v>1.000043933992413</v>
       </c>
       <c r="I8">
-        <v>1.000530281513071</v>
+        <v>0.9996531569107845</v>
       </c>
       <c r="J8">
-        <v>0.9992193558023603</v>
+        <v>0.9999819274347769</v>
       </c>
       <c r="K8">
-        <v>0.999840448547259</v>
+        <v>1.000089393637363</v>
       </c>
       <c r="L8">
-        <v>1.000199061515802</v>
+        <v>1.00016185953214</v>
       </c>
       <c r="M8">
-        <v>0.9994924877073882</v>
+        <v>0.9996531569107845</v>
       </c>
       <c r="N8">
-        <v>1.000530281513071</v>
+        <v>1.000089393637363</v>
       </c>
       <c r="O8">
-        <v>1.000187161228321</v>
+        <v>1.00016185953214</v>
       </c>
       <c r="P8">
-        <v>0.9997032585153406</v>
+        <v>0.9999075082214623</v>
       </c>
       <c r="Q8">
-        <v>1.000010230199817</v>
+        <v>1.000047358763397</v>
       </c>
       <c r="R8">
-        <v>0.9999789328479173</v>
+        <v>0.9999681366934291</v>
       </c>
       <c r="S8">
-        <v>0.9997466054006646</v>
+        <v>0.9999159581458597</v>
       </c>
       <c r="T8">
-        <v>0.9999789328479173</v>
+        <v>0.9999681366934291</v>
       </c>
       <c r="U8">
-        <v>0.9999425244287662</v>
+        <v>0.9999593170187354</v>
       </c>
       <c r="V8">
-        <v>1.000060075845627</v>
+        <v>0.999985332342461</v>
       </c>
       <c r="W8">
-        <v>0.9999487365178612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999734818258583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00080329167368</v>
+        <v>0.9986565850671516</v>
       </c>
       <c r="D9">
-        <v>0.9988461224129723</v>
+        <v>1.002313142709659</v>
       </c>
       <c r="E9">
-        <v>1.000265908391444</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="F9">
-        <v>1.00080329167368</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="G9">
-        <v>0.9997528172623799</v>
+        <v>0.9959094494424265</v>
       </c>
       <c r="H9">
-        <v>1.000424369145591</v>
+        <v>1.001619768430172</v>
       </c>
       <c r="I9">
-        <v>1.00080329167368</v>
+        <v>0.9937158352480575</v>
       </c>
       <c r="J9">
-        <v>0.9988461224129723</v>
+        <v>0.9986959295200908</v>
       </c>
       <c r="K9">
-        <v>0.9997571431819348</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="L9">
-        <v>1.000300247346694</v>
+        <v>1.001475159479067</v>
       </c>
       <c r="M9">
-        <v>0.9992478509404598</v>
+        <v>0.9937158352480575</v>
       </c>
       <c r="N9">
-        <v>1.00080329167368</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="O9">
-        <v>1.000265908391444</v>
+        <v>1.001475159479067</v>
       </c>
       <c r="P9">
-        <v>0.999556015402208</v>
+        <v>0.9975954973635625</v>
       </c>
       <c r="Q9">
-        <v>1.000009362826912</v>
+        <v>1.00006587227311</v>
       </c>
       <c r="R9">
-        <v>0.9999717741593651</v>
+        <v>0.999838184186416</v>
       </c>
       <c r="S9">
-        <v>0.9996216160222652</v>
+        <v>0.9979491932647587</v>
       </c>
       <c r="T9">
-        <v>0.9999717741593651</v>
+        <v>0.999838184186416</v>
       </c>
       <c r="U9">
-        <v>0.9999170349351189</v>
+        <v>0.9995427844065999</v>
       </c>
       <c r="V9">
-        <v>1.000094286282831</v>
+        <v>1.000498939091705</v>
       </c>
       <c r="W9">
-        <v>0.9999247187943945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9995886784660934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001674860430624</v>
+        <v>0.9748804812102213</v>
       </c>
       <c r="D10">
-        <v>0.9975721414501514</v>
+        <v>1.044117549167064</v>
       </c>
       <c r="E10">
-        <v>1.00056753643546</v>
+        <v>1.074723172441865</v>
       </c>
       <c r="F10">
-        <v>1.001674860430624</v>
+        <v>1.074723172441865</v>
       </c>
       <c r="G10">
-        <v>0.9994807509319894</v>
+        <v>0.9233517189627433</v>
       </c>
       <c r="H10">
-        <v>1.000893482622016</v>
+        <v>1.028464541920415</v>
       </c>
       <c r="I10">
-        <v>1.001674860430624</v>
+        <v>0.8811308651456708</v>
       </c>
       <c r="J10">
-        <v>0.9975721414501514</v>
+        <v>0.9778790979715953</v>
       </c>
       <c r="K10">
-        <v>0.9994945593148202</v>
+        <v>1.074723172441865</v>
       </c>
       <c r="L10">
-        <v>1.000627144968476</v>
+        <v>1.031779418600161</v>
       </c>
       <c r="M10">
-        <v>0.9984191457618276</v>
+        <v>0.8811308651456708</v>
       </c>
       <c r="N10">
-        <v>1.001674860430624</v>
+        <v>1.074723172441865</v>
       </c>
       <c r="O10">
-        <v>1.00056753643546</v>
+        <v>1.031779418600161</v>
       </c>
       <c r="P10">
-        <v>0.9990698389428054</v>
+        <v>0.956455141872916</v>
       </c>
       <c r="Q10">
-        <v>1.000024143683724</v>
+        <v>1.003329949905191</v>
       </c>
       <c r="R10">
-        <v>0.9999381794387451</v>
+        <v>0.9958778187292322</v>
       </c>
       <c r="S10">
-        <v>0.9992068096058668</v>
+        <v>0.9625969216520178</v>
       </c>
       <c r="T10">
-        <v>0.9999381794387453</v>
+        <v>0.9958778187292322</v>
       </c>
       <c r="U10">
-        <v>0.9998238223120564</v>
+        <v>0.9906284843494795</v>
       </c>
       <c r="V10">
-        <v>1.00019402993577</v>
+        <v>1.007447421967957</v>
       </c>
       <c r="W10">
-        <v>0.9998412027394206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.992040855677467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002976407090901</v>
+        <v>0.9951359316592606</v>
       </c>
       <c r="D11">
-        <v>0.9958143003036214</v>
+        <v>1.008348260783213</v>
       </c>
       <c r="E11">
-        <v>1.000929033758593</v>
+        <v>1.015384899327635</v>
       </c>
       <c r="F11">
-        <v>1.002976407090901</v>
+        <v>1.015384899327635</v>
       </c>
       <c r="G11">
-        <v>0.9991014650281392</v>
+        <v>0.9853152882903959</v>
       </c>
       <c r="H11">
-        <v>1.001535476539311</v>
+        <v>1.005737471113003</v>
       </c>
       <c r="I11">
-        <v>1.002976407090901</v>
+        <v>0.9774876924869966</v>
       </c>
       <c r="J11">
-        <v>0.9958143003036214</v>
+        <v>0.9953606493324703</v>
       </c>
       <c r="K11">
-        <v>0.9990965770415194</v>
+        <v>1.015384899327635</v>
       </c>
       <c r="L11">
-        <v>1.00110879829467</v>
+        <v>1.005441163768748</v>
       </c>
       <c r="M11">
-        <v>0.9972656555656474</v>
+        <v>0.9774876924869966</v>
       </c>
       <c r="N11">
-        <v>1.002976407090901</v>
+        <v>1.015384899327635</v>
       </c>
       <c r="O11">
-        <v>1.000929033758593</v>
+        <v>1.005441163768748</v>
       </c>
       <c r="P11">
-        <v>0.9983716670311069</v>
+        <v>0.9914644281278723</v>
       </c>
       <c r="Q11">
-        <v>1.000015249393366</v>
+        <v>1.000288547714004</v>
       </c>
       <c r="R11">
-        <v>0.9999065803843715</v>
+        <v>0.9994379185277933</v>
       </c>
       <c r="S11">
-        <v>0.9986149330301176</v>
+        <v>0.992688262638335</v>
       </c>
       <c r="T11">
-        <v>0.9999065803843715</v>
+        <v>0.9994379185277933</v>
       </c>
       <c r="U11">
-        <v>0.9997053015453135</v>
+        <v>0.9983624218106602</v>
       </c>
       <c r="V11">
-        <v>1.000359522654431</v>
+        <v>1.001766917314055</v>
       </c>
       <c r="W11">
-        <v>0.9997284642028001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9985264195952155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9776401178658284</v>
+        <v>0.9923603394842121</v>
       </c>
       <c r="D12">
-        <v>1.052258540876262</v>
+        <v>1.013415301252633</v>
       </c>
       <c r="E12">
-        <v>0.9800296639585323</v>
+        <v>1.022706526042106</v>
       </c>
       <c r="F12">
-        <v>0.9776401178658284</v>
+        <v>1.022706526042106</v>
       </c>
       <c r="G12">
-        <v>1.010743508261242</v>
+        <v>0.9766984826736824</v>
       </c>
       <c r="H12">
-        <v>0.9799296370024908</v>
+        <v>1.008647660105264</v>
       </c>
       <c r="I12">
-        <v>0.9776401178658284</v>
+        <v>0.9638668553052608</v>
       </c>
       <c r="J12">
-        <v>1.052258540876262</v>
+        <v>0.9932780889684221</v>
       </c>
       <c r="K12">
-        <v>1.005953392045314</v>
+        <v>1.022706526042106</v>
       </c>
       <c r="L12">
-        <v>0.9907971561559109</v>
+        <v>1.009671827863157</v>
       </c>
       <c r="M12">
-        <v>1.032716044578428</v>
+        <v>0.9638668553052608</v>
       </c>
       <c r="N12">
-        <v>0.9776401178658284</v>
+        <v>1.022706526042106</v>
       </c>
       <c r="O12">
-        <v>0.9800296639585323</v>
+        <v>1.009671827863157</v>
       </c>
       <c r="P12">
-        <v>1.016144102417397</v>
+        <v>0.9867693415842089</v>
       </c>
       <c r="Q12">
-        <v>0.9953865861098872</v>
+        <v>1.001016083673685</v>
       </c>
       <c r="R12">
-        <v>1.003309440900207</v>
+        <v>0.9987484030701745</v>
       </c>
       <c r="S12">
-        <v>1.014343904365345</v>
+        <v>0.9886330075508766</v>
       </c>
       <c r="T12">
-        <v>1.003309440900207</v>
+        <v>0.9987484030701745</v>
       </c>
       <c r="U12">
-        <v>1.005167957740466</v>
+        <v>0.9971513871736839</v>
       </c>
       <c r="V12">
-        <v>0.9996623897655386</v>
+        <v>1.002262414947368</v>
       </c>
       <c r="W12">
-        <v>1.003758507593001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9975806352118421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9880502330102715</v>
+        <v>1.004978978387689</v>
       </c>
       <c r="D13">
-        <v>1.009978893299014</v>
+        <v>0.991392744630034</v>
       </c>
       <c r="E13">
-        <v>1.000344419947144</v>
+        <v>0.9848951694252378</v>
       </c>
       <c r="F13">
-        <v>0.9880502330102715</v>
+        <v>0.9848951694252378</v>
       </c>
       <c r="G13">
-        <v>1.002401944110519</v>
+        <v>1.014988777067236</v>
       </c>
       <c r="H13">
-        <v>0.99652920446717</v>
+        <v>0.994339771144592</v>
       </c>
       <c r="I13">
-        <v>0.9880502330102715</v>
+        <v>1.023052354872671</v>
       </c>
       <c r="J13">
-        <v>1.009978893299014</v>
+        <v>1.004518797380254</v>
       </c>
       <c r="K13">
-        <v>1.003909950768545</v>
+        <v>0.9848951694252378</v>
       </c>
       <c r="L13">
-        <v>0.9958967502760446</v>
+        <v>0.9940271082361226</v>
       </c>
       <c r="M13">
-        <v>1.007062734392442</v>
+        <v>1.023052354872671</v>
       </c>
       <c r="N13">
-        <v>0.9880502330102715</v>
+        <v>0.9848951694252378</v>
       </c>
       <c r="O13">
-        <v>1.000344419947144</v>
+        <v>0.9940271082361226</v>
       </c>
       <c r="P13">
-        <v>1.005161656623079</v>
+        <v>1.008539731554397</v>
       </c>
       <c r="Q13">
-        <v>1.001373182028832</v>
+        <v>0.9995030433119056</v>
       </c>
       <c r="R13">
-        <v>0.9994578487521433</v>
+        <v>1.000658210844677</v>
       </c>
       <c r="S13">
-        <v>1.004241752452226</v>
+        <v>1.007352813832161</v>
       </c>
       <c r="T13">
-        <v>0.9994578487521434</v>
+        <v>1.000658210844677</v>
       </c>
       <c r="U13">
-        <v>1.000193872591737</v>
+        <v>1.00173840273043</v>
       </c>
       <c r="V13">
-        <v>0.9977651446754443</v>
+        <v>0.9983697560693916</v>
       </c>
       <c r="W13">
-        <v>1.000521766283894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.00152421264298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9729884870979971</v>
+        <v>0.9565965400000002</v>
       </c>
       <c r="D14">
-        <v>0.9849952232975554</v>
+        <v>1.076254</v>
       </c>
       <c r="E14">
-        <v>1.024453253467575</v>
+        <v>1.1289798</v>
       </c>
       <c r="F14">
-        <v>0.9729884870979971</v>
+        <v>1.1289798</v>
       </c>
       <c r="G14">
-        <v>0.9980936794677955</v>
+        <v>0.8675463900000007</v>
       </c>
       <c r="H14">
-        <v>1.007688075550519</v>
+        <v>1.0491477</v>
       </c>
       <c r="I14">
-        <v>0.9729884870979971</v>
+        <v>0.7945536399999986</v>
       </c>
       <c r="J14">
-        <v>0.9849952232975554</v>
+        <v>0.9618283200000005</v>
       </c>
       <c r="K14">
-        <v>1.01033041267105</v>
+        <v>1.1289798</v>
       </c>
       <c r="L14">
-        <v>0.9922236668840205</v>
+        <v>1.055009100000001</v>
       </c>
       <c r="M14">
-        <v>0.9938982115638184</v>
+        <v>0.7945536399999986</v>
       </c>
       <c r="N14">
-        <v>0.9729884870979971</v>
+        <v>1.1289798</v>
       </c>
       <c r="O14">
-        <v>1.024453253467575</v>
+        <v>1.055009100000001</v>
       </c>
       <c r="P14">
-        <v>1.004724238382565</v>
+        <v>0.9247813699999996</v>
       </c>
       <c r="Q14">
-        <v>1.011273466467685</v>
+        <v>1.00580282</v>
       </c>
       <c r="R14">
-        <v>0.9941456546210423</v>
+        <v>0.9928475133333331</v>
       </c>
       <c r="S14">
-        <v>1.002514052077642</v>
+        <v>0.9353864266666664</v>
       </c>
       <c r="T14">
-        <v>0.9941456546210423</v>
+        <v>0.9928475133333331</v>
       </c>
       <c r="U14">
-        <v>0.9951326608327307</v>
+        <v>0.9837847699999999</v>
       </c>
       <c r="V14">
-        <v>0.990703826085784</v>
+        <v>1.012823776</v>
       </c>
       <c r="W14">
-        <v>0.9980838762500412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9862394362500002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.011122292967806</v>
+        <v>0.9330054699999999</v>
       </c>
       <c r="D15">
-        <v>1.006276322162429</v>
+        <v>1.1106739</v>
       </c>
       <c r="E15">
-        <v>0.9899650001712001</v>
+        <v>1.250483</v>
       </c>
       <c r="F15">
-        <v>1.011122292967806</v>
+        <v>1.250483</v>
       </c>
       <c r="G15">
-        <v>1.000750561263715</v>
+        <v>0.7964132100000001</v>
       </c>
       <c r="H15">
-        <v>0.9968479510944342</v>
+        <v>1.0913427</v>
       </c>
       <c r="I15">
-        <v>1.011122292967806</v>
+        <v>0.69322785</v>
       </c>
       <c r="J15">
-        <v>1.006276322162429</v>
+        <v>0.92214069</v>
       </c>
       <c r="K15">
-        <v>0.9957375492014302</v>
+        <v>1.250483</v>
       </c>
       <c r="L15">
-        <v>1.003166208669013</v>
+        <v>1.0499823</v>
       </c>
       <c r="M15">
-        <v>1.002530216262848</v>
+        <v>0.69322785</v>
       </c>
       <c r="N15">
-        <v>1.011122292967806</v>
+        <v>1.250483</v>
       </c>
       <c r="O15">
-        <v>0.9899650001712001</v>
+        <v>1.0499823</v>
       </c>
       <c r="P15">
-        <v>0.9981206611668144</v>
+        <v>0.871605075</v>
       </c>
       <c r="Q15">
-        <v>0.9953577807174577</v>
+        <v>0.9914938849999999</v>
       </c>
       <c r="R15">
-        <v>1.002454538433812</v>
+        <v>0.9978977166666666</v>
       </c>
       <c r="S15">
-        <v>0.998997294532448</v>
+        <v>0.8920718733333333</v>
       </c>
       <c r="T15">
-        <v>1.002454538433812</v>
+        <v>0.9978977166666666</v>
       </c>
       <c r="U15">
-        <v>1.002028544141288</v>
+        <v>0.981674655</v>
       </c>
       <c r="V15">
-        <v>1.003847293906591</v>
+        <v>1.035436324</v>
       </c>
       <c r="W15">
-        <v>1.000799512724109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.98090864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000069403838672</v>
+        <v>0.9331386</v>
       </c>
       <c r="D16">
-        <v>1.000022016127016</v>
+        <v>1.1138031</v>
       </c>
       <c r="E16">
-        <v>0.9999497899094741</v>
+        <v>1.2181161</v>
       </c>
       <c r="F16">
-        <v>1.000069403838672</v>
+        <v>1.2181161</v>
       </c>
       <c r="G16">
-        <v>1.000000437482595</v>
+        <v>0.79834672</v>
       </c>
       <c r="H16">
-        <v>0.9999883288986317</v>
+        <v>1.0808334</v>
       </c>
       <c r="I16">
-        <v>1.000069403838672</v>
+        <v>0.6920884</v>
       </c>
       <c r="J16">
-        <v>1.000022016127016</v>
+        <v>0.93377046</v>
       </c>
       <c r="K16">
-        <v>0.999973999669195</v>
+        <v>1.2181161</v>
       </c>
       <c r="L16">
-        <v>1.00001991039512</v>
+        <v>1.070227</v>
       </c>
       <c r="M16">
-        <v>1.00000505148155</v>
+        <v>0.6920884</v>
       </c>
       <c r="N16">
-        <v>1.000069403838672</v>
+        <v>1.2181161</v>
       </c>
       <c r="O16">
-        <v>0.9999497899094741</v>
+        <v>1.070227</v>
       </c>
       <c r="P16">
-        <v>0.9999859030182452</v>
+        <v>0.8811577</v>
       </c>
       <c r="Q16">
-        <v>0.9999751136960344</v>
+        <v>1.0016828</v>
       </c>
       <c r="R16">
-        <v>1.000013736625054</v>
+        <v>0.9934771666666666</v>
       </c>
       <c r="S16">
-        <v>0.9999907478396951</v>
+        <v>0.8984846666666667</v>
       </c>
       <c r="T16">
-        <v>1.000013736625054</v>
+        <v>0.9934771666666666</v>
       </c>
       <c r="U16">
-        <v>1.000010411839439</v>
+        <v>0.978392525</v>
       </c>
       <c r="V16">
-        <v>1.000022210239286</v>
+        <v>1.02633724</v>
       </c>
       <c r="W16">
-        <v>1.000003617225282</v>
+        <v>0.9800404725</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000089393637363</v>
+        <v>0.98388049</v>
       </c>
       <c r="D17">
-        <v>0.9996531569107845</v>
+        <v>1.0252842</v>
       </c>
       <c r="E17">
-        <v>1.00016185953214</v>
+        <v>1.0719378</v>
       </c>
       <c r="F17">
-        <v>1.000089393637363</v>
+        <v>1.0719378</v>
       </c>
       <c r="G17">
-        <v>0.9999328579946546</v>
+        <v>0.9506980500000001</v>
       </c>
       <c r="H17">
-        <v>1.000134499049726</v>
+        <v>1.0256737</v>
       </c>
       <c r="I17">
-        <v>1.000089393637363</v>
+        <v>0.92737719</v>
       </c>
       <c r="J17">
-        <v>0.9996531569107845</v>
+        <v>0.97703299</v>
       </c>
       <c r="K17">
-        <v>0.9999819274347767</v>
+        <v>1.0719378</v>
       </c>
       <c r="L17">
-        <v>1.000043933992412</v>
+        <v>1.0044226</v>
       </c>
       <c r="M17">
-        <v>0.9997902260550089</v>
+        <v>0.92737719</v>
       </c>
       <c r="N17">
-        <v>1.000089393637363</v>
+        <v>1.0719378</v>
       </c>
       <c r="O17">
-        <v>1.00016185953214</v>
+        <v>1.0044226</v>
       </c>
       <c r="P17">
-        <v>0.9999075082214623</v>
+        <v>0.965899895</v>
       </c>
       <c r="Q17">
-        <v>1.000047358763397</v>
+        <v>0.994151545</v>
       </c>
       <c r="R17">
-        <v>0.9999681366934291</v>
+        <v>1.001245863333333</v>
       </c>
       <c r="S17">
-        <v>0.9999159581458598</v>
+        <v>0.9718934266666667</v>
       </c>
       <c r="T17">
-        <v>0.9999681366934291</v>
+        <v>1.001245863333333</v>
       </c>
       <c r="U17">
-        <v>0.9999593170187355</v>
+        <v>0.99690452</v>
       </c>
       <c r="V17">
-        <v>0.999985332342461</v>
+        <v>1.011911176</v>
       </c>
       <c r="W17">
-        <v>0.9999734818258581</v>
+        <v>0.9957883775</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000882398424111</v>
+        <v>0.9832638856164383</v>
       </c>
       <c r="D18">
-        <v>0.9991113574810083</v>
+        <v>1.028684688493151</v>
       </c>
       <c r="E18">
-        <v>1.000064143625998</v>
+        <v>1.054796270136986</v>
       </c>
       <c r="F18">
-        <v>1.000882398424111</v>
+        <v>1.054796270136986</v>
       </c>
       <c r="G18">
-        <v>0.9997963985106145</v>
+        <v>0.9490652261643833</v>
       </c>
       <c r="H18">
-        <v>1.000315615492605</v>
+        <v>1.020456864931507</v>
       </c>
       <c r="I18">
-        <v>1.000882398424111</v>
+        <v>0.9219214650684933</v>
       </c>
       <c r="J18">
-        <v>0.9991113574810083</v>
+        <v>0.9834087258904108</v>
       </c>
       <c r="K18">
-        <v>0.9997176198305815</v>
+        <v>1.054796270136986</v>
       </c>
       <c r="L18">
-        <v>1.00031107959967</v>
+        <v>1.017736934520548</v>
       </c>
       <c r="M18">
-        <v>0.9993918451374509</v>
+        <v>0.9219214650684933</v>
       </c>
       <c r="N18">
-        <v>1.000882398424111</v>
+        <v>1.054796270136986</v>
       </c>
       <c r="O18">
-        <v>1.000064143625998</v>
+        <v>1.017736934520548</v>
       </c>
       <c r="P18">
-        <v>0.9995877505535031</v>
+        <v>0.9698291997945206</v>
       </c>
       <c r="Q18">
-        <v>0.9999302710683062</v>
+        <v>1.000500410068493</v>
       </c>
       <c r="R18">
-        <v>1.000019299843706</v>
+        <v>0.9981515565753426</v>
       </c>
       <c r="S18">
-        <v>0.9996572998725403</v>
+        <v>0.9743074284018265</v>
       </c>
       <c r="T18">
-        <v>1.000019299843706</v>
+        <v>0.9981515565753426</v>
       </c>
       <c r="U18">
-        <v>0.9999635745104329</v>
+        <v>0.9944296388356165</v>
       </c>
       <c r="V18">
-        <v>1.000147339293169</v>
+        <v>1.006502965095891</v>
       </c>
       <c r="W18">
-        <v>0.9999488072627548</v>
+        <v>0.9949167576027397</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.002414840031256</v>
+        <v>0.9716217336842105</v>
       </c>
       <c r="D19">
-        <v>0.9981227551226015</v>
+        <v>1.050737994736842</v>
       </c>
       <c r="E19">
-        <v>0.9998415261731387</v>
+        <v>1.076077496315789</v>
       </c>
       <c r="F19">
-        <v>1.002414840031256</v>
+        <v>1.076077496315789</v>
       </c>
       <c r="G19">
-        <v>0.9995424062090804</v>
+        <v>0.9137658905263158</v>
       </c>
       <c r="H19">
-        <v>1.000643174764235</v>
+        <v>1.029469655789474</v>
       </c>
       <c r="I19">
-        <v>1.002414840031256</v>
+        <v>0.8651565252631579</v>
       </c>
       <c r="J19">
-        <v>0.9981227551226015</v>
+        <v>0.9780176621052631</v>
       </c>
       <c r="K19">
-        <v>0.9992043830752645</v>
+        <v>1.076077496315789</v>
       </c>
       <c r="L19">
-        <v>1.000823994679265</v>
+        <v>1.041252684210526</v>
       </c>
       <c r="M19">
-        <v>0.9986550379338998</v>
+        <v>0.8651565252631579</v>
       </c>
       <c r="N19">
-        <v>1.002414840031256</v>
+        <v>1.076077496315789</v>
       </c>
       <c r="O19">
-        <v>0.9998415261731387</v>
+        <v>1.041252684210526</v>
       </c>
       <c r="P19">
-        <v>0.9989821406478701</v>
+        <v>0.9532046047368421</v>
       </c>
       <c r="Q19">
-        <v>0.9996919661911096</v>
+        <v>1.006437208947368</v>
       </c>
       <c r="R19">
-        <v>1.000126373775665</v>
+        <v>0.9941622352631579</v>
       </c>
       <c r="S19">
-        <v>0.9991688958349402</v>
+        <v>0.9593436477192983</v>
       </c>
       <c r="T19">
-        <v>1.000126373775665</v>
+        <v>0.9941622352631579</v>
       </c>
       <c r="U19">
-        <v>0.9999803818840192</v>
+        <v>0.9885271098684211</v>
       </c>
       <c r="V19">
-        <v>1.000467273513467</v>
+        <v>1.006037187157895</v>
       </c>
       <c r="W19">
-        <v>0.9999060147485925</v>
+        <v>0.9907624553289474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9729201047368422</v>
+      </c>
+      <c r="D20">
+        <v>1.047055672105263</v>
+      </c>
+      <c r="E20">
+        <v>1.081540789473684</v>
+      </c>
+      <c r="F20">
+        <v>1.081540789473684</v>
+      </c>
+      <c r="G20">
+        <v>0.9181438252631579</v>
+      </c>
+      <c r="H20">
+        <v>1.030715373684211</v>
+      </c>
+      <c r="I20">
+        <v>0.8737652331578946</v>
+      </c>
+      <c r="J20">
+        <v>0.9756907215789477</v>
+      </c>
+      <c r="K20">
+        <v>1.081540789473684</v>
+      </c>
+      <c r="L20">
+        <v>1.033107786842105</v>
+      </c>
+      <c r="M20">
+        <v>0.8737652331578946</v>
+      </c>
+      <c r="N20">
+        <v>1.081540789473684</v>
+      </c>
+      <c r="O20">
+        <v>1.033107786842105</v>
+      </c>
+      <c r="P20">
+        <v>0.95343651</v>
+      </c>
+      <c r="Q20">
+        <v>1.003013945789474</v>
+      </c>
+      <c r="R20">
+        <v>0.9961379364912281</v>
+      </c>
+      <c r="S20">
+        <v>0.9599310415789474</v>
+      </c>
+      <c r="T20">
+        <v>0.9961379364912281</v>
+      </c>
+      <c r="U20">
+        <v>0.9903334785526315</v>
+      </c>
+      <c r="V20">
+        <v>1.008574940736842</v>
+      </c>
+      <c r="W20">
+        <v>0.9916174383552632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9980936794677955</v>
+      </c>
+      <c r="D21">
+        <v>1.007688075550519</v>
+      </c>
+      <c r="E21">
+        <v>0.9729884870979971</v>
+      </c>
+      <c r="F21">
+        <v>0.9729884870979971</v>
+      </c>
+      <c r="G21">
+        <v>0.9938982115638184</v>
+      </c>
+      <c r="H21">
+        <v>0.9922236668840205</v>
+      </c>
+      <c r="I21">
+        <v>0.9849952232975554</v>
+      </c>
+      <c r="J21">
+        <v>1.01033041267105</v>
+      </c>
+      <c r="K21">
+        <v>0.9729884870979971</v>
+      </c>
+      <c r="L21">
+        <v>1.024453253467575</v>
+      </c>
+      <c r="M21">
+        <v>0.9849952232975554</v>
+      </c>
+      <c r="N21">
+        <v>0.9729884870979971</v>
+      </c>
+      <c r="O21">
+        <v>1.024453253467575</v>
+      </c>
+      <c r="P21">
+        <v>1.004724238382565</v>
+      </c>
+      <c r="Q21">
+        <v>1.011273466467685</v>
+      </c>
+      <c r="R21">
+        <v>0.9941456546210423</v>
+      </c>
+      <c r="S21">
+        <v>1.002514052077642</v>
+      </c>
+      <c r="T21">
+        <v>0.9941456546210423</v>
+      </c>
+      <c r="U21">
+        <v>0.9951326608327307</v>
+      </c>
+      <c r="V21">
+        <v>0.990703826085784</v>
+      </c>
+      <c r="W21">
+        <v>0.9980838762500412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000750561263715</v>
+      </c>
+      <c r="D22">
+        <v>0.9968479510944342</v>
+      </c>
+      <c r="E22">
+        <v>1.011122292967806</v>
+      </c>
+      <c r="F22">
+        <v>1.011122292967806</v>
+      </c>
+      <c r="G22">
+        <v>1.002530216262848</v>
+      </c>
+      <c r="H22">
+        <v>1.003166208669013</v>
+      </c>
+      <c r="I22">
+        <v>1.006276322162429</v>
+      </c>
+      <c r="J22">
+        <v>0.9957375492014302</v>
+      </c>
+      <c r="K22">
+        <v>1.011122292967806</v>
+      </c>
+      <c r="L22">
+        <v>0.9899650001712001</v>
+      </c>
+      <c r="M22">
+        <v>1.006276322162429</v>
+      </c>
+      <c r="N22">
+        <v>1.011122292967806</v>
+      </c>
+      <c r="O22">
+        <v>0.9899650001712001</v>
+      </c>
+      <c r="P22">
+        <v>0.9981206611668144</v>
+      </c>
+      <c r="Q22">
+        <v>0.9953577807174577</v>
+      </c>
+      <c r="R22">
+        <v>1.002454538433811</v>
+      </c>
+      <c r="S22">
+        <v>0.998997294532448</v>
+      </c>
+      <c r="T22">
+        <v>1.002454538433812</v>
+      </c>
+      <c r="U22">
+        <v>1.002028544141288</v>
+      </c>
+      <c r="V22">
+        <v>1.003847293906591</v>
+      </c>
+      <c r="W22">
+        <v>1.000799512724109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.010743508261242</v>
+      </c>
+      <c r="D23">
+        <v>0.9799296370024908</v>
+      </c>
+      <c r="E23">
+        <v>0.9776401178658284</v>
+      </c>
+      <c r="F23">
+        <v>0.9776401178658284</v>
+      </c>
+      <c r="G23">
+        <v>1.032716044578428</v>
+      </c>
+      <c r="H23">
+        <v>0.990797156155911</v>
+      </c>
+      <c r="I23">
+        <v>1.052258540876262</v>
+      </c>
+      <c r="J23">
+        <v>1.005953392045314</v>
+      </c>
+      <c r="K23">
+        <v>0.9776401178658284</v>
+      </c>
+      <c r="L23">
+        <v>0.9800296639585323</v>
+      </c>
+      <c r="M23">
+        <v>1.052258540876262</v>
+      </c>
+      <c r="N23">
+        <v>0.9776401178658284</v>
+      </c>
+      <c r="O23">
+        <v>0.9800296639585323</v>
+      </c>
+      <c r="P23">
+        <v>1.016144102417397</v>
+      </c>
+      <c r="Q23">
+        <v>0.9953865861098872</v>
+      </c>
+      <c r="R23">
+        <v>1.003309440900207</v>
+      </c>
+      <c r="S23">
+        <v>1.014343904365345</v>
+      </c>
+      <c r="T23">
+        <v>1.003309440900207</v>
+      </c>
+      <c r="U23">
+        <v>1.005167957740466</v>
+      </c>
+      <c r="V23">
+        <v>0.9996623897655386</v>
+      </c>
+      <c r="W23">
+        <v>1.003758507593001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.002401944110519</v>
+      </c>
+      <c r="D24">
+        <v>0.9965292044671699</v>
+      </c>
+      <c r="E24">
+        <v>0.9880502330102715</v>
+      </c>
+      <c r="F24">
+        <v>0.9880502330102715</v>
+      </c>
+      <c r="G24">
+        <v>1.007062734392442</v>
+      </c>
+      <c r="H24">
+        <v>0.9958967502760446</v>
+      </c>
+      <c r="I24">
+        <v>1.009978893299014</v>
+      </c>
+      <c r="J24">
+        <v>1.003909950768545</v>
+      </c>
+      <c r="K24">
+        <v>0.9880502330102715</v>
+      </c>
+      <c r="L24">
+        <v>1.000344419947144</v>
+      </c>
+      <c r="M24">
+        <v>1.009978893299014</v>
+      </c>
+      <c r="N24">
+        <v>0.9880502330102715</v>
+      </c>
+      <c r="O24">
+        <v>1.000344419947144</v>
+      </c>
+      <c r="P24">
+        <v>1.005161656623079</v>
+      </c>
+      <c r="Q24">
+        <v>1.001373182028832</v>
+      </c>
+      <c r="R24">
+        <v>0.9994578487521433</v>
+      </c>
+      <c r="S24">
+        <v>1.004241752452226</v>
+      </c>
+      <c r="T24">
+        <v>0.9994578487521433</v>
+      </c>
+      <c r="U24">
+        <v>1.000193872591737</v>
+      </c>
+      <c r="V24">
+        <v>0.9977651446754441</v>
+      </c>
+      <c r="W24">
+        <v>1.000521766283894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.003462617468834</v>
+      </c>
+      <c r="D25">
+        <v>0.991782611931403</v>
+      </c>
+      <c r="E25">
+        <v>1.00619318849223</v>
+      </c>
+      <c r="F25">
+        <v>1.00619318849223</v>
+      </c>
+      <c r="G25">
+        <v>1.01059840207446</v>
+      </c>
+      <c r="H25">
+        <v>1.001130087562495</v>
+      </c>
+      <c r="I25">
+        <v>1.019154268535342</v>
+      </c>
+      <c r="J25">
+        <v>0.9970031800178126</v>
+      </c>
+      <c r="K25">
+        <v>1.00619318849223</v>
+      </c>
+      <c r="L25">
+        <v>0.984566471195484</v>
+      </c>
+      <c r="M25">
+        <v>1.019154268535342</v>
+      </c>
+      <c r="N25">
+        <v>1.00619318849223</v>
+      </c>
+      <c r="O25">
+        <v>0.984566471195484</v>
+      </c>
+      <c r="P25">
+        <v>1.001860369865413</v>
+      </c>
+      <c r="Q25">
+        <v>0.9940145443321589</v>
+      </c>
+      <c r="R25">
+        <v>1.003304642741019</v>
+      </c>
+      <c r="S25">
+        <v>1.002394452399887</v>
+      </c>
+      <c r="T25">
+        <v>1.003304642741019</v>
+      </c>
+      <c r="U25">
+        <v>1.003344136422972</v>
+      </c>
+      <c r="V25">
+        <v>1.003913946836824</v>
+      </c>
+      <c r="W25">
+        <v>1.001736353409758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000226789388881</v>
+      </c>
+      <c r="D26">
+        <v>1.000528208903279</v>
+      </c>
+      <c r="E26">
+        <v>0.9924173866972724</v>
+      </c>
+      <c r="F26">
+        <v>0.9924173866972724</v>
+      </c>
+      <c r="G26">
+        <v>1.000612991129174</v>
+      </c>
+      <c r="H26">
+        <v>0.9976493917613765</v>
+      </c>
+      <c r="I26">
+        <v>0.9997659240634846</v>
+      </c>
+      <c r="J26">
+        <v>1.002740523306271</v>
+      </c>
+      <c r="K26">
+        <v>0.9924173866972724</v>
+      </c>
+      <c r="L26">
+        <v>1.004383921824777</v>
+      </c>
+      <c r="M26">
+        <v>0.9997659240634846</v>
+      </c>
+      <c r="N26">
+        <v>0.9924173866972724</v>
+      </c>
+      <c r="O26">
+        <v>1.004383921824777</v>
+      </c>
+      <c r="P26">
+        <v>1.002074922944131</v>
+      </c>
+      <c r="Q26">
+        <v>1.002305355606829</v>
+      </c>
+      <c r="R26">
+        <v>0.9988557441951781</v>
+      </c>
+      <c r="S26">
+        <v>1.001458878425714</v>
+      </c>
+      <c r="T26">
+        <v>0.9988557441951779</v>
+      </c>
+      <c r="U26">
+        <v>0.9991985054936037</v>
+      </c>
+      <c r="V26">
+        <v>0.9978422817343373</v>
+      </c>
+      <c r="W26">
+        <v>0.9997906421343146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9973193638045665</v>
+      </c>
+      <c r="D27">
+        <v>1.004490890175769</v>
+      </c>
+      <c r="E27">
+        <v>1.00819493369517</v>
+      </c>
+      <c r="F27">
+        <v>1.00819493369517</v>
+      </c>
+      <c r="G27">
+        <v>0.9922067514549096</v>
+      </c>
+      <c r="H27">
+        <v>1.002968920962213</v>
+      </c>
+      <c r="I27">
+        <v>0.9882244829558388</v>
+      </c>
+      <c r="J27">
+        <v>0.9975081569990346</v>
+      </c>
+      <c r="K27">
+        <v>1.00819493369517</v>
+      </c>
+      <c r="L27">
+        <v>1.002997965044083</v>
+      </c>
+      <c r="M27">
+        <v>0.9882244829558388</v>
+      </c>
+      <c r="N27">
+        <v>1.00819493369517</v>
+      </c>
+      <c r="O27">
+        <v>1.002997965044083</v>
+      </c>
+      <c r="P27">
+        <v>0.9956112239999608</v>
+      </c>
+      <c r="Q27">
+        <v>1.000158664424325</v>
+      </c>
+      <c r="R27">
+        <v>0.9998057938983639</v>
+      </c>
+      <c r="S27">
+        <v>0.9961806039348294</v>
+      </c>
+      <c r="T27">
+        <v>0.9998057938983641</v>
+      </c>
+      <c r="U27">
+        <v>0.9991841863749147</v>
+      </c>
+      <c r="V27">
+        <v>1.000986335838966</v>
+      </c>
+      <c r="W27">
+        <v>0.9992389331364482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9972567743139565</v>
+      </c>
+      <c r="D28">
+        <v>1.004504161764876</v>
+      </c>
+      <c r="E28">
+        <v>1.009870593435159</v>
+      </c>
+      <c r="F28">
+        <v>1.009870593435159</v>
+      </c>
+      <c r="G28">
+        <v>0.991821740539622</v>
+      </c>
+      <c r="H28">
+        <v>1.003565847550378</v>
+      </c>
+      <c r="I28">
+        <v>0.9877328577135513</v>
+      </c>
+      <c r="J28">
+        <v>0.9969326907944169</v>
+      </c>
+      <c r="K28">
+        <v>1.009870593435159</v>
+      </c>
+      <c r="L28">
+        <v>1.002204279513607</v>
+      </c>
+      <c r="M28">
+        <v>0.9877328577135513</v>
+      </c>
+      <c r="N28">
+        <v>1.009870593435159</v>
+      </c>
+      <c r="O28">
+        <v>1.002204279513607</v>
+      </c>
+      <c r="P28">
+        <v>0.9949685686135794</v>
+      </c>
+      <c r="Q28">
+        <v>0.9997305269137819</v>
+      </c>
+      <c r="R28">
+        <v>0.9999359102207727</v>
+      </c>
+      <c r="S28">
+        <v>0.9957313038470385</v>
+      </c>
+      <c r="T28">
+        <v>0.9999359102207727</v>
+      </c>
+      <c r="U28">
+        <v>0.9992661262440686</v>
+      </c>
+      <c r="V28">
+        <v>1.001387019682287</v>
+      </c>
+      <c r="W28">
+        <v>0.9992361182031959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.005781436742216</v>
+      </c>
+      <c r="D29">
+        <v>0.9890163793681043</v>
+      </c>
+      <c r="E29">
+        <v>0.9910500944414633</v>
+      </c>
+      <c r="F29">
+        <v>0.9910500944414633</v>
+      </c>
+      <c r="G29">
+        <v>1.017169398836295</v>
+      </c>
+      <c r="H29">
+        <v>0.9961484995003667</v>
+      </c>
+      <c r="I29">
+        <v>1.027639291867911</v>
+      </c>
+      <c r="J29">
+        <v>1.002131297776797</v>
+      </c>
+      <c r="K29">
+        <v>0.9910500944414633</v>
+      </c>
+      <c r="L29">
+        <v>0.9874687897026277</v>
+      </c>
+      <c r="M29">
+        <v>1.027639291867911</v>
+      </c>
+      <c r="N29">
+        <v>0.9910500944414633</v>
+      </c>
+      <c r="O29">
+        <v>0.9874687897026277</v>
+      </c>
+      <c r="P29">
+        <v>1.007554040785269</v>
+      </c>
+      <c r="Q29">
+        <v>0.9966251132224216</v>
+      </c>
+      <c r="R29">
+        <v>1.002052725337334</v>
+      </c>
+      <c r="S29">
+        <v>1.006963172770918</v>
+      </c>
+      <c r="T29">
+        <v>1.002052725337334</v>
+      </c>
+      <c r="U29">
+        <v>1.002984903188554</v>
+      </c>
+      <c r="V29">
+        <v>1.000597941439136</v>
+      </c>
+      <c r="W29">
+        <v>1.002050648529472</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9904467967243776</v>
+        <v>0.9940164349302337</v>
       </c>
       <c r="D4">
-        <v>1.016408273759668</v>
+        <v>1.01048297764309</v>
       </c>
       <c r="E4">
-        <v>1.030244776465029</v>
+        <v>1.017746977546348</v>
       </c>
       <c r="F4">
-        <v>1.030244776465029</v>
+        <v>1.017746977546348</v>
       </c>
       <c r="G4">
-        <v>0.9711267117126631</v>
+        <v>0.9818090499119163</v>
       </c>
       <c r="H4">
-        <v>1.01128858334171</v>
+        <v>1.006740622503725</v>
       </c>
       <c r="I4">
-        <v>0.9557173150299362</v>
+        <v>0.9718277847768557</v>
       </c>
       <c r="J4">
-        <v>0.9908819541866885</v>
+        <v>0.9947411769228939</v>
       </c>
       <c r="K4">
-        <v>1.030244776465029</v>
+        <v>1.017746977546348</v>
       </c>
       <c r="L4">
-        <v>1.010688064711142</v>
+        <v>1.007562415882454</v>
       </c>
       <c r="M4">
-        <v>0.9557173150299362</v>
+        <v>0.9718277847768557</v>
       </c>
       <c r="N4">
-        <v>1.030244776465029</v>
+        <v>1.017746977546348</v>
       </c>
       <c r="O4">
-        <v>1.010688064711142</v>
+        <v>1.007562415882454</v>
       </c>
       <c r="P4">
-        <v>0.983202689870539</v>
+        <v>0.9896951003296549</v>
       </c>
       <c r="Q4">
-        <v>1.00056743071776</v>
+        <v>1.000789425406344</v>
       </c>
       <c r="R4">
-        <v>0.9988833854020357</v>
+        <v>0.9990457260685527</v>
       </c>
       <c r="S4">
-        <v>0.9856173921551519</v>
+        <v>0.9911355451965145</v>
       </c>
       <c r="T4">
-        <v>0.9988833854020357</v>
+        <v>0.9990457260685527</v>
       </c>
       <c r="U4">
-        <v>0.9967742382326211</v>
+        <v>0.997788403283973</v>
       </c>
       <c r="V4">
-        <v>1.003468345879102</v>
+        <v>1.001780118136448</v>
       </c>
       <c r="W4">
-        <v>0.9971003094914018</v>
+        <v>0.9981159300146897</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9923512595605198</v>
+        <v>0.9751474916763445</v>
       </c>
       <c r="D5">
-        <v>1.013354216015853</v>
+        <v>1.043285000322776</v>
       </c>
       <c r="E5">
-        <v>1.023067540043229</v>
+        <v>1.07359118883383</v>
       </c>
       <c r="F5">
-        <v>1.023067540043229</v>
+        <v>1.07359118883383</v>
       </c>
       <c r="G5">
-        <v>0.9767405657564835</v>
+        <v>0.924999389724506</v>
       </c>
       <c r="H5">
-        <v>1.00873586884726</v>
+        <v>1.027763965647965</v>
       </c>
       <c r="I5">
-        <v>0.9640362748487014</v>
+        <v>0.8842227880497541</v>
       </c>
       <c r="J5">
-        <v>0.9931386517363123</v>
+        <v>0.9781294484710327</v>
       </c>
       <c r="K5">
-        <v>1.023067540043229</v>
+        <v>1.07359118883383</v>
       </c>
       <c r="L5">
-        <v>1.009415521520176</v>
+        <v>1.031137746521368</v>
       </c>
       <c r="M5">
-        <v>0.9640362748487014</v>
+        <v>0.8842227880497541</v>
       </c>
       <c r="N5">
-        <v>1.023067540043229</v>
+        <v>1.07359118883383</v>
       </c>
       <c r="O5">
-        <v>1.009415521520176</v>
+        <v>1.031137746521368</v>
       </c>
       <c r="P5">
-        <v>0.9867258981844385</v>
+        <v>0.9576802672855609</v>
       </c>
       <c r="Q5">
-        <v>1.000883390540348</v>
+        <v>1.003142619098856</v>
       </c>
       <c r="R5">
-        <v>0.9988397788040354</v>
+        <v>0.9963172411349838</v>
       </c>
       <c r="S5">
-        <v>0.9886010186431323</v>
+        <v>0.963502675415822</v>
       </c>
       <c r="T5">
-        <v>0.9988397788040354</v>
+        <v>0.9963172411349838</v>
       </c>
       <c r="U5">
-        <v>0.9972176489931566</v>
+        <v>0.991024803770324</v>
       </c>
       <c r="V5">
-        <v>1.002387627203171</v>
+        <v>1.007538080783025</v>
       </c>
       <c r="W5">
-        <v>0.9976049872910668</v>
+        <v>0.9922846274059469</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9752425925310712</v>
+        <v>0.9904467967243776</v>
       </c>
       <c r="D6">
-        <v>1.043463310292606</v>
+        <v>1.016408273759668</v>
       </c>
       <c r="E6">
-        <v>1.073681651544235</v>
+        <v>1.030244776465029</v>
       </c>
       <c r="F6">
-        <v>1.073681651544235</v>
+        <v>1.030244776465029</v>
       </c>
       <c r="G6">
-        <v>0.9244846384065237</v>
+        <v>0.9711267117126631</v>
       </c>
       <c r="H6">
-        <v>1.028055269332292</v>
+        <v>1.01128858334171</v>
       </c>
       <c r="I6">
-        <v>0.8829135558862987</v>
+        <v>0.9557173150299362</v>
       </c>
       <c r="J6">
-        <v>0.9781812759311705</v>
+        <v>0.9908819541866885</v>
       </c>
       <c r="K6">
-        <v>1.073681651544235</v>
+        <v>1.030244776465029</v>
       </c>
       <c r="L6">
-        <v>1.031279649853731</v>
+        <v>1.010688064711142</v>
       </c>
       <c r="M6">
-        <v>0.8829135558862987</v>
+        <v>0.9557173150299362</v>
       </c>
       <c r="N6">
-        <v>1.073681651544235</v>
+        <v>1.030244776465029</v>
       </c>
       <c r="O6">
-        <v>1.031279649853731</v>
+        <v>1.010688064711142</v>
       </c>
       <c r="P6">
-        <v>0.957096602870015</v>
+        <v>0.983202689870539</v>
       </c>
       <c r="Q6">
-        <v>1.003261121192401</v>
+        <v>1.00056743071776</v>
       </c>
       <c r="R6">
-        <v>0.9959582857614215</v>
+        <v>0.9988833854020357</v>
       </c>
       <c r="S6">
-        <v>0.963145266090367</v>
+        <v>0.9856173921551519</v>
       </c>
       <c r="T6">
-        <v>0.9959582857614216</v>
+        <v>0.9988833854020357</v>
       </c>
       <c r="U6">
-        <v>0.990779362453834</v>
+        <v>0.9967742382326211</v>
       </c>
       <c r="V6">
-        <v>1.007359820271914</v>
+        <v>1.003468345879102</v>
       </c>
       <c r="W6">
-        <v>0.9921627429722411</v>
+        <v>0.9971003094914018</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9991697096413643</v>
+        <v>0.9923512595605198</v>
       </c>
       <c r="D7">
-        <v>1.001410987435183</v>
+        <v>1.013354216015853</v>
       </c>
       <c r="E7">
-        <v>1.002799732283098</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="F7">
-        <v>1.002799732283098</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="G7">
-        <v>0.9974764413569609</v>
+        <v>0.9767405657564835</v>
       </c>
       <c r="H7">
-        <v>1.001038653457539</v>
+        <v>1.00873586884726</v>
       </c>
       <c r="I7">
-        <v>0.9961473118446</v>
+        <v>0.9640362748487014</v>
       </c>
       <c r="J7">
-        <v>0.9991466945509136</v>
+        <v>0.9931386517363123</v>
       </c>
       <c r="K7">
-        <v>1.002799732283098</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="L7">
-        <v>1.000823464248401</v>
+        <v>1.009415521520176</v>
       </c>
       <c r="M7">
-        <v>0.9961473118446</v>
+        <v>0.9640362748487014</v>
       </c>
       <c r="N7">
-        <v>1.002799732283098</v>
+        <v>1.023067540043229</v>
       </c>
       <c r="O7">
-        <v>1.000823464248401</v>
+        <v>1.009415521520176</v>
       </c>
       <c r="P7">
-        <v>0.9984853880465003</v>
+        <v>0.9867258981844385</v>
       </c>
       <c r="Q7">
-        <v>0.9999965869448825</v>
+        <v>1.000883390540348</v>
       </c>
       <c r="R7">
-        <v>0.9999235027920331</v>
+        <v>0.9988397788040354</v>
       </c>
       <c r="S7">
-        <v>0.9987134952447884</v>
+        <v>0.9886010186431323</v>
       </c>
       <c r="T7">
-        <v>0.9999235027920331</v>
+        <v>0.9988397788040354</v>
       </c>
       <c r="U7">
-        <v>0.9997350545043659</v>
+        <v>0.9972176489931566</v>
       </c>
       <c r="V7">
-        <v>1.000347990060112</v>
+        <v>1.002387627203171</v>
       </c>
       <c r="W7">
-        <v>0.9997516243522575</v>
+        <v>0.9976049872910668</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999328579946544</v>
+        <v>0.9752425925310712</v>
       </c>
       <c r="D8">
-        <v>1.000134499049726</v>
+        <v>1.043463310292606</v>
       </c>
       <c r="E8">
-        <v>1.000089393637363</v>
+        <v>1.073681651544235</v>
       </c>
       <c r="F8">
-        <v>1.000089393637363</v>
+        <v>1.073681651544235</v>
       </c>
       <c r="G8">
-        <v>0.9997902260550089</v>
+        <v>0.9244846384065237</v>
       </c>
       <c r="H8">
-        <v>1.000043933992413</v>
+        <v>1.028055269332292</v>
       </c>
       <c r="I8">
-        <v>0.9996531569107845</v>
+        <v>0.8829135558862987</v>
       </c>
       <c r="J8">
-        <v>0.9999819274347769</v>
+        <v>0.9781812759311705</v>
       </c>
       <c r="K8">
-        <v>1.000089393637363</v>
+        <v>1.073681651544235</v>
       </c>
       <c r="L8">
-        <v>1.00016185953214</v>
+        <v>1.031279649853731</v>
       </c>
       <c r="M8">
-        <v>0.9996531569107845</v>
+        <v>0.8829135558862987</v>
       </c>
       <c r="N8">
-        <v>1.000089393637363</v>
+        <v>1.073681651544235</v>
       </c>
       <c r="O8">
-        <v>1.00016185953214</v>
+        <v>1.031279649853731</v>
       </c>
       <c r="P8">
-        <v>0.9999075082214623</v>
+        <v>0.957096602870015</v>
       </c>
       <c r="Q8">
-        <v>1.000047358763397</v>
+        <v>1.003261121192401</v>
       </c>
       <c r="R8">
-        <v>0.9999681366934291</v>
+        <v>0.9959582857614215</v>
       </c>
       <c r="S8">
-        <v>0.9999159581458597</v>
+        <v>0.963145266090367</v>
       </c>
       <c r="T8">
-        <v>0.9999681366934291</v>
+        <v>0.9959582857614216</v>
       </c>
       <c r="U8">
-        <v>0.9999593170187354</v>
+        <v>0.990779362453834</v>
       </c>
       <c r="V8">
-        <v>0.999985332342461</v>
+        <v>1.007359820271914</v>
       </c>
       <c r="W8">
-        <v>0.9999734818258583</v>
+        <v>0.9921627429722411</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9986565850671516</v>
+        <v>0.9991697096413643</v>
       </c>
       <c r="D9">
-        <v>1.002313142709659</v>
+        <v>1.001410987435183</v>
       </c>
       <c r="E9">
-        <v>1.004323557832123</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="F9">
-        <v>1.004323557832123</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="G9">
-        <v>0.9959094494424265</v>
+        <v>0.9974764413569609</v>
       </c>
       <c r="H9">
-        <v>1.001619768430172</v>
+        <v>1.001038653457539</v>
       </c>
       <c r="I9">
-        <v>0.9937158352480575</v>
+        <v>0.9961473118446</v>
       </c>
       <c r="J9">
-        <v>0.9986959295200908</v>
+        <v>0.9991466945509136</v>
       </c>
       <c r="K9">
-        <v>1.004323557832123</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="L9">
-        <v>1.001475159479067</v>
+        <v>1.000823464248401</v>
       </c>
       <c r="M9">
-        <v>0.9937158352480575</v>
+        <v>0.9961473118446</v>
       </c>
       <c r="N9">
-        <v>1.004323557832123</v>
+        <v>1.002799732283098</v>
       </c>
       <c r="O9">
-        <v>1.001475159479067</v>
+        <v>1.000823464248401</v>
       </c>
       <c r="P9">
-        <v>0.9975954973635625</v>
+        <v>0.9984853880465003</v>
       </c>
       <c r="Q9">
-        <v>1.00006587227311</v>
+        <v>0.9999965869448825</v>
       </c>
       <c r="R9">
-        <v>0.999838184186416</v>
+        <v>0.9999235027920331</v>
       </c>
       <c r="S9">
-        <v>0.9979491932647587</v>
+        <v>0.9987134952447884</v>
       </c>
       <c r="T9">
-        <v>0.999838184186416</v>
+        <v>0.9999235027920331</v>
       </c>
       <c r="U9">
-        <v>0.9995427844065999</v>
+        <v>0.9997350545043659</v>
       </c>
       <c r="V9">
-        <v>1.000498939091705</v>
+        <v>1.000347990060112</v>
       </c>
       <c r="W9">
-        <v>0.9995886784660934</v>
+        <v>0.9997516243522575</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9748804812102213</v>
+        <v>0.9999328579946544</v>
       </c>
       <c r="D10">
-        <v>1.044117549167064</v>
+        <v>1.000134499049726</v>
       </c>
       <c r="E10">
-        <v>1.074723172441865</v>
+        <v>1.000089393637363</v>
       </c>
       <c r="F10">
-        <v>1.074723172441865</v>
+        <v>1.000089393637363</v>
       </c>
       <c r="G10">
-        <v>0.9233517189627433</v>
+        <v>0.9997902260550089</v>
       </c>
       <c r="H10">
-        <v>1.028464541920415</v>
+        <v>1.000043933992413</v>
       </c>
       <c r="I10">
-        <v>0.8811308651456708</v>
+        <v>0.9996531569107845</v>
       </c>
       <c r="J10">
-        <v>0.9778790979715953</v>
+        <v>0.9999819274347769</v>
       </c>
       <c r="K10">
-        <v>1.074723172441865</v>
+        <v>1.000089393637363</v>
       </c>
       <c r="L10">
-        <v>1.031779418600161</v>
+        <v>1.00016185953214</v>
       </c>
       <c r="M10">
-        <v>0.8811308651456708</v>
+        <v>0.9996531569107845</v>
       </c>
       <c r="N10">
-        <v>1.074723172441865</v>
+        <v>1.000089393637363</v>
       </c>
       <c r="O10">
-        <v>1.031779418600161</v>
+        <v>1.00016185953214</v>
       </c>
       <c r="P10">
-        <v>0.956455141872916</v>
+        <v>0.9999075082214623</v>
       </c>
       <c r="Q10">
-        <v>1.003329949905191</v>
+        <v>1.000047358763397</v>
       </c>
       <c r="R10">
-        <v>0.9958778187292322</v>
+        <v>0.9999681366934291</v>
       </c>
       <c r="S10">
-        <v>0.9625969216520178</v>
+        <v>0.9999159581458597</v>
       </c>
       <c r="T10">
-        <v>0.9958778187292322</v>
+        <v>0.9999681366934291</v>
       </c>
       <c r="U10">
-        <v>0.9906284843494795</v>
+        <v>0.9999593170187354</v>
       </c>
       <c r="V10">
-        <v>1.007447421967957</v>
+        <v>0.999985332342461</v>
       </c>
       <c r="W10">
-        <v>0.992040855677467</v>
+        <v>0.9999734818258583</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9951359316592606</v>
+        <v>0.9986565850671516</v>
       </c>
       <c r="D11">
-        <v>1.008348260783213</v>
+        <v>1.002313142709659</v>
       </c>
       <c r="E11">
-        <v>1.015384899327635</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="F11">
-        <v>1.015384899327635</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="G11">
-        <v>0.9853152882903959</v>
+        <v>0.9959094494424265</v>
       </c>
       <c r="H11">
-        <v>1.005737471113003</v>
+        <v>1.001619768430172</v>
       </c>
       <c r="I11">
-        <v>0.9774876924869966</v>
+        <v>0.9937158352480575</v>
       </c>
       <c r="J11">
-        <v>0.9953606493324703</v>
+        <v>0.9986959295200908</v>
       </c>
       <c r="K11">
-        <v>1.015384899327635</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="L11">
-        <v>1.005441163768748</v>
+        <v>1.001475159479067</v>
       </c>
       <c r="M11">
-        <v>0.9774876924869966</v>
+        <v>0.9937158352480575</v>
       </c>
       <c r="N11">
-        <v>1.015384899327635</v>
+        <v>1.004323557832123</v>
       </c>
       <c r="O11">
-        <v>1.005441163768748</v>
+        <v>1.001475159479067</v>
       </c>
       <c r="P11">
-        <v>0.9914644281278723</v>
+        <v>0.9975954973635625</v>
       </c>
       <c r="Q11">
-        <v>1.000288547714004</v>
+        <v>1.00006587227311</v>
       </c>
       <c r="R11">
-        <v>0.9994379185277933</v>
+        <v>0.999838184186416</v>
       </c>
       <c r="S11">
-        <v>0.992688262638335</v>
+        <v>0.9979491932647587</v>
       </c>
       <c r="T11">
-        <v>0.9994379185277933</v>
+        <v>0.999838184186416</v>
       </c>
       <c r="U11">
-        <v>0.9983624218106602</v>
+        <v>0.9995427844065999</v>
       </c>
       <c r="V11">
-        <v>1.001766917314055</v>
+        <v>1.000498939091705</v>
       </c>
       <c r="W11">
-        <v>0.9985264195952155</v>
+        <v>0.9995886784660934</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9923603394842121</v>
+        <v>0.9748804812102213</v>
       </c>
       <c r="D12">
-        <v>1.013415301252633</v>
+        <v>1.044117549167064</v>
       </c>
       <c r="E12">
-        <v>1.022706526042106</v>
+        <v>1.074723172441865</v>
       </c>
       <c r="F12">
-        <v>1.022706526042106</v>
+        <v>1.074723172441865</v>
       </c>
       <c r="G12">
-        <v>0.9766984826736824</v>
+        <v>0.9233517189627433</v>
       </c>
       <c r="H12">
-        <v>1.008647660105264</v>
+        <v>1.028464541920415</v>
       </c>
       <c r="I12">
-        <v>0.9638668553052608</v>
+        <v>0.8811308651456708</v>
       </c>
       <c r="J12">
-        <v>0.9932780889684221</v>
+        <v>0.9778790979715953</v>
       </c>
       <c r="K12">
-        <v>1.022706526042106</v>
+        <v>1.074723172441865</v>
       </c>
       <c r="L12">
-        <v>1.009671827863157</v>
+        <v>1.031779418600161</v>
       </c>
       <c r="M12">
-        <v>0.9638668553052608</v>
+        <v>0.8811308651456708</v>
       </c>
       <c r="N12">
-        <v>1.022706526042106</v>
+        <v>1.074723172441865</v>
       </c>
       <c r="O12">
-        <v>1.009671827863157</v>
+        <v>1.031779418600161</v>
       </c>
       <c r="P12">
-        <v>0.9867693415842089</v>
+        <v>0.956455141872916</v>
       </c>
       <c r="Q12">
-        <v>1.001016083673685</v>
+        <v>1.003329949905191</v>
       </c>
       <c r="R12">
-        <v>0.9987484030701745</v>
+        <v>0.9958778187292322</v>
       </c>
       <c r="S12">
-        <v>0.9886330075508766</v>
+        <v>0.9625969216520178</v>
       </c>
       <c r="T12">
-        <v>0.9987484030701745</v>
+        <v>0.9958778187292322</v>
       </c>
       <c r="U12">
-        <v>0.9971513871736839</v>
+        <v>0.9906284843494795</v>
       </c>
       <c r="V12">
-        <v>1.002262414947368</v>
+        <v>1.007447421967957</v>
       </c>
       <c r="W12">
-        <v>0.9975806352118421</v>
+        <v>0.992040855677467</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.004978978387689</v>
+        <v>0.9951359316592606</v>
       </c>
       <c r="D13">
-        <v>0.991392744630034</v>
+        <v>1.008348260783213</v>
       </c>
       <c r="E13">
-        <v>0.9848951694252378</v>
+        <v>1.015384899327635</v>
       </c>
       <c r="F13">
-        <v>0.9848951694252378</v>
+        <v>1.015384899327635</v>
       </c>
       <c r="G13">
-        <v>1.014988777067236</v>
+        <v>0.9853152882903959</v>
       </c>
       <c r="H13">
-        <v>0.994339771144592</v>
+        <v>1.005737471113003</v>
       </c>
       <c r="I13">
-        <v>1.023052354872671</v>
+        <v>0.9774876924869966</v>
       </c>
       <c r="J13">
-        <v>1.004518797380254</v>
+        <v>0.9953606493324703</v>
       </c>
       <c r="K13">
-        <v>0.9848951694252378</v>
+        <v>1.015384899327635</v>
       </c>
       <c r="L13">
-        <v>0.9940271082361226</v>
+        <v>1.005441163768748</v>
       </c>
       <c r="M13">
-        <v>1.023052354872671</v>
+        <v>0.9774876924869966</v>
       </c>
       <c r="N13">
-        <v>0.9848951694252378</v>
+        <v>1.015384899327635</v>
       </c>
       <c r="O13">
-        <v>0.9940271082361226</v>
+        <v>1.005441163768748</v>
       </c>
       <c r="P13">
-        <v>1.008539731554397</v>
+        <v>0.9914644281278723</v>
       </c>
       <c r="Q13">
-        <v>0.9995030433119056</v>
+        <v>1.000288547714004</v>
       </c>
       <c r="R13">
-        <v>1.000658210844677</v>
+        <v>0.9994379185277933</v>
       </c>
       <c r="S13">
-        <v>1.007352813832161</v>
+        <v>0.992688262638335</v>
       </c>
       <c r="T13">
-        <v>1.000658210844677</v>
+        <v>0.9994379185277933</v>
       </c>
       <c r="U13">
-        <v>1.00173840273043</v>
+        <v>0.9983624218106602</v>
       </c>
       <c r="V13">
-        <v>0.9983697560693916</v>
+        <v>1.001766917314055</v>
       </c>
       <c r="W13">
-        <v>1.00152421264298</v>
+        <v>0.9985264195952155</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9565965400000002</v>
+        <v>0.9923603394842121</v>
       </c>
       <c r="D14">
-        <v>1.076254</v>
+        <v>1.013415301252633</v>
       </c>
       <c r="E14">
-        <v>1.1289798</v>
+        <v>1.022706526042106</v>
       </c>
       <c r="F14">
-        <v>1.1289798</v>
+        <v>1.022706526042106</v>
       </c>
       <c r="G14">
-        <v>0.8675463900000007</v>
+        <v>0.9766984826736824</v>
       </c>
       <c r="H14">
-        <v>1.0491477</v>
+        <v>1.008647660105264</v>
       </c>
       <c r="I14">
-        <v>0.7945536399999986</v>
+        <v>0.9638668553052608</v>
       </c>
       <c r="J14">
-        <v>0.9618283200000005</v>
+        <v>0.9932780889684221</v>
       </c>
       <c r="K14">
-        <v>1.1289798</v>
+        <v>1.022706526042106</v>
       </c>
       <c r="L14">
-        <v>1.055009100000001</v>
+        <v>1.009671827863157</v>
       </c>
       <c r="M14">
-        <v>0.7945536399999986</v>
+        <v>0.9638668553052608</v>
       </c>
       <c r="N14">
-        <v>1.1289798</v>
+        <v>1.022706526042106</v>
       </c>
       <c r="O14">
-        <v>1.055009100000001</v>
+        <v>1.009671827863157</v>
       </c>
       <c r="P14">
-        <v>0.9247813699999996</v>
+        <v>0.9867693415842089</v>
       </c>
       <c r="Q14">
-        <v>1.00580282</v>
+        <v>1.001016083673685</v>
       </c>
       <c r="R14">
-        <v>0.9928475133333331</v>
+        <v>0.9987484030701745</v>
       </c>
       <c r="S14">
-        <v>0.9353864266666664</v>
+        <v>0.9886330075508766</v>
       </c>
       <c r="T14">
-        <v>0.9928475133333331</v>
+        <v>0.9987484030701745</v>
       </c>
       <c r="U14">
-        <v>0.9837847699999999</v>
+        <v>0.9971513871736839</v>
       </c>
       <c r="V14">
-        <v>1.012823776</v>
+        <v>1.002262414947368</v>
       </c>
       <c r="W14">
-        <v>0.9862394362500002</v>
+        <v>0.9975806352118421</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9330054699999999</v>
+        <v>1.004978978387689</v>
       </c>
       <c r="D15">
-        <v>1.1106739</v>
+        <v>0.991392744630034</v>
       </c>
       <c r="E15">
-        <v>1.250483</v>
+        <v>0.9848951694252378</v>
       </c>
       <c r="F15">
-        <v>1.250483</v>
+        <v>0.9848951694252378</v>
       </c>
       <c r="G15">
-        <v>0.7964132100000001</v>
+        <v>1.014988777067236</v>
       </c>
       <c r="H15">
-        <v>1.0913427</v>
+        <v>0.994339771144592</v>
       </c>
       <c r="I15">
-        <v>0.69322785</v>
+        <v>1.023052354872671</v>
       </c>
       <c r="J15">
-        <v>0.92214069</v>
+        <v>1.004518797380254</v>
       </c>
       <c r="K15">
-        <v>1.250483</v>
+        <v>0.9848951694252378</v>
       </c>
       <c r="L15">
-        <v>1.0499823</v>
+        <v>0.9940271082361226</v>
       </c>
       <c r="M15">
-        <v>0.69322785</v>
+        <v>1.023052354872671</v>
       </c>
       <c r="N15">
-        <v>1.250483</v>
+        <v>0.9848951694252378</v>
       </c>
       <c r="O15">
-        <v>1.0499823</v>
+        <v>0.9940271082361226</v>
       </c>
       <c r="P15">
-        <v>0.871605075</v>
+        <v>1.008539731554397</v>
       </c>
       <c r="Q15">
-        <v>0.9914938849999999</v>
+        <v>0.9995030433119056</v>
       </c>
       <c r="R15">
-        <v>0.9978977166666666</v>
+        <v>1.000658210844677</v>
       </c>
       <c r="S15">
-        <v>0.8920718733333333</v>
+        <v>1.007352813832161</v>
       </c>
       <c r="T15">
-        <v>0.9978977166666666</v>
+        <v>1.000658210844677</v>
       </c>
       <c r="U15">
-        <v>0.981674655</v>
+        <v>1.00173840273043</v>
       </c>
       <c r="V15">
-        <v>1.035436324</v>
+        <v>0.9983697560693916</v>
       </c>
       <c r="W15">
-        <v>0.98090864</v>
+        <v>1.00152421264298</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9331386</v>
+        <v>0.9565965400000002</v>
       </c>
       <c r="D16">
-        <v>1.1138031</v>
+        <v>1.076254</v>
       </c>
       <c r="E16">
-        <v>1.2181161</v>
+        <v>1.1289798</v>
       </c>
       <c r="F16">
-        <v>1.2181161</v>
+        <v>1.1289798</v>
       </c>
       <c r="G16">
-        <v>0.79834672</v>
+        <v>0.8675463900000007</v>
       </c>
       <c r="H16">
-        <v>1.0808334</v>
+        <v>1.0491477</v>
       </c>
       <c r="I16">
-        <v>0.6920884</v>
+        <v>0.7945536399999986</v>
       </c>
       <c r="J16">
-        <v>0.93377046</v>
+        <v>0.9618283200000005</v>
       </c>
       <c r="K16">
-        <v>1.2181161</v>
+        <v>1.1289798</v>
       </c>
       <c r="L16">
-        <v>1.070227</v>
+        <v>1.055009100000001</v>
       </c>
       <c r="M16">
-        <v>0.6920884</v>
+        <v>0.7945536399999986</v>
       </c>
       <c r="N16">
-        <v>1.2181161</v>
+        <v>1.1289798</v>
       </c>
       <c r="O16">
-        <v>1.070227</v>
+        <v>1.055009100000001</v>
       </c>
       <c r="P16">
-        <v>0.8811577</v>
+        <v>0.9247813699999996</v>
       </c>
       <c r="Q16">
-        <v>1.0016828</v>
+        <v>1.00580282</v>
       </c>
       <c r="R16">
-        <v>0.9934771666666666</v>
+        <v>0.9928475133333331</v>
       </c>
       <c r="S16">
-        <v>0.8984846666666667</v>
+        <v>0.9353864266666664</v>
       </c>
       <c r="T16">
-        <v>0.9934771666666666</v>
+        <v>0.9928475133333331</v>
       </c>
       <c r="U16">
-        <v>0.978392525</v>
+        <v>0.9837847699999999</v>
       </c>
       <c r="V16">
-        <v>1.02633724</v>
+        <v>1.012823776</v>
       </c>
       <c r="W16">
-        <v>0.9800404725</v>
+        <v>0.9862394362500002</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.98388049</v>
+        <v>0.9330054699999999</v>
       </c>
       <c r="D17">
-        <v>1.0252842</v>
+        <v>1.1106739</v>
       </c>
       <c r="E17">
-        <v>1.0719378</v>
+        <v>1.250483</v>
       </c>
       <c r="F17">
-        <v>1.0719378</v>
+        <v>1.250483</v>
       </c>
       <c r="G17">
-        <v>0.9506980500000001</v>
+        <v>0.7964132100000001</v>
       </c>
       <c r="H17">
-        <v>1.0256737</v>
+        <v>1.0913427</v>
       </c>
       <c r="I17">
-        <v>0.92737719</v>
+        <v>0.69322785</v>
       </c>
       <c r="J17">
-        <v>0.97703299</v>
+        <v>0.92214069</v>
       </c>
       <c r="K17">
-        <v>1.0719378</v>
+        <v>1.250483</v>
       </c>
       <c r="L17">
-        <v>1.0044226</v>
+        <v>1.0499823</v>
       </c>
       <c r="M17">
-        <v>0.92737719</v>
+        <v>0.69322785</v>
       </c>
       <c r="N17">
-        <v>1.0719378</v>
+        <v>1.250483</v>
       </c>
       <c r="O17">
-        <v>1.0044226</v>
+        <v>1.0499823</v>
       </c>
       <c r="P17">
-        <v>0.965899895</v>
+        <v>0.871605075</v>
       </c>
       <c r="Q17">
-        <v>0.994151545</v>
+        <v>0.9914938849999999</v>
       </c>
       <c r="R17">
-        <v>1.001245863333333</v>
+        <v>0.9978977166666666</v>
       </c>
       <c r="S17">
-        <v>0.9718934266666667</v>
+        <v>0.8920718733333333</v>
       </c>
       <c r="T17">
-        <v>1.001245863333333</v>
+        <v>0.9978977166666666</v>
       </c>
       <c r="U17">
-        <v>0.99690452</v>
+        <v>0.981674655</v>
       </c>
       <c r="V17">
-        <v>1.011911176</v>
+        <v>1.035436324</v>
       </c>
       <c r="W17">
-        <v>0.9957883775</v>
+        <v>0.98090864</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9832638856164383</v>
+        <v>0.9331386</v>
       </c>
       <c r="D18">
-        <v>1.028684688493151</v>
+        <v>1.1138031</v>
       </c>
       <c r="E18">
-        <v>1.054796270136986</v>
+        <v>1.2181161</v>
       </c>
       <c r="F18">
-        <v>1.054796270136986</v>
+        <v>1.2181161</v>
       </c>
       <c r="G18">
-        <v>0.9490652261643833</v>
+        <v>0.79834672</v>
       </c>
       <c r="H18">
-        <v>1.020456864931507</v>
+        <v>1.0808334</v>
       </c>
       <c r="I18">
-        <v>0.9219214650684933</v>
+        <v>0.6920884</v>
       </c>
       <c r="J18">
-        <v>0.9834087258904108</v>
+        <v>0.93377046</v>
       </c>
       <c r="K18">
-        <v>1.054796270136986</v>
+        <v>1.2181161</v>
       </c>
       <c r="L18">
-        <v>1.017736934520548</v>
+        <v>1.070227</v>
       </c>
       <c r="M18">
-        <v>0.9219214650684933</v>
+        <v>0.6920884</v>
       </c>
       <c r="N18">
-        <v>1.054796270136986</v>
+        <v>1.2181161</v>
       </c>
       <c r="O18">
-        <v>1.017736934520548</v>
+        <v>1.070227</v>
       </c>
       <c r="P18">
-        <v>0.9698291997945206</v>
+        <v>0.8811577</v>
       </c>
       <c r="Q18">
-        <v>1.000500410068493</v>
+        <v>1.0016828</v>
       </c>
       <c r="R18">
-        <v>0.9981515565753426</v>
+        <v>0.9934771666666666</v>
       </c>
       <c r="S18">
-        <v>0.9743074284018265</v>
+        <v>0.8984846666666667</v>
       </c>
       <c r="T18">
-        <v>0.9981515565753426</v>
+        <v>0.9934771666666666</v>
       </c>
       <c r="U18">
-        <v>0.9944296388356165</v>
+        <v>0.978392525</v>
       </c>
       <c r="V18">
-        <v>1.006502965095891</v>
+        <v>1.02633724</v>
       </c>
       <c r="W18">
-        <v>0.9949167576027397</v>
+        <v>0.9800404725</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9716217336842105</v>
+        <v>0.98388049</v>
       </c>
       <c r="D19">
-        <v>1.050737994736842</v>
+        <v>1.0252842</v>
       </c>
       <c r="E19">
-        <v>1.076077496315789</v>
+        <v>1.0719378</v>
       </c>
       <c r="F19">
-        <v>1.076077496315789</v>
+        <v>1.0719378</v>
       </c>
       <c r="G19">
-        <v>0.9137658905263158</v>
+        <v>0.9506980500000001</v>
       </c>
       <c r="H19">
-        <v>1.029469655789474</v>
+        <v>1.0256737</v>
       </c>
       <c r="I19">
-        <v>0.8651565252631579</v>
+        <v>0.92737719</v>
       </c>
       <c r="J19">
-        <v>0.9780176621052631</v>
+        <v>0.97703299</v>
       </c>
       <c r="K19">
-        <v>1.076077496315789</v>
+        <v>1.0719378</v>
       </c>
       <c r="L19">
-        <v>1.041252684210526</v>
+        <v>1.0044226</v>
       </c>
       <c r="M19">
-        <v>0.8651565252631579</v>
+        <v>0.92737719</v>
       </c>
       <c r="N19">
-        <v>1.076077496315789</v>
+        <v>1.0719378</v>
       </c>
       <c r="O19">
-        <v>1.041252684210526</v>
+        <v>1.0044226</v>
       </c>
       <c r="P19">
-        <v>0.9532046047368421</v>
+        <v>0.965899895</v>
       </c>
       <c r="Q19">
-        <v>1.006437208947368</v>
+        <v>0.994151545</v>
       </c>
       <c r="R19">
-        <v>0.9941622352631579</v>
+        <v>1.001245863333333</v>
       </c>
       <c r="S19">
-        <v>0.9593436477192983</v>
+        <v>0.9718934266666667</v>
       </c>
       <c r="T19">
-        <v>0.9941622352631579</v>
+        <v>1.001245863333333</v>
       </c>
       <c r="U19">
-        <v>0.9885271098684211</v>
+        <v>0.99690452</v>
       </c>
       <c r="V19">
-        <v>1.006037187157895</v>
+        <v>1.011911176</v>
       </c>
       <c r="W19">
-        <v>0.9907624553289474</v>
+        <v>0.9957883775</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9729201047368422</v>
+        <v>0.9832638856164383</v>
       </c>
       <c r="D20">
-        <v>1.047055672105263</v>
+        <v>1.028684688493151</v>
       </c>
       <c r="E20">
-        <v>1.081540789473684</v>
+        <v>1.054796270136986</v>
       </c>
       <c r="F20">
-        <v>1.081540789473684</v>
+        <v>1.054796270136986</v>
       </c>
       <c r="G20">
-        <v>0.9181438252631579</v>
+        <v>0.9490652261643833</v>
       </c>
       <c r="H20">
-        <v>1.030715373684211</v>
+        <v>1.020456864931507</v>
       </c>
       <c r="I20">
-        <v>0.8737652331578946</v>
+        <v>0.9219214650684933</v>
       </c>
       <c r="J20">
-        <v>0.9756907215789477</v>
+        <v>0.9834087258904108</v>
       </c>
       <c r="K20">
-        <v>1.081540789473684</v>
+        <v>1.054796270136986</v>
       </c>
       <c r="L20">
-        <v>1.033107786842105</v>
+        <v>1.017736934520548</v>
       </c>
       <c r="M20">
-        <v>0.8737652331578946</v>
+        <v>0.9219214650684933</v>
       </c>
       <c r="N20">
-        <v>1.081540789473684</v>
+        <v>1.054796270136986</v>
       </c>
       <c r="O20">
-        <v>1.033107786842105</v>
+        <v>1.017736934520548</v>
       </c>
       <c r="P20">
-        <v>0.95343651</v>
+        <v>0.9698291997945206</v>
       </c>
       <c r="Q20">
-        <v>1.003013945789474</v>
+        <v>1.000500410068493</v>
       </c>
       <c r="R20">
-        <v>0.9961379364912281</v>
+        <v>0.9981515565753426</v>
       </c>
       <c r="S20">
-        <v>0.9599310415789474</v>
+        <v>0.9743074284018265</v>
       </c>
       <c r="T20">
-        <v>0.9961379364912281</v>
+        <v>0.9981515565753426</v>
       </c>
       <c r="U20">
-        <v>0.9903334785526315</v>
+        <v>0.9944296388356165</v>
       </c>
       <c r="V20">
-        <v>1.008574940736842</v>
+        <v>1.006502965095891</v>
       </c>
       <c r="W20">
-        <v>0.9916174383552632</v>
+        <v>0.9949167576027397</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9980936794677955</v>
+        <v>0.9716217336842105</v>
       </c>
       <c r="D21">
-        <v>1.007688075550519</v>
+        <v>1.050737994736842</v>
       </c>
       <c r="E21">
-        <v>0.9729884870979971</v>
+        <v>1.076077496315789</v>
       </c>
       <c r="F21">
-        <v>0.9729884870979971</v>
+        <v>1.076077496315789</v>
       </c>
       <c r="G21">
-        <v>0.9938982115638184</v>
+        <v>0.9137658905263158</v>
       </c>
       <c r="H21">
-        <v>0.9922236668840205</v>
+        <v>1.029469655789474</v>
       </c>
       <c r="I21">
-        <v>0.9849952232975554</v>
+        <v>0.8651565252631579</v>
       </c>
       <c r="J21">
-        <v>1.01033041267105</v>
+        <v>0.9780176621052631</v>
       </c>
       <c r="K21">
-        <v>0.9729884870979971</v>
+        <v>1.076077496315789</v>
       </c>
       <c r="L21">
-        <v>1.024453253467575</v>
+        <v>1.041252684210526</v>
       </c>
       <c r="M21">
-        <v>0.9849952232975554</v>
+        <v>0.8651565252631579</v>
       </c>
       <c r="N21">
-        <v>0.9729884870979971</v>
+        <v>1.076077496315789</v>
       </c>
       <c r="O21">
-        <v>1.024453253467575</v>
+        <v>1.041252684210526</v>
       </c>
       <c r="P21">
-        <v>1.004724238382565</v>
+        <v>0.9532046047368421</v>
       </c>
       <c r="Q21">
-        <v>1.011273466467685</v>
+        <v>1.006437208947368</v>
       </c>
       <c r="R21">
-        <v>0.9941456546210423</v>
+        <v>0.9941622352631579</v>
       </c>
       <c r="S21">
-        <v>1.002514052077642</v>
+        <v>0.9593436477192983</v>
       </c>
       <c r="T21">
-        <v>0.9941456546210423</v>
+        <v>0.9941622352631579</v>
       </c>
       <c r="U21">
-        <v>0.9951326608327307</v>
+        <v>0.9885271098684211</v>
       </c>
       <c r="V21">
-        <v>0.990703826085784</v>
+        <v>1.006037187157895</v>
       </c>
       <c r="W21">
-        <v>0.9980838762500412</v>
+        <v>0.9907624553289474</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000750561263715</v>
+        <v>0.9729201047368422</v>
       </c>
       <c r="D22">
-        <v>0.9968479510944342</v>
+        <v>1.047055672105263</v>
       </c>
       <c r="E22">
-        <v>1.011122292967806</v>
+        <v>1.081540789473684</v>
       </c>
       <c r="F22">
-        <v>1.011122292967806</v>
+        <v>1.081540789473684</v>
       </c>
       <c r="G22">
-        <v>1.002530216262848</v>
+        <v>0.9181438252631579</v>
       </c>
       <c r="H22">
-        <v>1.003166208669013</v>
+        <v>1.030715373684211</v>
       </c>
       <c r="I22">
-        <v>1.006276322162429</v>
+        <v>0.8737652331578946</v>
       </c>
       <c r="J22">
-        <v>0.9957375492014302</v>
+        <v>0.9756907215789477</v>
       </c>
       <c r="K22">
-        <v>1.011122292967806</v>
+        <v>1.081540789473684</v>
       </c>
       <c r="L22">
-        <v>0.9899650001712001</v>
+        <v>1.033107786842105</v>
       </c>
       <c r="M22">
-        <v>1.006276322162429</v>
+        <v>0.8737652331578946</v>
       </c>
       <c r="N22">
-        <v>1.011122292967806</v>
+        <v>1.081540789473684</v>
       </c>
       <c r="O22">
-        <v>0.9899650001712001</v>
+        <v>1.033107786842105</v>
       </c>
       <c r="P22">
-        <v>0.9981206611668144</v>
+        <v>0.95343651</v>
       </c>
       <c r="Q22">
-        <v>0.9953577807174577</v>
+        <v>1.003013945789474</v>
       </c>
       <c r="R22">
-        <v>1.002454538433811</v>
+        <v>0.9961379364912281</v>
       </c>
       <c r="S22">
-        <v>0.998997294532448</v>
+        <v>0.9599310415789474</v>
       </c>
       <c r="T22">
-        <v>1.002454538433812</v>
+        <v>0.9961379364912281</v>
       </c>
       <c r="U22">
-        <v>1.002028544141288</v>
+        <v>0.9903334785526315</v>
       </c>
       <c r="V22">
-        <v>1.003847293906591</v>
+        <v>1.008574940736842</v>
       </c>
       <c r="W22">
-        <v>1.000799512724109</v>
+        <v>0.9916174383552632</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.010743508261242</v>
+        <v>0.9980936794677955</v>
       </c>
       <c r="D23">
-        <v>0.9799296370024908</v>
+        <v>1.007688075550519</v>
       </c>
       <c r="E23">
-        <v>0.9776401178658284</v>
+        <v>0.9729884870979971</v>
       </c>
       <c r="F23">
-        <v>0.9776401178658284</v>
+        <v>0.9729884870979971</v>
       </c>
       <c r="G23">
-        <v>1.032716044578428</v>
+        <v>0.9938982115638184</v>
       </c>
       <c r="H23">
-        <v>0.990797156155911</v>
+        <v>0.9922236668840205</v>
       </c>
       <c r="I23">
-        <v>1.052258540876262</v>
+        <v>0.9849952232975554</v>
       </c>
       <c r="J23">
-        <v>1.005953392045314</v>
+        <v>1.01033041267105</v>
       </c>
       <c r="K23">
-        <v>0.9776401178658284</v>
+        <v>0.9729884870979971</v>
       </c>
       <c r="L23">
-        <v>0.9800296639585323</v>
+        <v>1.024453253467575</v>
       </c>
       <c r="M23">
-        <v>1.052258540876262</v>
+        <v>0.9849952232975554</v>
       </c>
       <c r="N23">
-        <v>0.9776401178658284</v>
+        <v>0.9729884870979971</v>
       </c>
       <c r="O23">
-        <v>0.9800296639585323</v>
+        <v>1.024453253467575</v>
       </c>
       <c r="P23">
-        <v>1.016144102417397</v>
+        <v>1.004724238382565</v>
       </c>
       <c r="Q23">
-        <v>0.9953865861098872</v>
+        <v>1.011273466467685</v>
       </c>
       <c r="R23">
-        <v>1.003309440900207</v>
+        <v>0.9941456546210423</v>
       </c>
       <c r="S23">
-        <v>1.014343904365345</v>
+        <v>1.002514052077642</v>
       </c>
       <c r="T23">
-        <v>1.003309440900207</v>
+        <v>0.9941456546210423</v>
       </c>
       <c r="U23">
-        <v>1.005167957740466</v>
+        <v>0.9951326608327307</v>
       </c>
       <c r="V23">
-        <v>0.9996623897655386</v>
+        <v>0.990703826085784</v>
       </c>
       <c r="W23">
-        <v>1.003758507593001</v>
+        <v>0.9980838762500412</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.002401944110519</v>
+        <v>1.000750561263715</v>
       </c>
       <c r="D24">
-        <v>0.9965292044671699</v>
+        <v>0.9968479510944342</v>
       </c>
       <c r="E24">
-        <v>0.9880502330102715</v>
+        <v>1.011122292967806</v>
       </c>
       <c r="F24">
-        <v>0.9880502330102715</v>
+        <v>1.011122292967806</v>
       </c>
       <c r="G24">
-        <v>1.007062734392442</v>
+        <v>1.002530216262848</v>
       </c>
       <c r="H24">
-        <v>0.9958967502760446</v>
+        <v>1.003166208669013</v>
       </c>
       <c r="I24">
-        <v>1.009978893299014</v>
+        <v>1.006276322162429</v>
       </c>
       <c r="J24">
-        <v>1.003909950768545</v>
+        <v>0.9957375492014302</v>
       </c>
       <c r="K24">
-        <v>0.9880502330102715</v>
+        <v>1.011122292967806</v>
       </c>
       <c r="L24">
-        <v>1.000344419947144</v>
+        <v>0.9899650001712001</v>
       </c>
       <c r="M24">
-        <v>1.009978893299014</v>
+        <v>1.006276322162429</v>
       </c>
       <c r="N24">
-        <v>0.9880502330102715</v>
+        <v>1.011122292967806</v>
       </c>
       <c r="O24">
-        <v>1.000344419947144</v>
+        <v>0.9899650001712001</v>
       </c>
       <c r="P24">
-        <v>1.005161656623079</v>
+        <v>0.9981206611668144</v>
       </c>
       <c r="Q24">
-        <v>1.001373182028832</v>
+        <v>0.9953577807174577</v>
       </c>
       <c r="R24">
-        <v>0.9994578487521433</v>
+        <v>1.002454538433811</v>
       </c>
       <c r="S24">
-        <v>1.004241752452226</v>
+        <v>0.998997294532448</v>
       </c>
       <c r="T24">
-        <v>0.9994578487521433</v>
+        <v>1.002454538433812</v>
       </c>
       <c r="U24">
-        <v>1.000193872591737</v>
+        <v>1.002028544141288</v>
       </c>
       <c r="V24">
-        <v>0.9977651446754441</v>
+        <v>1.003847293906591</v>
       </c>
       <c r="W24">
-        <v>1.000521766283894</v>
+        <v>1.000799512724109</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.003462617468834</v>
+        <v>1.010743508261242</v>
       </c>
       <c r="D25">
-        <v>0.991782611931403</v>
+        <v>0.9799296370024908</v>
       </c>
       <c r="E25">
-        <v>1.00619318849223</v>
+        <v>0.9776401178658284</v>
       </c>
       <c r="F25">
-        <v>1.00619318849223</v>
+        <v>0.9776401178658284</v>
       </c>
       <c r="G25">
-        <v>1.01059840207446</v>
+        <v>1.032716044578428</v>
       </c>
       <c r="H25">
-        <v>1.001130087562495</v>
+        <v>0.990797156155911</v>
       </c>
       <c r="I25">
-        <v>1.019154268535342</v>
+        <v>1.052258540876262</v>
       </c>
       <c r="J25">
-        <v>0.9970031800178126</v>
+        <v>1.005953392045314</v>
       </c>
       <c r="K25">
-        <v>1.00619318849223</v>
+        <v>0.9776401178658284</v>
       </c>
       <c r="L25">
-        <v>0.984566471195484</v>
+        <v>0.9800296639585323</v>
       </c>
       <c r="M25">
-        <v>1.019154268535342</v>
+        <v>1.052258540876262</v>
       </c>
       <c r="N25">
-        <v>1.00619318849223</v>
+        <v>0.9776401178658284</v>
       </c>
       <c r="O25">
-        <v>0.984566471195484</v>
+        <v>0.9800296639585323</v>
       </c>
       <c r="P25">
-        <v>1.001860369865413</v>
+        <v>1.016144102417397</v>
       </c>
       <c r="Q25">
-        <v>0.9940145443321589</v>
+        <v>0.9953865861098872</v>
       </c>
       <c r="R25">
-        <v>1.003304642741019</v>
+        <v>1.003309440900207</v>
       </c>
       <c r="S25">
-        <v>1.002394452399887</v>
+        <v>1.014343904365345</v>
       </c>
       <c r="T25">
-        <v>1.003304642741019</v>
+        <v>1.003309440900207</v>
       </c>
       <c r="U25">
-        <v>1.003344136422972</v>
+        <v>1.005167957740466</v>
       </c>
       <c r="V25">
-        <v>1.003913946836824</v>
+        <v>0.9996623897655386</v>
       </c>
       <c r="W25">
-        <v>1.001736353409758</v>
+        <v>1.003758507593001</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000226789388881</v>
+        <v>1.002401944110519</v>
       </c>
       <c r="D26">
-        <v>1.000528208903279</v>
+        <v>0.9965292044671699</v>
       </c>
       <c r="E26">
-        <v>0.9924173866972724</v>
+        <v>0.9880502330102715</v>
       </c>
       <c r="F26">
-        <v>0.9924173866972724</v>
+        <v>0.9880502330102715</v>
       </c>
       <c r="G26">
-        <v>1.000612991129174</v>
+        <v>1.007062734392442</v>
       </c>
       <c r="H26">
-        <v>0.9976493917613765</v>
+        <v>0.9958967502760446</v>
       </c>
       <c r="I26">
-        <v>0.9997659240634846</v>
+        <v>1.009978893299014</v>
       </c>
       <c r="J26">
-        <v>1.002740523306271</v>
+        <v>1.003909950768545</v>
       </c>
       <c r="K26">
-        <v>0.9924173866972724</v>
+        <v>0.9880502330102715</v>
       </c>
       <c r="L26">
-        <v>1.004383921824777</v>
+        <v>1.000344419947144</v>
       </c>
       <c r="M26">
-        <v>0.9997659240634846</v>
+        <v>1.009978893299014</v>
       </c>
       <c r="N26">
-        <v>0.9924173866972724</v>
+        <v>0.9880502330102715</v>
       </c>
       <c r="O26">
-        <v>1.004383921824777</v>
+        <v>1.000344419947144</v>
       </c>
       <c r="P26">
-        <v>1.002074922944131</v>
+        <v>1.005161656623079</v>
       </c>
       <c r="Q26">
-        <v>1.002305355606829</v>
+        <v>1.001373182028832</v>
       </c>
       <c r="R26">
-        <v>0.9988557441951781</v>
+        <v>0.9994578487521433</v>
       </c>
       <c r="S26">
-        <v>1.001458878425714</v>
+        <v>1.004241752452226</v>
       </c>
       <c r="T26">
-        <v>0.9988557441951779</v>
+        <v>0.9994578487521433</v>
       </c>
       <c r="U26">
-        <v>0.9991985054936037</v>
+        <v>1.000193872591737</v>
       </c>
       <c r="V26">
-        <v>0.9978422817343373</v>
+        <v>0.9977651446754441</v>
       </c>
       <c r="W26">
-        <v>0.9997906421343146</v>
+        <v>1.000521766283894</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9973193638045665</v>
+        <v>1.003462617468834</v>
       </c>
       <c r="D27">
-        <v>1.004490890175769</v>
+        <v>0.991782611931403</v>
       </c>
       <c r="E27">
-        <v>1.00819493369517</v>
+        <v>1.00619318849223</v>
       </c>
       <c r="F27">
-        <v>1.00819493369517</v>
+        <v>1.00619318849223</v>
       </c>
       <c r="G27">
-        <v>0.9922067514549096</v>
+        <v>1.01059840207446</v>
       </c>
       <c r="H27">
-        <v>1.002968920962213</v>
+        <v>1.001130087562495</v>
       </c>
       <c r="I27">
-        <v>0.9882244829558388</v>
+        <v>1.019154268535342</v>
       </c>
       <c r="J27">
-        <v>0.9975081569990346</v>
+        <v>0.9970031800178126</v>
       </c>
       <c r="K27">
-        <v>1.00819493369517</v>
+        <v>1.00619318849223</v>
       </c>
       <c r="L27">
-        <v>1.002997965044083</v>
+        <v>0.984566471195484</v>
       </c>
       <c r="M27">
-        <v>0.9882244829558388</v>
+        <v>1.019154268535342</v>
       </c>
       <c r="N27">
-        <v>1.00819493369517</v>
+        <v>1.00619318849223</v>
       </c>
       <c r="O27">
-        <v>1.002997965044083</v>
+        <v>0.984566471195484</v>
       </c>
       <c r="P27">
-        <v>0.9956112239999608</v>
+        <v>1.001860369865413</v>
       </c>
       <c r="Q27">
-        <v>1.000158664424325</v>
+        <v>0.9940145443321589</v>
       </c>
       <c r="R27">
-        <v>0.9998057938983639</v>
+        <v>1.003304642741019</v>
       </c>
       <c r="S27">
-        <v>0.9961806039348294</v>
+        <v>1.002394452399887</v>
       </c>
       <c r="T27">
-        <v>0.9998057938983641</v>
+        <v>1.003304642741019</v>
       </c>
       <c r="U27">
-        <v>0.9991841863749147</v>
+        <v>1.003344136422972</v>
       </c>
       <c r="V27">
-        <v>1.000986335838966</v>
+        <v>1.003913946836824</v>
       </c>
       <c r="W27">
-        <v>0.9992389331364482</v>
+        <v>1.001736353409758</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9972567743139565</v>
+        <v>1.000226789388881</v>
       </c>
       <c r="D28">
-        <v>1.004504161764876</v>
+        <v>1.000528208903279</v>
       </c>
       <c r="E28">
-        <v>1.009870593435159</v>
+        <v>0.9924173866972724</v>
       </c>
       <c r="F28">
-        <v>1.009870593435159</v>
+        <v>0.9924173866972724</v>
       </c>
       <c r="G28">
-        <v>0.991821740539622</v>
+        <v>1.000612991129174</v>
       </c>
       <c r="H28">
-        <v>1.003565847550378</v>
+        <v>0.9976493917613765</v>
       </c>
       <c r="I28">
-        <v>0.9877328577135513</v>
+        <v>0.9997659240634846</v>
       </c>
       <c r="J28">
-        <v>0.9969326907944169</v>
+        <v>1.002740523306271</v>
       </c>
       <c r="K28">
-        <v>1.009870593435159</v>
+        <v>0.9924173866972724</v>
       </c>
       <c r="L28">
-        <v>1.002204279513607</v>
+        <v>1.004383921824777</v>
       </c>
       <c r="M28">
-        <v>0.9877328577135513</v>
+        <v>0.9997659240634846</v>
       </c>
       <c r="N28">
-        <v>1.009870593435159</v>
+        <v>0.9924173866972724</v>
       </c>
       <c r="O28">
-        <v>1.002204279513607</v>
+        <v>1.004383921824777</v>
       </c>
       <c r="P28">
-        <v>0.9949685686135794</v>
+        <v>1.002074922944131</v>
       </c>
       <c r="Q28">
-        <v>0.9997305269137819</v>
+        <v>1.002305355606829</v>
       </c>
       <c r="R28">
-        <v>0.9999359102207727</v>
+        <v>0.9988557441951781</v>
       </c>
       <c r="S28">
-        <v>0.9957313038470385</v>
+        <v>1.001458878425714</v>
       </c>
       <c r="T28">
-        <v>0.9999359102207727</v>
+        <v>0.9988557441951779</v>
       </c>
       <c r="U28">
-        <v>0.9992661262440686</v>
+        <v>0.9991985054936037</v>
       </c>
       <c r="V28">
-        <v>1.001387019682287</v>
+        <v>0.9978422817343373</v>
       </c>
       <c r="W28">
-        <v>0.9992361182031959</v>
+        <v>0.9997906421343146</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9973193638045665</v>
+      </c>
+      <c r="D29">
+        <v>1.004490890175769</v>
+      </c>
+      <c r="E29">
+        <v>1.00819493369517</v>
+      </c>
+      <c r="F29">
+        <v>1.00819493369517</v>
+      </c>
+      <c r="G29">
+        <v>0.9922067514549096</v>
+      </c>
+      <c r="H29">
+        <v>1.002968920962213</v>
+      </c>
+      <c r="I29">
+        <v>0.9882244829558388</v>
+      </c>
+      <c r="J29">
+        <v>0.9975081569990346</v>
+      </c>
+      <c r="K29">
+        <v>1.00819493369517</v>
+      </c>
+      <c r="L29">
+        <v>1.002997965044083</v>
+      </c>
+      <c r="M29">
+        <v>0.9882244829558388</v>
+      </c>
+      <c r="N29">
+        <v>1.00819493369517</v>
+      </c>
+      <c r="O29">
+        <v>1.002997965044083</v>
+      </c>
+      <c r="P29">
+        <v>0.9956112239999608</v>
+      </c>
+      <c r="Q29">
+        <v>1.000158664424325</v>
+      </c>
+      <c r="R29">
+        <v>0.9998057938983639</v>
+      </c>
+      <c r="S29">
+        <v>0.9961806039348294</v>
+      </c>
+      <c r="T29">
+        <v>0.9998057938983641</v>
+      </c>
+      <c r="U29">
+        <v>0.9991841863749147</v>
+      </c>
+      <c r="V29">
+        <v>1.000986335838966</v>
+      </c>
+      <c r="W29">
+        <v>0.9992389331364482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9972567743139565</v>
+      </c>
+      <c r="D30">
+        <v>1.004504161764876</v>
+      </c>
+      <c r="E30">
+        <v>1.009870593435159</v>
+      </c>
+      <c r="F30">
+        <v>1.009870593435159</v>
+      </c>
+      <c r="G30">
+        <v>0.991821740539622</v>
+      </c>
+      <c r="H30">
+        <v>1.003565847550378</v>
+      </c>
+      <c r="I30">
+        <v>0.9877328577135513</v>
+      </c>
+      <c r="J30">
+        <v>0.9969326907944169</v>
+      </c>
+      <c r="K30">
+        <v>1.009870593435159</v>
+      </c>
+      <c r="L30">
+        <v>1.002204279513607</v>
+      </c>
+      <c r="M30">
+        <v>0.9877328577135513</v>
+      </c>
+      <c r="N30">
+        <v>1.009870593435159</v>
+      </c>
+      <c r="O30">
+        <v>1.002204279513607</v>
+      </c>
+      <c r="P30">
+        <v>0.9949685686135794</v>
+      </c>
+      <c r="Q30">
+        <v>0.9997305269137819</v>
+      </c>
+      <c r="R30">
+        <v>0.9999359102207727</v>
+      </c>
+      <c r="S30">
+        <v>0.9957313038470385</v>
+      </c>
+      <c r="T30">
+        <v>0.9999359102207727</v>
+      </c>
+      <c r="U30">
+        <v>0.9992661262440686</v>
+      </c>
+      <c r="V30">
+        <v>1.001387019682287</v>
+      </c>
+      <c r="W30">
+        <v>0.9992361182031959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.005781436742216</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9890163793681043</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9910500944414633</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9910500944414633</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.017169398836295</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9961484995003667</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.027639291867911</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.002131297776797</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9910500944414633</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9874687897026277</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.027639291867911</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9910500944414633</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9874687897026277</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.007554040785269</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9966251132224216</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.002052725337334</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.006963172770918</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.002052725337334</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.002984903188554</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.000597941439136</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.002050648529472</v>
       </c>
     </row>
